--- a/Data/Format_v1.xlsx
+++ b/Data/Format_v1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="76">
   <si>
     <t>Original</t>
   </si>
@@ -696,7 +696,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -901,8 +901,8 @@
       <c r="C12" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>25</v>
+      <c r="D12" s="5">
+        <v>0</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>25</v>
@@ -918,8 +918,8 @@
       <c r="C13" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>25</v>
+      <c r="D13" s="5">
+        <v>0</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>25</v>

--- a/Data/Format_v1.xlsx
+++ b/Data/Format_v1.xlsx
@@ -4,11 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="2420" yWindow="400" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$32</definedName>
+  </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -18,8 +22,173 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Henk-Jan Westeneng</author>
+  </authors>
+  <commentList>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Henk-Jan Westeneng:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Is van belang om juiste naam een longitudinale data te geven.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Henk-Jan Westeneng:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Rename van identifier moet altijd ALSnr zijn.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Henk-Jan Westeneng:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Script is niet getest voor &gt;1 identifier! Dus ip "ID" maar bij 1 cel invullen.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Henk-Jan Westeneng</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Henk-Jan Westeneng:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Uitleg:
+Zoek in de colnames variabele van interest (var_col) en vergelijk die met de andere variabele van interest (var_row). Indien var_col &lt; var_row (i.e. als bijv. datum in var_col altijd voorafgaat aan var_row), dan geef je -1, indien var_col &gt; var_row, dan geeft je 1, en als je het niet weet of het doet er niet (zoveel) toe, dan laat je het gewoon open. Het is alleen nodig om de "lower triangular" in te vullen.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Henk-Jan Westeneng:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Even kijken hoe dit precies in progeny staat. Mogelijk ook -1.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Henk-Jan Westeneng:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Waarschijnlijk prima om open te laten.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="91">
   <si>
     <t>Original</t>
   </si>
@@ -247,13 +416,58 @@
   </si>
   <si>
     <t>DoDeath</t>
+  </si>
+  <si>
+    <t>Table FVC.Date FVC</t>
+  </si>
+  <si>
+    <t>Table FVC.FVC (% of predicted)</t>
+  </si>
+  <si>
+    <t>DoFVC</t>
+  </si>
+  <si>
+    <t>FVC_perc</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Demographics</t>
+  </si>
+  <si>
+    <t>Survival</t>
+  </si>
+  <si>
+    <t>ECAS</t>
+  </si>
+  <si>
+    <t>ALSFRS_R</t>
+  </si>
+  <si>
+    <t>FVC</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Wide2long</t>
+  </si>
+  <si>
+    <t>Dit is de identifier (altijd Group==ID geven). Voor ID ip altijd Regex gebruiken (nooit min, max of possible values).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -292,8 +506,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,6 +555,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,7 +574,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -336,16 +594,45 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="43">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -355,6 +642,18 @@
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -364,6 +663,18 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -692,11 +1003,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -708,9 +1019,10 @@
     <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="40.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -732,8 +1044,17 @@
       <c r="G1" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -746,8 +1067,14 @@
       <c r="G2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -760,8 +1087,11 @@
       <c r="F3" s="5" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -777,8 +1107,11 @@
       <c r="E4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -794,8 +1127,11 @@
       <c r="E5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -811,8 +1147,11 @@
       <c r="E6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -828,8 +1167,11 @@
       <c r="E7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -845,8 +1187,11 @@
       <c r="E8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -859,8 +1204,12 @@
       <c r="F9" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -873,8 +1222,12 @@
       <c r="F10" s="5" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -890,8 +1243,11 @@
       <c r="E11" s="5">
         <v>136</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -904,11 +1260,14 @@
       <c r="D12" s="5">
         <v>0</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="E12" s="5">
+        <v>100</v>
+      </c>
+      <c r="H12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -921,11 +1280,14 @@
       <c r="D13" s="5">
         <v>0</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="E13" s="5">
+        <v>36</v>
+      </c>
+      <c r="H13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -941,8 +1303,11 @@
       <c r="E14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>67</v>
       </c>
@@ -956,8 +1321,11 @@
       <c r="F15" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -973,8 +1341,11 @@
       <c r="E16" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -990,8 +1361,11 @@
       <c r="E17">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -1007,8 +1381,11 @@
       <c r="E18">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -1024,8 +1401,11 @@
       <c r="E19">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -1041,8 +1421,11 @@
       <c r="E20">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -1058,8 +1441,11 @@
       <c r="E21">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -1075,8 +1461,11 @@
       <c r="E22">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -1092,8 +1481,11 @@
       <c r="E23">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -1109,8 +1501,11 @@
       <c r="E24">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -1126,8 +1521,11 @@
       <c r="E25">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -1143,8 +1541,11 @@
       <c r="E26">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -1160,8 +1561,11 @@
       <c r="E27">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -1177,8 +1581,11 @@
       <c r="E28">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -1194,33 +1601,230 @@
       <c r="E29">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" t="s">
+      <c r="H29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="2">
+        <v>29221</v>
+      </c>
+      <c r="E30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31">
+        <v>20</v>
+      </c>
+      <c r="E31">
+        <v>200</v>
+      </c>
+      <c r="H31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C32" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E32" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F32" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G32" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="H32" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I32" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="4"/>
+      <c r="B1" s="1" t="str">
+        <f>A2</f>
+        <v>DoB</v>
+      </c>
+      <c r="C1" s="1" t="str">
+        <f>A3</f>
+        <v>DoO</v>
+      </c>
+      <c r="D1" s="1" t="str">
+        <f>A4</f>
+        <v>DoDiag</v>
+      </c>
+      <c r="E1" s="1" t="str">
+        <f>A5</f>
+        <v>DoDeath</v>
+      </c>
+      <c r="F1" s="1" t="str">
+        <f>A6</f>
+        <v>DoCheck</v>
+      </c>
+      <c r="G1" s="1" t="str">
+        <f>A7</f>
+        <v>DoECAS</v>
+      </c>
+      <c r="H1" s="1" t="str">
+        <f>A8</f>
+        <v>DoALSFRS</v>
+      </c>
+      <c r="I1" s="1" t="str">
+        <f>A9</f>
+        <v>DoFVC</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="8"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>-1</v>
+      </c>
+      <c r="C3" s="8"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>-1</v>
+      </c>
+      <c r="C4">
+        <v>-1</v>
+      </c>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5">
+        <v>-1</v>
+      </c>
+      <c r="C5">
+        <v>-1</v>
+      </c>
+      <c r="D5">
+        <v>-1</v>
+      </c>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6">
+        <v>-1</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <v>-1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8">
+        <v>-1</v>
+      </c>
+      <c r="C8">
+        <v>-1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9">
+        <v>-1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Data/Format_v1.xlsx
+++ b/Data/Format_v1.xlsx
@@ -1,19 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10210"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Promise_Pegasus/Harold/Rprojects/MRI/Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2420" yWindow="400" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21940" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$57</definedName>
   </definedNames>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +33,7 @@
     <author>Henk-Jan Westeneng</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0">
+    <comment ref="B2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -76,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -110,7 +115,7 @@
     <author>Henk-Jan Westeneng</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -135,7 +140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0">
+    <comment ref="C6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -159,7 +164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="0">
+    <comment ref="D6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -188,7 +193,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="142">
   <si>
     <t>Original</t>
   </si>
@@ -208,9 +213,6 @@
     <t>Possible_values</t>
   </si>
   <si>
-    <t>ALSnummer #</t>
-  </si>
-  <si>
     <t>ALSnr</t>
   </si>
   <si>
@@ -274,24 +276,15 @@
     <t>ECAS_Total_Score</t>
   </si>
   <si>
-    <t>ECAS_total</t>
-  </si>
-  <si>
     <t>numeric</t>
   </si>
   <si>
     <t>ECAS ALS_SPECIFIC</t>
   </si>
   <si>
-    <t>ECAS_spec</t>
-  </si>
-  <si>
     <t>ECAS ALS_NONSPECIFIC</t>
   </si>
   <si>
-    <t>ECAS_nonspec</t>
-  </si>
-  <si>
     <t>ECAS: Date of testing</t>
   </si>
   <si>
@@ -394,9 +387,6 @@
     <t>ECAS: Version A or B</t>
   </si>
   <si>
-    <t>ECAS_version</t>
-  </si>
-  <si>
     <t>Bulbar|Spinal|Thoracic/respiratory|Generalized</t>
   </si>
   <si>
@@ -461,12 +451,180 @@
   </si>
   <si>
     <t>Dit is de identifier (altijd Group==ID geven). Voor ID ip altijd Regex gebruiken (nooit min, max of possible values).</t>
+  </si>
+  <si>
+    <t>FU2: ECAS: Date of testing</t>
+  </si>
+  <si>
+    <t>FU3: ECAS: Date of testing</t>
+  </si>
+  <si>
+    <t>FU4: ECAS: Date of testing</t>
+  </si>
+  <si>
+    <t>FU5: ECAS: Date of testing</t>
+  </si>
+  <si>
+    <t>FU2 ECAS: Version A or B</t>
+  </si>
+  <si>
+    <t>FU3 ECAS: Version A or B</t>
+  </si>
+  <si>
+    <t>FU4 ECAS: Version A or B</t>
+  </si>
+  <si>
+    <t>FU5 ECAS: Version A or B</t>
+  </si>
+  <si>
+    <t>Reat or write problems</t>
+  </si>
+  <si>
+    <t>FU2: Read or write problems</t>
+  </si>
+  <si>
+    <t>FU3: Read or write problems</t>
+  </si>
+  <si>
+    <t>FU4: Read or write problems</t>
+  </si>
+  <si>
+    <t>FU5: Read or write problems</t>
+  </si>
+  <si>
+    <t>FU2: ECAS ALS_SPECIFIC</t>
+  </si>
+  <si>
+    <t>FU3: ECAS ALS_SPECIFIC</t>
+  </si>
+  <si>
+    <t>FU4: ECAS ALS_SPECIFIC</t>
+  </si>
+  <si>
+    <t>FU5: ECAS ALS_SPECIFIC</t>
+  </si>
+  <si>
+    <t>FU2: ECAS ALS_NONSPECIFIC</t>
+  </si>
+  <si>
+    <t>FU3: ECAS ALS_NONSPECIFIC</t>
+  </si>
+  <si>
+    <t>FU4: ECAS ALS-NONSPECIFIC</t>
+  </si>
+  <si>
+    <t>FU5: ECAS ALS_NONSPECIFIC</t>
+  </si>
+  <si>
+    <t>FU2: ECAS Total score</t>
+  </si>
+  <si>
+    <t>FU3: ECAS Total score</t>
+  </si>
+  <si>
+    <t>FU4: ECAS Total score</t>
+  </si>
+  <si>
+    <t>FU5: ECAS Total score</t>
+  </si>
+  <si>
+    <t>DoECAS1</t>
+  </si>
+  <si>
+    <t>DoECAS2</t>
+  </si>
+  <si>
+    <t>DoECAS3</t>
+  </si>
+  <si>
+    <t>DoECAS4</t>
+  </si>
+  <si>
+    <t>DoECAS5</t>
+  </si>
+  <si>
+    <t>ECAS_version1</t>
+  </si>
+  <si>
+    <t>ECAS_version2</t>
+  </si>
+  <si>
+    <t>ECAS_version3</t>
+  </si>
+  <si>
+    <t>ECAS_version4</t>
+  </si>
+  <si>
+    <t>ECAS_version5</t>
+  </si>
+  <si>
+    <t>ECAS_problemrw1</t>
+  </si>
+  <si>
+    <t>ECAS_problemrw2</t>
+  </si>
+  <si>
+    <t>ECAS_problemrw3</t>
+  </si>
+  <si>
+    <t>ECAS_problemrw4</t>
+  </si>
+  <si>
+    <t>ECAS_problemrw5</t>
+  </si>
+  <si>
+    <t>ECAS_spec1</t>
+  </si>
+  <si>
+    <t>ECAS_spec2</t>
+  </si>
+  <si>
+    <t>ECAS_spec3</t>
+  </si>
+  <si>
+    <t>ECAS_spec4</t>
+  </si>
+  <si>
+    <t>ECAS_spec5</t>
+  </si>
+  <si>
+    <t>ECAS_nonspec1</t>
+  </si>
+  <si>
+    <t>ECAS_nonspec2</t>
+  </si>
+  <si>
+    <t>ECAS_nonspec3</t>
+  </si>
+  <si>
+    <t>ECAS_nonspec4</t>
+  </si>
+  <si>
+    <t>ECAS_nonspec5</t>
+  </si>
+  <si>
+    <t>ECAS_total1</t>
+  </si>
+  <si>
+    <t>ECAS_total2</t>
+  </si>
+  <si>
+    <t>ECAS_total3</t>
+  </si>
+  <si>
+    <t>ECAS_total4</t>
+  </si>
+  <si>
+    <t>ECAS_total5</t>
+  </si>
+  <si>
+    <t>ALS number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -679,6 +837,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1004,16 +1170,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
@@ -1022,7 +1188,7 @@
     <col min="8" max="9" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1042,635 +1208,1131 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
       </c>
       <c r="D4" s="2">
         <v>367</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2">
         <v>18264</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2">
         <v>18264</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2">
         <v>29221</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2">
         <v>29221</v>
       </c>
       <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2">
+        <v>40179</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2">
+        <v>40180</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2">
+        <v>40181</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2">
+        <v>40182</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2">
+        <v>40183</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="F16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" t="s">
+        <v>80</v>
+      </c>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" t="s">
+        <v>80</v>
+      </c>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="H21" t="s">
+        <v>80</v>
+      </c>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="H22" t="s">
+        <v>80</v>
+      </c>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="H23" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="H24" t="s">
+        <v>80</v>
+      </c>
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="H25" t="s">
+        <v>80</v>
+      </c>
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0</v>
+      </c>
+      <c r="E26" s="5">
+        <v>100</v>
+      </c>
+      <c r="H26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0</v>
+      </c>
+      <c r="E27" s="5">
+        <v>100</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="H27" t="s">
+        <v>80</v>
+      </c>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0</v>
+      </c>
+      <c r="E28" s="5">
+        <v>100</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="H28" t="s">
+        <v>80</v>
+      </c>
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0</v>
+      </c>
+      <c r="E29" s="5">
+        <v>100</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="H29" t="s">
+        <v>80</v>
+      </c>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0</v>
+      </c>
+      <c r="E30" s="5">
+        <v>100</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="H30" t="s">
+        <v>80</v>
+      </c>
+      <c r="I30" s="7"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0</v>
+      </c>
+      <c r="E31" s="5">
+        <v>36</v>
+      </c>
+      <c r="H31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0</v>
+      </c>
+      <c r="E32" s="5">
+        <v>36</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="H32" t="s">
+        <v>80</v>
+      </c>
+      <c r="I32" s="7"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="5">
+        <v>0</v>
+      </c>
+      <c r="E33" s="5">
+        <v>36</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="H33" t="s">
+        <v>80</v>
+      </c>
+      <c r="I33" s="7"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0</v>
+      </c>
+      <c r="E34" s="5">
+        <v>36</v>
+      </c>
+      <c r="F34" s="5"/>
+      <c r="H34" t="s">
+        <v>80</v>
+      </c>
+      <c r="I34" s="7"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" t="s">
+        <v>135</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0</v>
+      </c>
+      <c r="E35" s="5">
+        <v>36</v>
+      </c>
+      <c r="F35" s="5"/>
+      <c r="H35" t="s">
+        <v>80</v>
+      </c>
+      <c r="I35" s="7"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>26</v>
       </c>
-      <c r="H8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
+      <c r="B36" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="5">
+        <v>0</v>
+      </c>
+      <c r="E36" s="5">
+        <v>136</v>
+      </c>
+      <c r="H36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="5">
+        <v>0</v>
+      </c>
+      <c r="E37" s="5">
+        <v>136</v>
+      </c>
+      <c r="F37" s="5"/>
+      <c r="H37" t="s">
+        <v>80</v>
+      </c>
+      <c r="I37" s="7"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" t="s">
+        <v>138</v>
+      </c>
+      <c r="C38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="5">
+        <v>0</v>
+      </c>
+      <c r="E38" s="5">
+        <v>136</v>
+      </c>
+      <c r="F38" s="5"/>
+      <c r="H38" t="s">
+        <v>80</v>
+      </c>
+      <c r="I38" s="7"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="5">
+        <v>0</v>
+      </c>
+      <c r="E39" s="5">
+        <v>136</v>
+      </c>
+      <c r="F39" s="5"/>
+      <c r="H39" t="s">
+        <v>80</v>
+      </c>
+      <c r="I39" s="7"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" t="s">
+        <v>140</v>
+      </c>
+      <c r="C40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="5">
+        <v>0</v>
+      </c>
+      <c r="E40" s="5">
+        <v>136</v>
+      </c>
+      <c r="F40" s="5"/>
+      <c r="H40" t="s">
+        <v>80</v>
+      </c>
+      <c r="I40" s="7"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="2">
+        <v>32874</v>
+      </c>
+      <c r="E41" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>4</v>
+      </c>
+      <c r="H42" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>4</v>
+      </c>
+      <c r="H43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>4</v>
+      </c>
+      <c r="H44" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>4</v>
+      </c>
+      <c r="H45" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>4</v>
+      </c>
+      <c r="H46" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>4</v>
+      </c>
+      <c r="H47" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>4</v>
+      </c>
+      <c r="H48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>4</v>
+      </c>
+      <c r="H49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>4</v>
+      </c>
+      <c r="H50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>4</v>
+      </c>
+      <c r="H51" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>4</v>
+      </c>
+      <c r="H52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" t="s">
+        <v>27</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>4</v>
+      </c>
+      <c r="H53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>4</v>
+      </c>
+      <c r="H54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="2">
+        <v>29221</v>
+      </c>
+      <c r="E55" t="s">
+        <v>25</v>
+      </c>
+      <c r="H55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C56" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="E56">
+        <v>200</v>
+      </c>
+      <c r="H56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>68</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="H9" s="7" t="s">
+      <c r="D57" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H57" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0</v>
-      </c>
-      <c r="E11" s="5">
-        <v>136</v>
-      </c>
-      <c r="H11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0</v>
-      </c>
-      <c r="E12" s="5">
-        <v>100</v>
-      </c>
-      <c r="H12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0</v>
-      </c>
-      <c r="E13" s="5">
-        <v>36</v>
-      </c>
-      <c r="H13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="2">
-        <v>40179</v>
-      </c>
-      <c r="E14" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="F15" t="s">
-        <v>72</v>
-      </c>
-      <c r="H15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="2">
-        <v>32874</v>
-      </c>
-      <c r="E16" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>4</v>
-      </c>
-      <c r="H17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>4</v>
-      </c>
-      <c r="H18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>4</v>
-      </c>
-      <c r="H19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>4</v>
-      </c>
-      <c r="H20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>4</v>
-      </c>
-      <c r="H21" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>4</v>
-      </c>
-      <c r="H22" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>4</v>
-      </c>
-      <c r="H23" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>4</v>
-      </c>
-      <c r="H24" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>4</v>
-      </c>
-      <c r="H25" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>4</v>
-      </c>
-      <c r="H26" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>4</v>
-      </c>
-      <c r="H27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>4</v>
-      </c>
-      <c r="H28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>4</v>
-      </c>
-      <c r="H29" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="2">
-        <v>29221</v>
-      </c>
-      <c r="E30" t="s">
-        <v>26</v>
-      </c>
-      <c r="H30" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" t="s">
-        <v>77</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C31" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31">
-        <v>20</v>
-      </c>
-      <c r="E31">
-        <v>200</v>
-      </c>
-      <c r="H31" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" t="s">
-        <v>73</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="I32" s="4"/>
+      <c r="I57" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1688,13 +2350,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="1" t="str">
         <f>A2</f>
@@ -1729,24 +2391,24 @@
         <v>DoFVC</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>-1</v>
       </c>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>-1</v>
@@ -1756,9 +2418,9 @@
       </c>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B5">
         <v>-1</v>
@@ -1771,9 +2433,9 @@
       </c>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B6">
         <v>-1</v>
@@ -1782,9 +2444,9 @@
       <c r="D6" s="4"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B7">
         <v>-1</v>
@@ -1794,9 +2456,9 @@
       </c>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B8">
         <v>-1</v>
@@ -1809,9 +2471,9 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B9">
         <v>-1</v>

--- a/Data/Format_v1.xlsx
+++ b/Data/Format_v1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10116"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Promise_Pegasus/Harold/Rprojects/MRI/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/htan4/Documents/Rprojects/MRI/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="21940" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21940" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$57</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -193,7 +193,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="142">
   <si>
     <t>Original</t>
   </si>
@@ -1172,8 +1172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1430,7 +1430,9 @@
         <v>25</v>
       </c>
       <c r="F12" s="5"/>
-      <c r="H12" s="7"/>
+      <c r="H12" t="s">
+        <v>80</v>
+      </c>
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1450,7 +1452,9 @@
         <v>25</v>
       </c>
       <c r="F13" s="5"/>
-      <c r="H13" s="7"/>
+      <c r="H13" t="s">
+        <v>80</v>
+      </c>
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1470,7 +1474,9 @@
         <v>25</v>
       </c>
       <c r="F14" s="5"/>
-      <c r="H14" s="7"/>
+      <c r="H14" t="s">
+        <v>80</v>
+      </c>
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1490,7 +1496,9 @@
         <v>25</v>
       </c>
       <c r="F15" s="5"/>
-      <c r="H15" s="7"/>
+      <c r="H15" t="s">
+        <v>80</v>
+      </c>
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">

--- a/Data/Format_v1.xlsx
+++ b/Data/Format_v1.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/htan4/Documents/Rprojects/MRI/Data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="21940" windowHeight="16000" tabRatio="500"/>
   </bookViews>
@@ -33,7 +28,7 @@
     <author>Henk-Jan Westeneng</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -53,11 +48,36 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Is van belang om juiste naam een longitudinale data te geven.</t>
+Voor variabelen die in wide format staan, terwijl het eigenlijk om long data gaat, is het uitermate belangrijk om de "Rename" zo te kiezen dat er slechts 1 letter/1 cijfer verschil is tussen de verschillende renames.
+@Harold: schrijf jij nog iets in deze comment over supergroepen? Daar moet denk ik ook rekening mee gehouden worden in de rename toch?</t>
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Henk-Jan Westeneng:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Is van belang om juiste naam aan longitudinale data te geven.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -115,7 +135,7 @@
     <author>Henk-Jan Westeneng</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -140,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0" shapeId="0">
+    <comment ref="C6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -164,7 +184,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="0" shapeId="0">
+    <comment ref="D6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -624,7 +644,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1172,11 +1192,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11:H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="50.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
@@ -1188,7 +1208,7 @@
     <col min="8" max="9" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1220,7 +1240,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>141</v>
       </c>
@@ -1240,7 +1260,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1257,7 +1277,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1277,7 +1297,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1297,7 +1317,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1317,7 +1337,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1337,7 +1357,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -1357,7 +1377,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1375,7 +1395,7 @@
       </c>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1393,7 +1413,7 @@
       </c>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1413,7 +1433,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>86</v>
       </c>
@@ -1435,7 +1455,7 @@
       </c>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>87</v>
       </c>
@@ -1457,7 +1477,7 @@
       </c>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>88</v>
       </c>
@@ -1479,7 +1499,7 @@
       </c>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>89</v>
       </c>
@@ -1501,7 +1521,7 @@
       </c>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>63</v>
       </c>
@@ -1519,7 +1539,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>90</v>
       </c>
@@ -1537,7 +1557,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>91</v>
       </c>
@@ -1555,7 +1575,7 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>92</v>
       </c>
@@ -1573,7 +1593,7 @@
       </c>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>93</v>
       </c>
@@ -1591,7 +1611,7 @@
       </c>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>94</v>
       </c>
@@ -1607,7 +1627,7 @@
       </c>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>95</v>
       </c>
@@ -1623,7 +1643,7 @@
       </c>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>96</v>
       </c>
@@ -1639,7 +1659,7 @@
       </c>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>97</v>
       </c>
@@ -1655,7 +1675,7 @@
       </c>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>98</v>
       </c>
@@ -1671,7 +1691,7 @@
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -1691,7 +1711,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>99</v>
       </c>
@@ -1713,7 +1733,7 @@
       </c>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>100</v>
       </c>
@@ -1735,7 +1755,7 @@
       </c>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>101</v>
       </c>
@@ -1757,7 +1777,7 @@
       </c>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>102</v>
       </c>
@@ -1779,7 +1799,7 @@
       </c>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1799,7 +1819,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>103</v>
       </c>
@@ -1821,7 +1841,7 @@
       </c>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>104</v>
       </c>
@@ -1843,7 +1863,7 @@
       </c>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>105</v>
       </c>
@@ -1865,7 +1885,7 @@
       </c>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>106</v>
       </c>
@@ -1887,7 +1907,7 @@
       </c>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>26</v>
       </c>
@@ -1907,7 +1927,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>107</v>
       </c>
@@ -1929,7 +1949,7 @@
       </c>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>108</v>
       </c>
@@ -1951,7 +1971,7 @@
       </c>
       <c r="I38" s="7"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>109</v>
       </c>
@@ -1973,7 +1993,7 @@
       </c>
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>110</v>
       </c>
@@ -1995,7 +2015,7 @@
       </c>
       <c r="I40" s="7"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>32</v>
       </c>
@@ -2015,7 +2035,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>34</v>
       </c>
@@ -2035,7 +2055,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>36</v>
       </c>
@@ -2055,7 +2075,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -2075,7 +2095,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>40</v>
       </c>
@@ -2095,7 +2115,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
         <v>42</v>
       </c>
@@ -2115,7 +2135,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -2135,7 +2155,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -2155,7 +2175,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -2175,7 +2195,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -2195,7 +2215,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -2215,7 +2235,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -2235,7 +2255,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -2255,7 +2275,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -2275,7 +2295,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9">
       <c r="A55" s="6" t="s">
         <v>71</v>
       </c>
@@ -2295,7 +2315,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
         <v>72</v>
       </c>
@@ -2315,7 +2335,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
         <v>68</v>
       </c>
@@ -2362,9 +2382,9 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="4"/>
       <c r="B1" s="1" t="str">
         <f>A2</f>
@@ -2399,13 +2419,13 @@
         <v>DoFVC</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="9" t="s">
         <v>15</v>
       </c>
@@ -2414,7 +2434,7 @@
       </c>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="9" t="s">
         <v>17</v>
       </c>
@@ -2426,7 +2446,7 @@
       </c>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="9" t="s">
         <v>70</v>
       </c>
@@ -2441,7 +2461,7 @@
       </c>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="9" t="s">
         <v>62</v>
       </c>
@@ -2452,7 +2472,7 @@
       <c r="D6" s="4"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="9" t="s">
         <v>31</v>
       </c>
@@ -2464,7 +2484,7 @@
       </c>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="9" t="s">
         <v>33</v>
       </c>
@@ -2479,7 +2499,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="10" t="s">
         <v>73</v>
       </c>

--- a/Data/Format_v1.xlsx
+++ b/Data/Format_v1.xlsx
@@ -48,7 +48,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Voor variabelen die in wide format staan, terwijl het eigenlijk om long data gaat, is het uitermate belangrijk om de "Rename" zo te kiezen dat er slechts 1 letter/1 cijfer verschil is tussen de verschillende renames.
+Voor variabelen die in wide format staan, terwijl het eigenlijk om long data gaat, is het uitermate belangrijk om de "Rename" zo te kiezen dat er slechts 1 cijfer verschil is tussen de verschillende renames.
 @Harold: schrijf jij nog iets in deze comment over supergroepen? Daar moet denk ik ook rekening mee gehouden worden in de rename toch?</t>
         </r>
       </text>
@@ -1193,7 +1193,7 @@
   <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/Data/Format_v1.xlsx
+++ b/Data/Format_v1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10116"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/htan4/Documents/Rprojects/MRI/Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="21940" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$57</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,13 +33,13 @@
     <author>Henk-Jan Westeneng</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
@@ -43,23 +48,71 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Voor variabelen die in wide format staan, terwijl het eigenlijk om long data gaat, is het uitermate belangrijk om de "Rename" zo te kiezen dat er slechts 1 cijfer verschil is tussen de verschillende renames.
-@Harold: schrijf jij nog iets in deze comment over supergroepen? Daar moet denk ik ook rekening mee gehouden worden in de rename toch?</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Voor variabelen die in wide format staan, terwijl het eigenlijk om long data gaat, is het uitermate belangrijk om de "Rename" zo te kiezen dat er slechts 1 letter/1 cijfer verschil is tussen de verschillende renames.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Voor wide2long variabelen gelden 2 regels:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1. Binnen elke subgroep mag de "Rename" slechts met 1 cijfer verschillen.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>2. De tags voor de supergroep binnen "Rename" mag nooit korter zijn dan de bijbehorende aanduiding onder kolom "Group"</t>
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
@@ -68,22 +121,51 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Is van belang om juiste naam aan longitudinale data te geven.</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Is van belang om juiste naam aan longitudinale data te geven.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Voor wide 2 long variabelen geldt dat "Group" nooit langer mag zijn dan de bijbehorende tags in de "Rename"  kolom.</t>
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0">
+    <comment ref="B2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
@@ -92,22 +174,31 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Rename van identifier moet altijd ALSnr zijn.</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rename van identifier moet altijd ALSnr zijn.</t>
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
@@ -116,12 +207,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Script is niet getest voor &gt;1 identifier! Dus ip "ID" maar bij 1 cel invullen.</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Script is niet getest voor &gt;1 identifier! Dus ip "ID" maar bij 1 cel invullen.</t>
         </r>
       </text>
     </comment>
@@ -135,7 +235,7 @@
     <author>Henk-Jan Westeneng</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -160,7 +260,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0">
+    <comment ref="C6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -184,7 +284,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="0">
+    <comment ref="D6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -644,8 +744,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -721,6 +821,19 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1193,22 +1306,22 @@
   <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="40.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1240,7 +1353,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>141</v>
       </c>
@@ -1260,7 +1373,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1277,7 +1390,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1297,7 +1410,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1317,7 +1430,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1337,7 +1450,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1357,7 +1470,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -1377,7 +1490,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1395,7 +1508,7 @@
       </c>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1413,7 +1526,7 @@
       </c>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1433,7 +1546,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>86</v>
       </c>
@@ -1444,7 +1557,7 @@
         <v>13</v>
       </c>
       <c r="D12" s="2">
-        <v>40180</v>
+        <v>40179</v>
       </c>
       <c r="E12" t="s">
         <v>25</v>
@@ -1455,7 +1568,7 @@
       </c>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>87</v>
       </c>
@@ -1466,7 +1579,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="2">
-        <v>40181</v>
+        <v>40179</v>
       </c>
       <c r="E13" t="s">
         <v>25</v>
@@ -1477,7 +1590,7 @@
       </c>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>88</v>
       </c>
@@ -1488,7 +1601,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="2">
-        <v>40182</v>
+        <v>40179</v>
       </c>
       <c r="E14" t="s">
         <v>25</v>
@@ -1499,7 +1612,7 @@
       </c>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>89</v>
       </c>
@@ -1510,7 +1623,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="2">
-        <v>40183</v>
+        <v>40179</v>
       </c>
       <c r="E15" t="s">
         <v>25</v>
@@ -1521,7 +1634,7 @@
       </c>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>63</v>
       </c>
@@ -1539,7 +1652,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>90</v>
       </c>
@@ -1557,7 +1670,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>91</v>
       </c>
@@ -1575,7 +1688,7 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>92</v>
       </c>
@@ -1593,7 +1706,7 @@
       </c>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>93</v>
       </c>
@@ -1611,7 +1724,7 @@
       </c>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>94</v>
       </c>
@@ -1627,7 +1740,7 @@
       </c>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>95</v>
       </c>
@@ -1643,7 +1756,7 @@
       </c>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>96</v>
       </c>
@@ -1659,7 +1772,7 @@
       </c>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>97</v>
       </c>
@@ -1675,7 +1788,7 @@
       </c>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>98</v>
       </c>
@@ -1691,7 +1804,7 @@
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -1711,7 +1824,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>99</v>
       </c>
@@ -1733,7 +1846,7 @@
       </c>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>100</v>
       </c>
@@ -1755,7 +1868,7 @@
       </c>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>101</v>
       </c>
@@ -1777,7 +1890,7 @@
       </c>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>102</v>
       </c>
@@ -1799,7 +1912,7 @@
       </c>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1819,7 +1932,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>103</v>
       </c>
@@ -1841,7 +1954,7 @@
       </c>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>104</v>
       </c>
@@ -1863,7 +1976,7 @@
       </c>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>105</v>
       </c>
@@ -1885,7 +1998,7 @@
       </c>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>106</v>
       </c>
@@ -1907,7 +2020,7 @@
       </c>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>26</v>
       </c>
@@ -1927,7 +2040,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>107</v>
       </c>
@@ -1949,7 +2062,7 @@
       </c>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>108</v>
       </c>
@@ -1971,7 +2084,7 @@
       </c>
       <c r="I38" s="7"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>109</v>
       </c>
@@ -1993,7 +2106,7 @@
       </c>
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>110</v>
       </c>
@@ -2015,7 +2128,7 @@
       </c>
       <c r="I40" s="7"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>32</v>
       </c>
@@ -2035,7 +2148,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>34</v>
       </c>
@@ -2055,7 +2168,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>36</v>
       </c>
@@ -2075,7 +2188,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -2095,7 +2208,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>40</v>
       </c>
@@ -2115,7 +2228,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>42</v>
       </c>
@@ -2135,7 +2248,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -2155,7 +2268,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -2175,7 +2288,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -2195,7 +2308,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -2215,7 +2328,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -2235,7 +2348,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -2255,7 +2368,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -2275,7 +2388,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -2295,7 +2408,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>71</v>
       </c>
@@ -2315,7 +2428,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>72</v>
       </c>
@@ -2335,7 +2448,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>68</v>
       </c>
@@ -2382,9 +2495,9 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="1" t="str">
         <f>A2</f>
@@ -2419,13 +2532,13 @@
         <v>DoFVC</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>15</v>
       </c>
@@ -2434,7 +2547,7 @@
       </c>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>17</v>
       </c>
@@ -2446,7 +2559,7 @@
       </c>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>70</v>
       </c>
@@ -2461,7 +2574,7 @@
       </c>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>62</v>
       </c>
@@ -2472,7 +2585,7 @@
       <c r="D6" s="4"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>31</v>
       </c>
@@ -2484,7 +2597,7 @@
       </c>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>33</v>
       </c>
@@ -2499,7 +2612,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>73</v>
       </c>

--- a/Data/Format_v1.xlsx
+++ b/Data/Format_v1.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28600" windowHeight="15940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$100</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -313,7 +313,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="230">
   <si>
     <t>Original</t>
   </si>
@@ -739,13 +739,277 @@
   </si>
   <si>
     <t>ALS number</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>FU2: Language</t>
+  </si>
+  <si>
+    <t>FU3: Language</t>
+  </si>
+  <si>
+    <t>FU4: Language</t>
+  </si>
+  <si>
+    <t>FU5: Language</t>
+  </si>
+  <si>
+    <t>Fluency Free + Fixed</t>
+  </si>
+  <si>
+    <t>FU2: Fluency_Free + Fixed</t>
+  </si>
+  <si>
+    <t>FU3: Fluency_Free + Fixed</t>
+  </si>
+  <si>
+    <t>FU4: Fluency_Free + Fixed</t>
+  </si>
+  <si>
+    <t>FU5: Fluency_Free + Fixed</t>
+  </si>
+  <si>
+    <t>Executive</t>
+  </si>
+  <si>
+    <t>FU2: Executive</t>
+  </si>
+  <si>
+    <t>FU3: Executive</t>
+  </si>
+  <si>
+    <t>FU4: Executive</t>
+  </si>
+  <si>
+    <t>FU5: Executive</t>
+  </si>
+  <si>
+    <t>Memory</t>
+  </si>
+  <si>
+    <t>FU2: Memory</t>
+  </si>
+  <si>
+    <t>FU3: Memory</t>
+  </si>
+  <si>
+    <t>FU4: Memory</t>
+  </si>
+  <si>
+    <t>FU5: Memory</t>
+  </si>
+  <si>
+    <t>Visuospatial</t>
+  </si>
+  <si>
+    <t>FU2: Visuospatial</t>
+  </si>
+  <si>
+    <t>FU3: Visuospatial</t>
+  </si>
+  <si>
+    <t>FU4: Visuospatial</t>
+  </si>
+  <si>
+    <t>FU5: Visuospatial</t>
+  </si>
+  <si>
+    <t>FollowUp1_datum_scan</t>
+  </si>
+  <si>
+    <t>FollowUp2_datum_scan</t>
+  </si>
+  <si>
+    <t>FollowUp3_datum_scan</t>
+  </si>
+  <si>
+    <t>FollowUp4_datum_scan</t>
+  </si>
+  <si>
+    <t>FollowUp5_datum_scan</t>
+  </si>
+  <si>
+    <t>FollowUp6_datum_scan</t>
+  </si>
+  <si>
+    <t>FollowUp1_T1</t>
+  </si>
+  <si>
+    <t>FollowUp2_T1</t>
+  </si>
+  <si>
+    <t>FollowUp3_T1</t>
+  </si>
+  <si>
+    <t>FollowUp4_T1</t>
+  </si>
+  <si>
+    <t>FollowUp5_T1</t>
+  </si>
+  <si>
+    <t>FollowUp6_T1</t>
+  </si>
+  <si>
+    <t>FollowUp1_DTI</t>
+  </si>
+  <si>
+    <t>FollowUp2_DTI</t>
+  </si>
+  <si>
+    <t>FollowUp3_DTI</t>
+  </si>
+  <si>
+    <t>FollowUp4_DTI</t>
+  </si>
+  <si>
+    <t>FollowUp5_DTI</t>
+  </si>
+  <si>
+    <t>FollowUp6_DTI</t>
+  </si>
+  <si>
+    <t>ECAS_language1</t>
+  </si>
+  <si>
+    <t>ECAS_language2</t>
+  </si>
+  <si>
+    <t>ECAS_language3</t>
+  </si>
+  <si>
+    <t>ECAS_language4</t>
+  </si>
+  <si>
+    <t>ECAS_language5</t>
+  </si>
+  <si>
+    <t>ECAS_fluency1</t>
+  </si>
+  <si>
+    <t>ECAS_fluency2</t>
+  </si>
+  <si>
+    <t>ECAS_fluency3</t>
+  </si>
+  <si>
+    <t>ECAS_fluency4</t>
+  </si>
+  <si>
+    <t>ECAS_fluency5</t>
+  </si>
+  <si>
+    <t>ECAS_executive1</t>
+  </si>
+  <si>
+    <t>ECAS_executive2</t>
+  </si>
+  <si>
+    <t>ECAS_executive3</t>
+  </si>
+  <si>
+    <t>ECAS_executive4</t>
+  </si>
+  <si>
+    <t>ECAS_executive5</t>
+  </si>
+  <si>
+    <t>ECAS_memory1</t>
+  </si>
+  <si>
+    <t>ECAS_memory2</t>
+  </si>
+  <si>
+    <t>ECAS_memory3</t>
+  </si>
+  <si>
+    <t>ECAS_memory4</t>
+  </si>
+  <si>
+    <t>ECAS_memory5</t>
+  </si>
+  <si>
+    <t>ECAS_visuosp1</t>
+  </si>
+  <si>
+    <t>ECAS_visuosp2</t>
+  </si>
+  <si>
+    <t>ECAS_visuosp3</t>
+  </si>
+  <si>
+    <t>ECAS_visuosp4</t>
+  </si>
+  <si>
+    <t>ECAS_visuosp5</t>
+  </si>
+  <si>
+    <t>DoMRI1</t>
+  </si>
+  <si>
+    <t>DoMRI2</t>
+  </si>
+  <si>
+    <t>DoMRI3</t>
+  </si>
+  <si>
+    <t>DoMRI4</t>
+  </si>
+  <si>
+    <t>DoMRI5</t>
+  </si>
+  <si>
+    <t>DoMRI6</t>
+  </si>
+  <si>
+    <t>MRI_T1pres1</t>
+  </si>
+  <si>
+    <t>MRI_T1pres2</t>
+  </si>
+  <si>
+    <t>MRI_T1pres3</t>
+  </si>
+  <si>
+    <t>MRI_T1pres4</t>
+  </si>
+  <si>
+    <t>MRI_T1pres5</t>
+  </si>
+  <si>
+    <t>MRI_T1pres6</t>
+  </si>
+  <si>
+    <t>MRI_DTIpres1</t>
+  </si>
+  <si>
+    <t>MRI_DTIpres2</t>
+  </si>
+  <si>
+    <t>MRI_DTIpres3</t>
+  </si>
+  <si>
+    <t>MRI_DTIpres4</t>
+  </si>
+  <si>
+    <t>MRI_DTIpres5</t>
+  </si>
+  <si>
+    <t>MRI_DTIpres6</t>
+  </si>
+  <si>
+    <t>Yes|No</t>
+  </si>
+  <si>
+    <t>MRI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -776,17 +1040,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="9"/>
@@ -834,6 +1087,21 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)_x0000_"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)_x0000_"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri (Body)_x0000_"/>
     </font>
   </fonts>
   <fills count="4">
@@ -910,18 +1178,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1303,26 +1575,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="50.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="50.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.33203125" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1353,1127 +1626,2049 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:10">
+      <c r="A3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:10">
+      <c r="A4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="12">
         <v>367</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:10">
+      <c r="A5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="12">
         <v>18264</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:10">
+      <c r="A6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="12">
         <v>18264</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:10">
+      <c r="A7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="12">
         <v>29221</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:10">
+      <c r="A8" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="12">
         <v>29221</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:10">
+      <c r="A9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="12">
         <v>40179</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="H11" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="12">
         <v>40179</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="H12" t="s">
-        <v>80</v>
-      </c>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="F12" s="11"/>
+      <c r="H12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="12">
         <v>40179</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="H13" t="s">
-        <v>80</v>
-      </c>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="F13" s="11"/>
+      <c r="H13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="12">
         <v>40179</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="H14" t="s">
-        <v>80</v>
-      </c>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="F14" s="11"/>
+      <c r="H14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="12">
         <v>40179</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="H15" t="s">
-        <v>80</v>
-      </c>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="F15" s="11"/>
+      <c r="H15" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="F16" t="s">
+      <c r="D16" s="12"/>
+      <c r="F16" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="H16" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H17" t="s">
-        <v>80</v>
-      </c>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="H17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H18" t="s">
-        <v>80</v>
-      </c>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="H18" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H19" t="s">
-        <v>80</v>
-      </c>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="H19" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H20" t="s">
-        <v>80</v>
-      </c>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="H20" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="5"/>
-      <c r="H21" t="s">
-        <v>80</v>
-      </c>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="F21" s="11"/>
+      <c r="H21" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="5"/>
-      <c r="H22" t="s">
-        <v>80</v>
-      </c>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="F22" s="11"/>
+      <c r="H22" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="5"/>
-      <c r="H23" t="s">
-        <v>80</v>
-      </c>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="F23" s="11"/>
+      <c r="H23" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="5"/>
-      <c r="H24" t="s">
-        <v>80</v>
-      </c>
-      <c r="I24" s="7"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="F24" s="11"/>
+      <c r="H24" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="5"/>
-      <c r="H25" t="s">
-        <v>80</v>
-      </c>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="F25" s="11"/>
+      <c r="H25" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="5">
-        <v>0</v>
-      </c>
-      <c r="E26" s="5">
+      <c r="C26" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="11">
+        <v>0</v>
+      </c>
+      <c r="E26" s="11">
         <v>100</v>
       </c>
-      <c r="H26" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="H26" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="5">
-        <v>0</v>
-      </c>
-      <c r="E27" s="5">
+      <c r="C27" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="11">
+        <v>0</v>
+      </c>
+      <c r="E27" s="11">
         <v>100</v>
       </c>
-      <c r="F27" s="5"/>
-      <c r="H27" t="s">
-        <v>80</v>
-      </c>
-      <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="F27" s="11"/>
+      <c r="H27" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="5">
-        <v>0</v>
-      </c>
-      <c r="E28" s="5">
+      <c r="C28" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="11">
+        <v>0</v>
+      </c>
+      <c r="E28" s="11">
         <v>100</v>
       </c>
-      <c r="F28" s="5"/>
-      <c r="H28" t="s">
-        <v>80</v>
-      </c>
-      <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="F28" s="11"/>
+      <c r="H28" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="5">
-        <v>0</v>
-      </c>
-      <c r="E29" s="5">
+      <c r="C29" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="11">
+        <v>0</v>
+      </c>
+      <c r="E29" s="11">
         <v>100</v>
       </c>
-      <c r="F29" s="5"/>
-      <c r="H29" t="s">
-        <v>80</v>
-      </c>
-      <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="F29" s="11"/>
+      <c r="H29" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" s="5">
-        <v>0</v>
-      </c>
-      <c r="E30" s="5">
+      <c r="C30" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="11">
+        <v>0</v>
+      </c>
+      <c r="E30" s="11">
         <v>100</v>
       </c>
-      <c r="F30" s="5"/>
-      <c r="H30" t="s">
-        <v>80</v>
-      </c>
-      <c r="I30" s="7"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="F30" s="11"/>
+      <c r="H30" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="5">
-        <v>0</v>
-      </c>
-      <c r="E31" s="5">
+      <c r="C31" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="11">
+        <v>0</v>
+      </c>
+      <c r="E31" s="11">
         <v>36</v>
       </c>
-      <c r="H31" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="H31" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" s="5">
-        <v>0</v>
-      </c>
-      <c r="E32" s="5">
+      <c r="C32" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="11">
+        <v>0</v>
+      </c>
+      <c r="E32" s="11">
         <v>36</v>
       </c>
-      <c r="F32" s="5"/>
-      <c r="H32" t="s">
-        <v>80</v>
-      </c>
-      <c r="I32" s="7"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="F32" s="11"/>
+      <c r="H32" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" s="5">
-        <v>0</v>
-      </c>
-      <c r="E33" s="5">
+      <c r="C33" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="11">
+        <v>0</v>
+      </c>
+      <c r="E33" s="11">
         <v>36</v>
       </c>
-      <c r="F33" s="5"/>
-      <c r="H33" t="s">
-        <v>80</v>
-      </c>
-      <c r="I33" s="7"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="F33" s="11"/>
+      <c r="H33" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" s="5">
-        <v>0</v>
-      </c>
-      <c r="E34" s="5">
+      <c r="C34" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="11">
+        <v>0</v>
+      </c>
+      <c r="E34" s="11">
         <v>36</v>
       </c>
-      <c r="F34" s="5"/>
-      <c r="H34" t="s">
-        <v>80</v>
-      </c>
-      <c r="I34" s="7"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="F34" s="11"/>
+      <c r="H34" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="5">
-        <v>0</v>
-      </c>
-      <c r="E35" s="5">
+      <c r="C35" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="11">
+        <v>0</v>
+      </c>
+      <c r="E35" s="11">
         <v>36</v>
       </c>
-      <c r="F35" s="5"/>
-      <c r="H35" t="s">
-        <v>80</v>
-      </c>
-      <c r="I35" s="7"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="F35" s="11"/>
+      <c r="H35" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" s="5">
-        <v>0</v>
-      </c>
-      <c r="E36" s="5">
+      <c r="C36" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="11">
+        <v>0</v>
+      </c>
+      <c r="E36" s="11">
         <v>136</v>
       </c>
-      <c r="H36" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="H36" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" s="5">
-        <v>0</v>
-      </c>
-      <c r="E37" s="5">
+      <c r="C37" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="11">
+        <v>0</v>
+      </c>
+      <c r="E37" s="11">
         <v>136</v>
       </c>
-      <c r="F37" s="5"/>
-      <c r="H37" t="s">
-        <v>80</v>
-      </c>
-      <c r="I37" s="7"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="F37" s="11"/>
+      <c r="H37" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C38" t="s">
-        <v>27</v>
-      </c>
-      <c r="D38" s="5">
-        <v>0</v>
-      </c>
-      <c r="E38" s="5">
+      <c r="C38" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="11">
+        <v>0</v>
+      </c>
+      <c r="E38" s="11">
         <v>136</v>
       </c>
-      <c r="F38" s="5"/>
-      <c r="H38" t="s">
-        <v>80</v>
-      </c>
-      <c r="I38" s="7"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="F38" s="11"/>
+      <c r="H38" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C39" t="s">
-        <v>27</v>
-      </c>
-      <c r="D39" s="5">
-        <v>0</v>
-      </c>
-      <c r="E39" s="5">
+      <c r="C39" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="11">
+        <v>0</v>
+      </c>
+      <c r="E39" s="11">
         <v>136</v>
       </c>
-      <c r="F39" s="5"/>
-      <c r="H39" t="s">
-        <v>80</v>
-      </c>
-      <c r="I39" s="7"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="F39" s="11"/>
+      <c r="H39" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I39" s="3"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C40" t="s">
-        <v>27</v>
-      </c>
-      <c r="D40" s="5">
-        <v>0</v>
-      </c>
-      <c r="E40" s="5">
+      <c r="C40" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="11">
+        <v>0</v>
+      </c>
+      <c r="E40" s="11">
         <v>136</v>
       </c>
-      <c r="F40" s="5"/>
-      <c r="H40" t="s">
-        <v>80</v>
-      </c>
-      <c r="I40" s="7"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="F40" s="11"/>
+      <c r="H40" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I40" s="3"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="11">
+        <v>0</v>
+      </c>
+      <c r="E41" s="11">
+        <v>28</v>
+      </c>
+      <c r="F41" s="11"/>
+      <c r="H41" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" s="11">
+        <v>0</v>
+      </c>
+      <c r="E42" s="11">
+        <v>28</v>
+      </c>
+      <c r="F42" s="11"/>
+      <c r="H42" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I42" s="3"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" s="11">
+        <v>0</v>
+      </c>
+      <c r="E43" s="11">
+        <v>28</v>
+      </c>
+      <c r="F43" s="11"/>
+      <c r="H43" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I43" s="3"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" s="11">
+        <v>0</v>
+      </c>
+      <c r="E44" s="11">
+        <v>28</v>
+      </c>
+      <c r="F44" s="11"/>
+      <c r="H44" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I44" s="3"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="11">
+        <v>0</v>
+      </c>
+      <c r="E45" s="11">
+        <v>28</v>
+      </c>
+      <c r="F45" s="11"/>
+      <c r="H45" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I45" s="3"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="11">
+        <v>0</v>
+      </c>
+      <c r="E46" s="11">
+        <v>24</v>
+      </c>
+      <c r="F46" s="11"/>
+      <c r="H46" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I46" s="3"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" s="11">
+        <v>0</v>
+      </c>
+      <c r="E47" s="11">
+        <v>24</v>
+      </c>
+      <c r="F47" s="11"/>
+      <c r="H47" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I47" s="3"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" s="11">
+        <v>0</v>
+      </c>
+      <c r="E48" s="11">
+        <v>24</v>
+      </c>
+      <c r="F48" s="11"/>
+      <c r="H48" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I48" s="3"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" s="11">
+        <v>0</v>
+      </c>
+      <c r="E49" s="11">
+        <v>24</v>
+      </c>
+      <c r="F49" s="11"/>
+      <c r="H49" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I49" s="3"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50" s="11">
+        <v>0</v>
+      </c>
+      <c r="E50" s="11">
+        <v>24</v>
+      </c>
+      <c r="F50" s="11"/>
+      <c r="H50" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I50" s="3"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" s="11">
+        <v>0</v>
+      </c>
+      <c r="E51" s="11">
+        <v>48</v>
+      </c>
+      <c r="F51" s="11"/>
+      <c r="H51" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I51" s="3"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52" s="11">
+        <v>0</v>
+      </c>
+      <c r="E52" s="11">
+        <v>48</v>
+      </c>
+      <c r="F52" s="11"/>
+      <c r="H52" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I52" s="3"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D53" s="11">
+        <v>0</v>
+      </c>
+      <c r="E53" s="11">
+        <v>48</v>
+      </c>
+      <c r="F53" s="11"/>
+      <c r="H53" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I53" s="3"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="11">
+        <v>0</v>
+      </c>
+      <c r="E54" s="11">
+        <v>48</v>
+      </c>
+      <c r="F54" s="11"/>
+      <c r="H54" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I54" s="3"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D55" s="11">
+        <v>0</v>
+      </c>
+      <c r="E55" s="11">
+        <v>48</v>
+      </c>
+      <c r="F55" s="11"/>
+      <c r="H55" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I55" s="3"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" s="11">
+        <v>0</v>
+      </c>
+      <c r="E56" s="11">
+        <v>24</v>
+      </c>
+      <c r="F56" s="11"/>
+      <c r="H56" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I56" s="3"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" s="11">
+        <v>0</v>
+      </c>
+      <c r="E57" s="11">
+        <v>24</v>
+      </c>
+      <c r="F57" s="11"/>
+      <c r="H57" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I57" s="3"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D58" s="11">
+        <v>0</v>
+      </c>
+      <c r="E58" s="11">
+        <v>24</v>
+      </c>
+      <c r="F58" s="11"/>
+      <c r="H58" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I58" s="3"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D59" s="11">
+        <v>0</v>
+      </c>
+      <c r="E59" s="11">
+        <v>24</v>
+      </c>
+      <c r="F59" s="11"/>
+      <c r="H59" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I59" s="3"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D60" s="11">
+        <v>0</v>
+      </c>
+      <c r="E60" s="11">
+        <v>24</v>
+      </c>
+      <c r="F60" s="11"/>
+      <c r="H60" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I60" s="3"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61" s="11">
+        <v>0</v>
+      </c>
+      <c r="E61" s="11">
+        <v>12</v>
+      </c>
+      <c r="F61" s="11"/>
+      <c r="H61" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I61" s="3"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D62" s="11">
+        <v>0</v>
+      </c>
+      <c r="E62" s="11">
+        <v>12</v>
+      </c>
+      <c r="F62" s="11"/>
+      <c r="H62" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I62" s="3"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D63" s="11">
+        <v>0</v>
+      </c>
+      <c r="E63" s="11">
+        <v>12</v>
+      </c>
+      <c r="F63" s="11"/>
+      <c r="H63" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I63" s="3"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D64" s="11">
+        <v>0</v>
+      </c>
+      <c r="E64" s="11">
+        <v>12</v>
+      </c>
+      <c r="F64" s="11"/>
+      <c r="H64" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I64" s="3"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D65" s="11">
+        <v>0</v>
+      </c>
+      <c r="E65" s="11">
+        <v>12</v>
+      </c>
+      <c r="F65" s="11"/>
+      <c r="H65" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I65" s="3"/>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="13">
+        <v>39814</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F66" s="11"/>
+      <c r="H66" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="I66" s="3"/>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="13">
+        <v>39814</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F67" s="11"/>
+      <c r="H67" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="I67" s="3"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="13">
+        <v>39814</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F68" s="11"/>
+      <c r="H68" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="I68" s="3"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="13">
+        <v>39814</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F69" s="11"/>
+      <c r="H69" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="I69" s="3"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="13">
+        <v>39814</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F70" s="11"/>
+      <c r="H70" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="I70" s="3"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" s="13">
+        <v>39814</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F71" s="11"/>
+      <c r="H71" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="I71" s="3"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="I72" s="3"/>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="I73" s="3"/>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="I74" s="3"/>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="I75" s="3"/>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="I76" s="3"/>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="I77" s="3"/>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="I78" s="3"/>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="I79" s="3"/>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="I80" s="3"/>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="I81" s="3"/>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="I82" s="3"/>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="I83" s="3"/>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B84" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C84" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D84" s="12">
         <v>32874</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E84" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H84" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="85" spans="1:9">
+      <c r="A85" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B85" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C42" t="s">
-        <v>27</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
+      <c r="C85" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D85" s="7">
+        <v>0</v>
+      </c>
+      <c r="E85" s="7">
         <v>4</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H85" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="86" spans="1:9">
+      <c r="A86" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B86" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C43" t="s">
-        <v>27</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
+      <c r="C86" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D86" s="7">
+        <v>0</v>
+      </c>
+      <c r="E86" s="7">
         <v>4</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H86" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    <row r="87" spans="1:9">
+      <c r="A87" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B87" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C44" t="s">
-        <v>27</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
+      <c r="C87" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D87" s="7">
+        <v>0</v>
+      </c>
+      <c r="E87" s="7">
         <v>4</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H87" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row r="88" spans="1:9">
+      <c r="A88" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B88" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C45" t="s">
-        <v>27</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
+      <c r="C88" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D88" s="7">
+        <v>0</v>
+      </c>
+      <c r="E88" s="7">
         <v>4</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H88" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+    <row r="89" spans="1:9">
+      <c r="A89" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B89" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C46" t="s">
-        <v>27</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
+      <c r="C89" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D89" s="7">
+        <v>0</v>
+      </c>
+      <c r="E89" s="7">
         <v>4</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H89" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="90" spans="1:9">
+      <c r="A90" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B90" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C47" t="s">
-        <v>27</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
+      <c r="C90" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D90" s="7">
+        <v>0</v>
+      </c>
+      <c r="E90" s="7">
         <v>4</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H90" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+    <row r="91" spans="1:9">
+      <c r="A91" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B91" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C48" t="s">
-        <v>27</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
+      <c r="C91" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D91" s="7">
+        <v>0</v>
+      </c>
+      <c r="E91" s="7">
         <v>4</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H91" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+    <row r="92" spans="1:9">
+      <c r="A92" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B92" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C49" t="s">
-        <v>27</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
+      <c r="C92" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D92" s="7">
+        <v>0</v>
+      </c>
+      <c r="E92" s="7">
         <v>4</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H92" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+    <row r="93" spans="1:9">
+      <c r="A93" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B93" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C50" t="s">
-        <v>27</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
+      <c r="C93" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D93" s="7">
+        <v>0</v>
+      </c>
+      <c r="E93" s="7">
         <v>4</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H93" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+    <row r="94" spans="1:9">
+      <c r="A94" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B94" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C51" t="s">
-        <v>27</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
+      <c r="C94" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D94" s="7">
+        <v>0</v>
+      </c>
+      <c r="E94" s="7">
         <v>4</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H94" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+    <row r="95" spans="1:9">
+      <c r="A95" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B95" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C52" t="s">
-        <v>27</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
+      <c r="C95" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D95" s="7">
+        <v>0</v>
+      </c>
+      <c r="E95" s="7">
         <v>4</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H95" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+    <row r="96" spans="1:9">
+      <c r="A96" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B96" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C53" t="s">
-        <v>27</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
+      <c r="C96" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D96" s="7">
+        <v>0</v>
+      </c>
+      <c r="E96" s="7">
         <v>4</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H96" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+    <row r="97" spans="1:9">
+      <c r="A97" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B97" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C54" t="s">
-        <v>27</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
+      <c r="C97" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D97" s="7">
+        <v>0</v>
+      </c>
+      <c r="E97" s="7">
         <v>4</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H97" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="6" t="s">
+    <row r="98" spans="1:9">
+      <c r="A98" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B98" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C98" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D98" s="12">
         <v>29221</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E98" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H98" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+    <row r="99" spans="1:9">
+      <c r="A99" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B99" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C56" t="s">
-        <v>27</v>
-      </c>
-      <c r="D56">
+      <c r="C99" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D99" s="7">
         <v>20</v>
       </c>
-      <c r="E56">
+      <c r="E99" s="7">
         <v>200</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H99" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+    <row r="100" spans="1:9">
+      <c r="A100" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B100" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C100" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D100" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="E100" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="F100" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G57" s="4" t="s">
+      <c r="G100" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H57" s="4" t="s">
+      <c r="H100" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I57" s="4"/>
+      <c r="I100" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2495,10 +3690,10 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
+    <row r="1" spans="1:9">
+      <c r="A1" s="2"/>
       <c r="B1" s="1" t="str">
         <f>A2</f>
         <v>DoB</v>
@@ -2532,23 +3727,23 @@
         <v>DoFVC</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="8"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="B2" s="4"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B3">
         <v>-1</v>
       </c>
-      <c r="C3" s="8"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B4">
@@ -2557,10 +3752,10 @@
       <c r="C4">
         <v>-1</v>
       </c>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B5">
@@ -2572,21 +3767,21 @@
       <c r="D5">
         <v>-1</v>
       </c>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B6">
         <v>-1</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B7">
@@ -2595,10 +3790,10 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B8">
@@ -2610,10 +3805,10 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="6" t="s">
         <v>73</v>
       </c>
       <c r="B9">
@@ -2622,7 +3817,7 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="I9" s="8"/>
+      <c r="I9" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/Format_v1.xlsx
+++ b/Data/Format_v1.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/htan4/Documents/Rprojects/MRI/Data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28600" windowHeight="15940" tabRatio="500"/>
   </bookViews>
@@ -18,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$100</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -33,7 +28,7 @@
     <author>Henk-Jan Westeneng</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -53,60 +48,14 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Voor variabelen die in wide format staan, terwijl het eigenlijk om long data gaat, is het uitermate belangrijk om de "Rename" zo te kiezen dat er slechts 1 letter/1 cijfer verschil is tussen de verschillende renames.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Voor wide2long variabelen gelden 2 regels:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">1. Binnen elke subgroep mag de "Rename" slechts met 1 cijfer verschillen.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>2. De tags voor de supergroep binnen "Rename" mag nooit korter zijn dan de bijbehorende aanduiding onder kolom "Group"</t>
+Voor variabelen die in wide format staan, terwijl het eigenlijk om long data gaat, is het uitermate belangrijk om de "Rename" zo te kiezen dat er slechts 1 letter/1 cijfer verschil is tussen de verschillende renames.
+Voor wide2long variabelen gelden 2 regels:
+1. Binnen elke subgroep mag de "Rename" slechts met 1 cijfer verschillen (bijv. ECAS_spec1, ECAS_spec2, enz.).
+2. De tags voor de supergroep (supergroup staat in kolom "Group", i.e. kolom H) binnen "Rename" mag nooit korter zijn dan de bijbehorende aanduiding onder kolom "Group". Dus als supergroup "abcd" is, dan moet er in de rename tenminste abcd staan (bijv. abcd_score1, abcd_score2, enz).</t>
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -126,40 +75,12 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Is van belang om juiste naam aan longitudinale data te geven.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Voor wide 2 long variabelen geldt dat "Group" nooit langer mag zijn dan de bijbehorende tags in de "Rename"  kolom.</t>
+Is van belang om juiste naam aan longitudinale data te geven.
+Voor wide 2 long variabelen geldt dat "Group" nooit langer mag zijn dan de bijbehorende tags in de "Rename"  kolom (zie ook comment in cel B1).</t>
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0" shapeId="0">
+    <comment ref="B2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -192,7 +113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -235,7 +156,7 @@
     <author>Henk-Jan Westeneng</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -260,7 +181,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0" shapeId="0">
+    <comment ref="C6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -284,7 +205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="0" shapeId="0">
+    <comment ref="D6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1008,8 +929,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1578,10 +1499,10 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="50.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" style="7" bestFit="1" customWidth="1"/>
@@ -3690,7 +3611,7 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="2"/>

--- a/Data/Format_v1.xlsx
+++ b/Data/Format_v1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28600" windowHeight="15940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28600" windowHeight="15940" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -930,7 +930,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -985,13 +985,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -1099,18 +1092,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1498,25 +1490,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="50.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.33203125" style="7" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="7"/>
+    <col min="1" max="1" width="50.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.33203125" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1548,153 +1540,153 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>367</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>18264</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <v>18264</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="6" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <v>29221</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <v>29221</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="10" t="s">
         <v>66</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -1703,16 +1695,16 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="10" t="s">
         <v>64</v>
       </c>
       <c r="H10" s="3" t="s">
@@ -1721,1875 +1713,1875 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <v>40179</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="11">
         <v>40179</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="H12" s="7" t="s">
+      <c r="F12" s="10"/>
+      <c r="H12" s="6" t="s">
         <v>80</v>
       </c>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="11">
         <v>40179</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="11"/>
-      <c r="H13" s="7" t="s">
+      <c r="F13" s="10"/>
+      <c r="H13" s="6" t="s">
         <v>80</v>
       </c>
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="11">
         <v>40179</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="H14" s="7" t="s">
+      <c r="F14" s="10"/>
+      <c r="H14" s="6" t="s">
         <v>80</v>
       </c>
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="11">
         <v>40179</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="H15" s="7" t="s">
+      <c r="F15" s="10"/>
+      <c r="H15" s="6" t="s">
         <v>80</v>
       </c>
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="F16" s="7" t="s">
+      <c r="D16" s="11"/>
+      <c r="F16" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="6" t="s">
         <v>80</v>
       </c>
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="6" t="s">
         <v>80</v>
       </c>
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="6" t="s">
         <v>80</v>
       </c>
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="6" t="s">
         <v>80</v>
       </c>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="11"/>
-      <c r="H21" s="7" t="s">
+      <c r="F21" s="10"/>
+      <c r="H21" s="6" t="s">
         <v>80</v>
       </c>
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="11"/>
-      <c r="H22" s="7" t="s">
+      <c r="F22" s="10"/>
+      <c r="H22" s="6" t="s">
         <v>80</v>
       </c>
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="11"/>
-      <c r="H23" s="7" t="s">
+      <c r="F23" s="10"/>
+      <c r="H23" s="6" t="s">
         <v>80</v>
       </c>
       <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="11"/>
-      <c r="H24" s="7" t="s">
+      <c r="F24" s="10"/>
+      <c r="H24" s="6" t="s">
         <v>80</v>
       </c>
       <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="11"/>
-      <c r="H25" s="7" t="s">
+      <c r="F25" s="10"/>
+      <c r="H25" s="6" t="s">
         <v>80</v>
       </c>
       <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="11">
-        <v>0</v>
-      </c>
-      <c r="E26" s="11">
+      <c r="C26" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="10">
+        <v>0</v>
+      </c>
+      <c r="E26" s="10">
         <v>100</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="11">
-        <v>0</v>
-      </c>
-      <c r="E27" s="11">
+      <c r="C27" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="10">
+        <v>0</v>
+      </c>
+      <c r="E27" s="10">
         <v>100</v>
       </c>
-      <c r="F27" s="11"/>
-      <c r="H27" s="7" t="s">
+      <c r="F27" s="10"/>
+      <c r="H27" s="6" t="s">
         <v>80</v>
       </c>
       <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="11">
-        <v>0</v>
-      </c>
-      <c r="E28" s="11">
+      <c r="C28" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="10">
+        <v>0</v>
+      </c>
+      <c r="E28" s="10">
         <v>100</v>
       </c>
-      <c r="F28" s="11"/>
-      <c r="H28" s="7" t="s">
+      <c r="F28" s="10"/>
+      <c r="H28" s="6" t="s">
         <v>80</v>
       </c>
       <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="11">
-        <v>0</v>
-      </c>
-      <c r="E29" s="11">
+      <c r="C29" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="10">
+        <v>0</v>
+      </c>
+      <c r="E29" s="10">
         <v>100</v>
       </c>
-      <c r="F29" s="11"/>
-      <c r="H29" s="7" t="s">
+      <c r="F29" s="10"/>
+      <c r="H29" s="6" t="s">
         <v>80</v>
       </c>
       <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" s="11">
-        <v>0</v>
-      </c>
-      <c r="E30" s="11">
+      <c r="C30" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="10">
+        <v>0</v>
+      </c>
+      <c r="E30" s="10">
         <v>100</v>
       </c>
-      <c r="F30" s="11"/>
-      <c r="H30" s="7" t="s">
+      <c r="F30" s="10"/>
+      <c r="H30" s="6" t="s">
         <v>80</v>
       </c>
       <c r="I30" s="3"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="11">
-        <v>0</v>
-      </c>
-      <c r="E31" s="11">
+      <c r="C31" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="10">
+        <v>0</v>
+      </c>
+      <c r="E31" s="10">
         <v>36</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H31" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" s="11">
-        <v>0</v>
-      </c>
-      <c r="E32" s="11">
+      <c r="C32" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="10">
+        <v>0</v>
+      </c>
+      <c r="E32" s="10">
         <v>36</v>
       </c>
-      <c r="F32" s="11"/>
-      <c r="H32" s="7" t="s">
+      <c r="F32" s="10"/>
+      <c r="H32" s="6" t="s">
         <v>80</v>
       </c>
       <c r="I32" s="3"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" s="11">
-        <v>0</v>
-      </c>
-      <c r="E33" s="11">
+      <c r="C33" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="10">
+        <v>0</v>
+      </c>
+      <c r="E33" s="10">
         <v>36</v>
       </c>
-      <c r="F33" s="11"/>
-      <c r="H33" s="7" t="s">
+      <c r="F33" s="10"/>
+      <c r="H33" s="6" t="s">
         <v>80</v>
       </c>
       <c r="I33" s="3"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" s="11">
-        <v>0</v>
-      </c>
-      <c r="E34" s="11">
+      <c r="C34" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="10">
+        <v>0</v>
+      </c>
+      <c r="E34" s="10">
         <v>36</v>
       </c>
-      <c r="F34" s="11"/>
-      <c r="H34" s="7" t="s">
+      <c r="F34" s="10"/>
+      <c r="H34" s="6" t="s">
         <v>80</v>
       </c>
       <c r="I34" s="3"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="11">
-        <v>0</v>
-      </c>
-      <c r="E35" s="11">
+      <c r="C35" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="10">
+        <v>0</v>
+      </c>
+      <c r="E35" s="10">
         <v>36</v>
       </c>
-      <c r="F35" s="11"/>
-      <c r="H35" s="7" t="s">
+      <c r="F35" s="10"/>
+      <c r="H35" s="6" t="s">
         <v>80</v>
       </c>
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" s="11">
-        <v>0</v>
-      </c>
-      <c r="E36" s="11">
+      <c r="C36" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="10">
+        <v>0</v>
+      </c>
+      <c r="E36" s="10">
         <v>136</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="H36" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" s="11">
-        <v>0</v>
-      </c>
-      <c r="E37" s="11">
+      <c r="C37" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="10">
+        <v>0</v>
+      </c>
+      <c r="E37" s="10">
         <v>136</v>
       </c>
-      <c r="F37" s="11"/>
-      <c r="H37" s="7" t="s">
+      <c r="F37" s="10"/>
+      <c r="H37" s="6" t="s">
         <v>80</v>
       </c>
       <c r="I37" s="3"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D38" s="11">
-        <v>0</v>
-      </c>
-      <c r="E38" s="11">
+      <c r="C38" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="10">
+        <v>0</v>
+      </c>
+      <c r="E38" s="10">
         <v>136</v>
       </c>
-      <c r="F38" s="11"/>
-      <c r="H38" s="7" t="s">
+      <c r="F38" s="10"/>
+      <c r="H38" s="6" t="s">
         <v>80</v>
       </c>
       <c r="I38" s="3"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D39" s="11">
-        <v>0</v>
-      </c>
-      <c r="E39" s="11">
+      <c r="C39" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="10">
+        <v>0</v>
+      </c>
+      <c r="E39" s="10">
         <v>136</v>
       </c>
-      <c r="F39" s="11"/>
-      <c r="H39" s="7" t="s">
+      <c r="F39" s="10"/>
+      <c r="H39" s="6" t="s">
         <v>80</v>
       </c>
       <c r="I39" s="3"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D40" s="11">
-        <v>0</v>
-      </c>
-      <c r="E40" s="11">
+      <c r="C40" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="10">
+        <v>0</v>
+      </c>
+      <c r="E40" s="10">
         <v>136</v>
       </c>
-      <c r="F40" s="11"/>
-      <c r="H40" s="7" t="s">
+      <c r="F40" s="10"/>
+      <c r="H40" s="6" t="s">
         <v>80</v>
       </c>
       <c r="I40" s="3"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D41" s="11">
-        <v>0</v>
-      </c>
-      <c r="E41" s="11">
+      <c r="C41" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="10">
+        <v>0</v>
+      </c>
+      <c r="E41" s="10">
         <v>28</v>
       </c>
-      <c r="F41" s="11"/>
-      <c r="H41" s="7" t="s">
+      <c r="F41" s="10"/>
+      <c r="H41" s="6" t="s">
         <v>80</v>
       </c>
       <c r="I41" s="3"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C42" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D42" s="11">
-        <v>0</v>
-      </c>
-      <c r="E42" s="11">
+      <c r="C42" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" s="10">
+        <v>0</v>
+      </c>
+      <c r="E42" s="10">
         <v>28</v>
       </c>
-      <c r="F42" s="11"/>
-      <c r="H42" s="7" t="s">
+      <c r="F42" s="10"/>
+      <c r="H42" s="6" t="s">
         <v>80</v>
       </c>
       <c r="I42" s="3"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D43" s="11">
-        <v>0</v>
-      </c>
-      <c r="E43" s="11">
+      <c r="C43" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" s="10">
+        <v>0</v>
+      </c>
+      <c r="E43" s="10">
         <v>28</v>
       </c>
-      <c r="F43" s="11"/>
-      <c r="H43" s="7" t="s">
+      <c r="F43" s="10"/>
+      <c r="H43" s="6" t="s">
         <v>80</v>
       </c>
       <c r="I43" s="3"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C44" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D44" s="11">
-        <v>0</v>
-      </c>
-      <c r="E44" s="11">
+      <c r="C44" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" s="10">
+        <v>0</v>
+      </c>
+      <c r="E44" s="10">
         <v>28</v>
       </c>
-      <c r="F44" s="11"/>
-      <c r="H44" s="7" t="s">
+      <c r="F44" s="10"/>
+      <c r="H44" s="6" t="s">
         <v>80</v>
       </c>
       <c r="I44" s="3"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="C45" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D45" s="11">
-        <v>0</v>
-      </c>
-      <c r="E45" s="11">
+      <c r="C45" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="10">
+        <v>0</v>
+      </c>
+      <c r="E45" s="10">
         <v>28</v>
       </c>
-      <c r="F45" s="11"/>
-      <c r="H45" s="7" t="s">
+      <c r="F45" s="10"/>
+      <c r="H45" s="6" t="s">
         <v>80</v>
       </c>
       <c r="I45" s="3"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D46" s="11">
-        <v>0</v>
-      </c>
-      <c r="E46" s="11">
+      <c r="C46" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="10">
+        <v>0</v>
+      </c>
+      <c r="E46" s="10">
         <v>24</v>
       </c>
-      <c r="F46" s="11"/>
-      <c r="H46" s="7" t="s">
+      <c r="F46" s="10"/>
+      <c r="H46" s="6" t="s">
         <v>80</v>
       </c>
       <c r="I46" s="3"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D47" s="11">
-        <v>0</v>
-      </c>
-      <c r="E47" s="11">
+      <c r="C47" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" s="10">
+        <v>0</v>
+      </c>
+      <c r="E47" s="10">
         <v>24</v>
       </c>
-      <c r="F47" s="11"/>
-      <c r="H47" s="7" t="s">
+      <c r="F47" s="10"/>
+      <c r="H47" s="6" t="s">
         <v>80</v>
       </c>
       <c r="I47" s="3"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C48" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D48" s="11">
-        <v>0</v>
-      </c>
-      <c r="E48" s="11">
+      <c r="C48" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" s="10">
+        <v>0</v>
+      </c>
+      <c r="E48" s="10">
         <v>24</v>
       </c>
-      <c r="F48" s="11"/>
-      <c r="H48" s="7" t="s">
+      <c r="F48" s="10"/>
+      <c r="H48" s="6" t="s">
         <v>80</v>
       </c>
       <c r="I48" s="3"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C49" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D49" s="11">
-        <v>0</v>
-      </c>
-      <c r="E49" s="11">
+      <c r="C49" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" s="10">
+        <v>0</v>
+      </c>
+      <c r="E49" s="10">
         <v>24</v>
       </c>
-      <c r="F49" s="11"/>
-      <c r="H49" s="7" t="s">
+      <c r="F49" s="10"/>
+      <c r="H49" s="6" t="s">
         <v>80</v>
       </c>
       <c r="I49" s="3"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C50" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D50" s="11">
-        <v>0</v>
-      </c>
-      <c r="E50" s="11">
+      <c r="C50" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50" s="10">
+        <v>0</v>
+      </c>
+      <c r="E50" s="10">
         <v>24</v>
       </c>
-      <c r="F50" s="11"/>
-      <c r="H50" s="7" t="s">
+      <c r="F50" s="10"/>
+      <c r="H50" s="6" t="s">
         <v>80</v>
       </c>
       <c r="I50" s="3"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C51" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D51" s="11">
-        <v>0</v>
-      </c>
-      <c r="E51" s="11">
+      <c r="C51" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" s="10">
+        <v>0</v>
+      </c>
+      <c r="E51" s="10">
         <v>48</v>
       </c>
-      <c r="F51" s="11"/>
-      <c r="H51" s="7" t="s">
+      <c r="F51" s="10"/>
+      <c r="H51" s="6" t="s">
         <v>80</v>
       </c>
       <c r="I51" s="3"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C52" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D52" s="11">
-        <v>0</v>
-      </c>
-      <c r="E52" s="11">
+      <c r="C52" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52" s="10">
+        <v>0</v>
+      </c>
+      <c r="E52" s="10">
         <v>48</v>
       </c>
-      <c r="F52" s="11"/>
-      <c r="H52" s="7" t="s">
+      <c r="F52" s="10"/>
+      <c r="H52" s="6" t="s">
         <v>80</v>
       </c>
       <c r="I52" s="3"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C53" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D53" s="11">
-        <v>0</v>
-      </c>
-      <c r="E53" s="11">
+      <c r="C53" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D53" s="10">
+        <v>0</v>
+      </c>
+      <c r="E53" s="10">
         <v>48</v>
       </c>
-      <c r="F53" s="11"/>
-      <c r="H53" s="7" t="s">
+      <c r="F53" s="10"/>
+      <c r="H53" s="6" t="s">
         <v>80</v>
       </c>
       <c r="I53" s="3"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C54" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D54" s="11">
-        <v>0</v>
-      </c>
-      <c r="E54" s="11">
+      <c r="C54" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="10">
+        <v>0</v>
+      </c>
+      <c r="E54" s="10">
         <v>48</v>
       </c>
-      <c r="F54" s="11"/>
-      <c r="H54" s="7" t="s">
+      <c r="F54" s="10"/>
+      <c r="H54" s="6" t="s">
         <v>80</v>
       </c>
       <c r="I54" s="3"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C55" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D55" s="11">
-        <v>0</v>
-      </c>
-      <c r="E55" s="11">
+      <c r="C55" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D55" s="10">
+        <v>0</v>
+      </c>
+      <c r="E55" s="10">
         <v>48</v>
       </c>
-      <c r="F55" s="11"/>
-      <c r="H55" s="7" t="s">
+      <c r="F55" s="10"/>
+      <c r="H55" s="6" t="s">
         <v>80</v>
       </c>
       <c r="I55" s="3"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C56" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D56" s="11">
-        <v>0</v>
-      </c>
-      <c r="E56" s="11">
+      <c r="C56" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" s="10">
+        <v>0</v>
+      </c>
+      <c r="E56" s="10">
         <v>24</v>
       </c>
-      <c r="F56" s="11"/>
-      <c r="H56" s="7" t="s">
+      <c r="F56" s="10"/>
+      <c r="H56" s="6" t="s">
         <v>80</v>
       </c>
       <c r="I56" s="3"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="C57" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D57" s="11">
-        <v>0</v>
-      </c>
-      <c r="E57" s="11">
+      <c r="C57" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" s="10">
+        <v>0</v>
+      </c>
+      <c r="E57" s="10">
         <v>24</v>
       </c>
-      <c r="F57" s="11"/>
-      <c r="H57" s="7" t="s">
+      <c r="F57" s="10"/>
+      <c r="H57" s="6" t="s">
         <v>80</v>
       </c>
       <c r="I57" s="3"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C58" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D58" s="11">
-        <v>0</v>
-      </c>
-      <c r="E58" s="11">
+      <c r="C58" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D58" s="10">
+        <v>0</v>
+      </c>
+      <c r="E58" s="10">
         <v>24</v>
       </c>
-      <c r="F58" s="11"/>
-      <c r="H58" s="7" t="s">
+      <c r="F58" s="10"/>
+      <c r="H58" s="6" t="s">
         <v>80</v>
       </c>
       <c r="I58" s="3"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C59" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D59" s="11">
-        <v>0</v>
-      </c>
-      <c r="E59" s="11">
+      <c r="C59" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D59" s="10">
+        <v>0</v>
+      </c>
+      <c r="E59" s="10">
         <v>24</v>
       </c>
-      <c r="F59" s="11"/>
-      <c r="H59" s="7" t="s">
+      <c r="F59" s="10"/>
+      <c r="H59" s="6" t="s">
         <v>80</v>
       </c>
       <c r="I59" s="3"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C60" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D60" s="11">
-        <v>0</v>
-      </c>
-      <c r="E60" s="11">
+      <c r="C60" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D60" s="10">
+        <v>0</v>
+      </c>
+      <c r="E60" s="10">
         <v>24</v>
       </c>
-      <c r="F60" s="11"/>
-      <c r="H60" s="7" t="s">
+      <c r="F60" s="10"/>
+      <c r="H60" s="6" t="s">
         <v>80</v>
       </c>
       <c r="I60" s="3"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C61" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D61" s="11">
-        <v>0</v>
-      </c>
-      <c r="E61" s="11">
+      <c r="C61" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61" s="10">
+        <v>0</v>
+      </c>
+      <c r="E61" s="10">
         <v>12</v>
       </c>
-      <c r="F61" s="11"/>
-      <c r="H61" s="7" t="s">
+      <c r="F61" s="10"/>
+      <c r="H61" s="6" t="s">
         <v>80</v>
       </c>
       <c r="I61" s="3"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C62" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D62" s="11">
-        <v>0</v>
-      </c>
-      <c r="E62" s="11">
+      <c r="C62" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D62" s="10">
+        <v>0</v>
+      </c>
+      <c r="E62" s="10">
         <v>12</v>
       </c>
-      <c r="F62" s="11"/>
-      <c r="H62" s="7" t="s">
+      <c r="F62" s="10"/>
+      <c r="H62" s="6" t="s">
         <v>80</v>
       </c>
       <c r="I62" s="3"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="9" t="s">
+      <c r="A63" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="C63" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D63" s="11">
-        <v>0</v>
-      </c>
-      <c r="E63" s="11">
+      <c r="C63" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D63" s="10">
+        <v>0</v>
+      </c>
+      <c r="E63" s="10">
         <v>12</v>
       </c>
-      <c r="F63" s="11"/>
-      <c r="H63" s="7" t="s">
+      <c r="F63" s="10"/>
+      <c r="H63" s="6" t="s">
         <v>80</v>
       </c>
       <c r="I63" s="3"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="9" t="s">
+      <c r="A64" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="C64" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D64" s="11">
-        <v>0</v>
-      </c>
-      <c r="E64" s="11">
+      <c r="C64" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D64" s="10">
+        <v>0</v>
+      </c>
+      <c r="E64" s="10">
         <v>12</v>
       </c>
-      <c r="F64" s="11"/>
-      <c r="H64" s="7" t="s">
+      <c r="F64" s="10"/>
+      <c r="H64" s="6" t="s">
         <v>80</v>
       </c>
       <c r="I64" s="3"/>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="9" t="s">
+      <c r="A65" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C65" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D65" s="11">
-        <v>0</v>
-      </c>
-      <c r="E65" s="11">
+      <c r="C65" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D65" s="10">
+        <v>0</v>
+      </c>
+      <c r="E65" s="10">
         <v>12</v>
       </c>
-      <c r="F65" s="11"/>
-      <c r="H65" s="7" t="s">
+      <c r="F65" s="10"/>
+      <c r="H65" s="6" t="s">
         <v>80</v>
       </c>
       <c r="I65" s="3"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="9" t="s">
+      <c r="A66" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D66" s="13">
+      <c r="D66" s="12">
         <v>39814</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E66" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F66" s="11"/>
-      <c r="H66" s="7" t="s">
+      <c r="F66" s="10"/>
+      <c r="H66" s="6" t="s">
         <v>229</v>
       </c>
       <c r="I66" s="3"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="9" t="s">
+      <c r="A67" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D67" s="13">
+      <c r="D67" s="12">
         <v>39814</v>
       </c>
-      <c r="E67" s="7" t="s">
+      <c r="E67" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F67" s="11"/>
-      <c r="H67" s="7" t="s">
+      <c r="F67" s="10"/>
+      <c r="H67" s="6" t="s">
         <v>229</v>
       </c>
       <c r="I67" s="3"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="9" t="s">
+      <c r="A68" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D68" s="13">
+      <c r="D68" s="12">
         <v>39814</v>
       </c>
-      <c r="E68" s="7" t="s">
+      <c r="E68" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F68" s="11"/>
-      <c r="H68" s="7" t="s">
+      <c r="F68" s="10"/>
+      <c r="H68" s="6" t="s">
         <v>229</v>
       </c>
       <c r="I68" s="3"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="9" t="s">
+      <c r="A69" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D69" s="13">
+      <c r="D69" s="12">
         <v>39814</v>
       </c>
-      <c r="E69" s="7" t="s">
+      <c r="E69" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F69" s="11"/>
-      <c r="H69" s="7" t="s">
+      <c r="F69" s="10"/>
+      <c r="H69" s="6" t="s">
         <v>229</v>
       </c>
       <c r="I69" s="3"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="9" t="s">
+      <c r="A70" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D70" s="13">
+      <c r="D70" s="12">
         <v>39814</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="E70" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F70" s="11"/>
-      <c r="H70" s="7" t="s">
+      <c r="F70" s="10"/>
+      <c r="H70" s="6" t="s">
         <v>229</v>
       </c>
       <c r="I70" s="3"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="9" t="s">
+      <c r="A71" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C71" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D71" s="13">
+      <c r="D71" s="12">
         <v>39814</v>
       </c>
-      <c r="E71" s="7" t="s">
+      <c r="E71" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F71" s="11"/>
-      <c r="H71" s="7" t="s">
+      <c r="F71" s="10"/>
+      <c r="H71" s="6" t="s">
         <v>229</v>
       </c>
       <c r="I71" s="3"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="9" t="s">
+      <c r="A72" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="7" t="s">
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="H72" s="7" t="s">
+      <c r="H72" s="6" t="s">
         <v>229</v>
       </c>
       <c r="I72" s="3"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="9" t="s">
+      <c r="A73" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D73" s="11"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="7" t="s">
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="H73" s="7" t="s">
+      <c r="H73" s="6" t="s">
         <v>229</v>
       </c>
       <c r="I73" s="3"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="9" t="s">
+      <c r="A74" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C74" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D74" s="11"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="7" t="s">
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="H74" s="7" t="s">
+      <c r="H74" s="6" t="s">
         <v>229</v>
       </c>
       <c r="I74" s="3"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="9" t="s">
+      <c r="A75" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D75" s="11"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="7" t="s">
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="H75" s="7" t="s">
+      <c r="H75" s="6" t="s">
         <v>229</v>
       </c>
       <c r="I75" s="3"/>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="9" t="s">
+      <c r="A76" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D76" s="11"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="7" t="s">
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="H76" s="7" t="s">
+      <c r="H76" s="6" t="s">
         <v>229</v>
       </c>
       <c r="I76" s="3"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="9" t="s">
+      <c r="A77" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C77" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="7" t="s">
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="H77" s="7" t="s">
+      <c r="H77" s="6" t="s">
         <v>229</v>
       </c>
       <c r="I77" s="3"/>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="9" t="s">
+      <c r="A78" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C78" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="7" t="s">
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="H78" s="7" t="s">
+      <c r="H78" s="6" t="s">
         <v>229</v>
       </c>
       <c r="I78" s="3"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="9" t="s">
+      <c r="A79" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C79" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="7" t="s">
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="H79" s="7" t="s">
+      <c r="H79" s="6" t="s">
         <v>229</v>
       </c>
       <c r="I79" s="3"/>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="9" t="s">
+      <c r="A80" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C80" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D80" s="11"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="7" t="s">
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="H80" s="7" t="s">
+      <c r="H80" s="6" t="s">
         <v>229</v>
       </c>
       <c r="I80" s="3"/>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="9" t="s">
+      <c r="A81" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C81" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D81" s="11"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="7" t="s">
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="H81" s="7" t="s">
+      <c r="H81" s="6" t="s">
         <v>229</v>
       </c>
       <c r="I81" s="3"/>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="9" t="s">
+      <c r="A82" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C82" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="7" t="s">
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="H82" s="7" t="s">
+      <c r="H82" s="6" t="s">
         <v>229</v>
       </c>
       <c r="I82" s="3"/>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="9" t="s">
+      <c r="A83" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B83" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="C83" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D83" s="11"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="7" t="s">
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="H83" s="7" t="s">
+      <c r="H83" s="6" t="s">
         <v>229</v>
       </c>
       <c r="I83" s="3"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="9" t="s">
+      <c r="A84" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B84" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C84" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D84" s="12">
+      <c r="D84" s="11">
         <v>32874</v>
       </c>
-      <c r="E84" s="7" t="s">
+      <c r="E84" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H84" s="7" t="s">
+      <c r="H84" s="6" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="9" t="s">
+      <c r="A85" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="B85" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C85" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D85" s="7">
-        <v>0</v>
-      </c>
-      <c r="E85" s="7">
+      <c r="C85" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D85" s="6">
+        <v>0</v>
+      </c>
+      <c r="E85" s="6">
         <v>4</v>
       </c>
-      <c r="H85" s="7" t="s">
+      <c r="H85" s="6" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="9" t="s">
+      <c r="A86" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="B86" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C86" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D86" s="7">
-        <v>0</v>
-      </c>
-      <c r="E86" s="7">
+      <c r="C86" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D86" s="6">
+        <v>0</v>
+      </c>
+      <c r="E86" s="6">
         <v>4</v>
       </c>
-      <c r="H86" s="7" t="s">
+      <c r="H86" s="6" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="9" t="s">
+      <c r="A87" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B87" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C87" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D87" s="7">
-        <v>0</v>
-      </c>
-      <c r="E87" s="7">
+      <c r="C87" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D87" s="6">
+        <v>0</v>
+      </c>
+      <c r="E87" s="6">
         <v>4</v>
       </c>
-      <c r="H87" s="7" t="s">
+      <c r="H87" s="6" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="9" t="s">
+      <c r="A88" s="8" t="s">
         <v>40</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C88" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D88" s="7">
-        <v>0</v>
-      </c>
-      <c r="E88" s="7">
+      <c r="C88" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D88" s="6">
+        <v>0</v>
+      </c>
+      <c r="E88" s="6">
         <v>4</v>
       </c>
-      <c r="H88" s="7" t="s">
+      <c r="H88" s="6" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="9" t="s">
+      <c r="A89" s="8" t="s">
         <v>42</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C89" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D89" s="7">
-        <v>0</v>
-      </c>
-      <c r="E89" s="7">
+      <c r="C89" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D89" s="6">
+        <v>0</v>
+      </c>
+      <c r="E89" s="6">
         <v>4</v>
       </c>
-      <c r="H89" s="7" t="s">
+      <c r="H89" s="6" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="9" t="s">
+      <c r="A90" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C90" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D90" s="7">
-        <v>0</v>
-      </c>
-      <c r="E90" s="7">
+      <c r="C90" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D90" s="6">
+        <v>0</v>
+      </c>
+      <c r="E90" s="6">
         <v>4</v>
       </c>
-      <c r="H90" s="7" t="s">
+      <c r="H90" s="6" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="9" t="s">
+      <c r="A91" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B91" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C91" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D91" s="7">
-        <v>0</v>
-      </c>
-      <c r="E91" s="7">
+      <c r="C91" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D91" s="6">
+        <v>0</v>
+      </c>
+      <c r="E91" s="6">
         <v>4</v>
       </c>
-      <c r="H91" s="7" t="s">
+      <c r="H91" s="6" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="9" t="s">
+      <c r="A92" s="8" t="s">
         <v>48</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C92" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D92" s="7">
-        <v>0</v>
-      </c>
-      <c r="E92" s="7">
+      <c r="C92" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D92" s="6">
+        <v>0</v>
+      </c>
+      <c r="E92" s="6">
         <v>4</v>
       </c>
-      <c r="H92" s="7" t="s">
+      <c r="H92" s="6" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="9" t="s">
+      <c r="A93" s="8" t="s">
         <v>50</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C93" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D93" s="7">
-        <v>0</v>
-      </c>
-      <c r="E93" s="7">
+      <c r="C93" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D93" s="6">
+        <v>0</v>
+      </c>
+      <c r="E93" s="6">
         <v>4</v>
       </c>
-      <c r="H93" s="7" t="s">
+      <c r="H93" s="6" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="9" t="s">
+      <c r="A94" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C94" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D94" s="7">
-        <v>0</v>
-      </c>
-      <c r="E94" s="7">
+      <c r="C94" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D94" s="6">
+        <v>0</v>
+      </c>
+      <c r="E94" s="6">
         <v>4</v>
       </c>
-      <c r="H94" s="7" t="s">
+      <c r="H94" s="6" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="9" t="s">
+      <c r="A95" s="8" t="s">
         <v>54</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C95" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D95" s="7">
-        <v>0</v>
-      </c>
-      <c r="E95" s="7">
+      <c r="C95" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D95" s="6">
+        <v>0</v>
+      </c>
+      <c r="E95" s="6">
         <v>4</v>
       </c>
-      <c r="H95" s="7" t="s">
+      <c r="H95" s="6" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="9" t="s">
+      <c r="A96" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C96" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D96" s="7">
-        <v>0</v>
-      </c>
-      <c r="E96" s="7">
+      <c r="C96" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D96" s="6">
+        <v>0</v>
+      </c>
+      <c r="E96" s="6">
         <v>4</v>
       </c>
-      <c r="H96" s="7" t="s">
+      <c r="H96" s="6" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="9" t="s">
+      <c r="A97" s="8" t="s">
         <v>58</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C97" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D97" s="7">
-        <v>0</v>
-      </c>
-      <c r="E97" s="7">
+      <c r="C97" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D97" s="6">
+        <v>0</v>
+      </c>
+      <c r="E97" s="6">
         <v>4</v>
       </c>
-      <c r="H97" s="7" t="s">
+      <c r="H97" s="6" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="10" t="s">
+      <c r="A98" s="9" t="s">
         <v>71</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C98" s="7" t="s">
+      <c r="C98" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D98" s="12">
+      <c r="D98" s="11">
         <v>29221</v>
       </c>
-      <c r="E98" s="7" t="s">
+      <c r="E98" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H98" s="7" t="s">
+      <c r="H98" s="6" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="9" t="s">
+      <c r="A99" s="8" t="s">
         <v>72</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C99" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D99" s="7">
+      <c r="C99" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D99" s="6">
         <v>20</v>
       </c>
-      <c r="E99" s="7">
+      <c r="E99" s="6">
         <v>200</v>
       </c>
-      <c r="H99" s="7" t="s">
+      <c r="H99" s="6" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="9" t="s">
+      <c r="A100" s="8" t="s">
         <v>68</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C100" s="7" t="s">
+      <c r="C100" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D100" s="14" t="s">
+      <c r="D100" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E100" s="14" t="s">
+      <c r="E100" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F100" s="14" t="s">
+      <c r="F100" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G100" s="14" t="s">
+      <c r="G100" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H100" s="14" t="s">
+      <c r="H100" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="I100" s="14"/>
+      <c r="I100" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3607,8 +3599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3729,7 +3721,7 @@
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>73</v>
       </c>
       <c r="B9">

--- a/Data/Format_v1.xlsx
+++ b/Data/Format_v1.xlsx
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$100</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -234,7 +234,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="231">
   <si>
     <t>Original</t>
   </si>
@@ -924,6 +924,9 @@
   </si>
   <si>
     <t>MRI</t>
+  </si>
+  <si>
+    <t>DoMRI</t>
   </si>
 </sst>
 </file>
@@ -1047,8 +1050,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1108,7 +1113,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="45">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1130,6 +1135,7 @@
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1151,6 +1157,7 @@
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3597,15 +3604,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="2"/>
       <c r="B1" s="1" t="str">
         <f>A2</f>
@@ -3639,14 +3646,18 @@
         <f>A9</f>
         <v>DoFVC</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="str">
+        <f>A10</f>
+        <v>DoMRI</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="4"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
@@ -3655,7 +3666,7 @@
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
@@ -3667,7 +3678,7 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
         <v>70</v>
       </c>
@@ -3682,7 +3693,7 @@
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
         <v>62</v>
       </c>
@@ -3693,7 +3704,7 @@
       <c r="D6" s="2"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
         <v>31</v>
       </c>
@@ -3705,7 +3716,7 @@
       </c>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
         <v>33</v>
       </c>
@@ -3720,7 +3731,7 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
         <v>73</v>
       </c>
@@ -3731,6 +3742,18 @@
         <v>1</v>
       </c>
       <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B10">
+        <v>-1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="J10" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/Format_v1.xlsx
+++ b/Data/Format_v1.xlsx
@@ -1,19 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10311"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/htan4/Documents/Rprojects/ResearchR/Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{49EEF06C-E592-F049-BEC4-C49FD32C3876}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28600" windowHeight="15940" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25020" windowHeight="15940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$162</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,12 +29,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Henk-Jan Westeneng</author>
+    <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -55,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -80,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -113,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -146,17 +153,51 @@
         </r>
       </text>
     </comment>
+    <comment ref="F206" authorId="1" shapeId="0" xr:uid="{FA5AA0BF-7587-7B45-A4D4-1AC8BB4BD553}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Harold Tan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Score van 2 is niet mogelijk, hierdoor als factor ingevoerd. Omzetten naar numeric bij herberekenen totaalscores.
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Henk-Jan Westeneng</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -181,7 +222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0">
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -205,7 +246,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="0">
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -234,7 +275,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="513">
   <si>
     <t>Original</t>
   </si>
@@ -927,13 +968,859 @@
   </si>
   <si>
     <t>DoMRI</t>
+  </si>
+  <si>
+    <t>NL - Patient/Control</t>
+  </si>
+  <si>
+    <t>ALS plus</t>
+  </si>
+  <si>
+    <t>ALS plus anders</t>
+  </si>
+  <si>
+    <t>Spinal onset</t>
+  </si>
+  <si>
+    <t>Side spinal onset</t>
+  </si>
+  <si>
+    <t>Handedness</t>
+  </si>
+  <si>
+    <t>Total_behaviour</t>
+  </si>
+  <si>
+    <t>FU2: Total_behaviour</t>
+  </si>
+  <si>
+    <t>FU3: Total_behaviour</t>
+  </si>
+  <si>
+    <t>FU4: Total_behaviour</t>
+  </si>
+  <si>
+    <t>FU5: Total_behaviour</t>
+  </si>
+  <si>
+    <t>Symptoms</t>
+  </si>
+  <si>
+    <t>FU2: Symptoms</t>
+  </si>
+  <si>
+    <t>FU3: Symptoms</t>
+  </si>
+  <si>
+    <t>FU4: Symptoms</t>
+  </si>
+  <si>
+    <t>FU5: Symptoms</t>
+  </si>
+  <si>
+    <t>Behaviour_disinhibition</t>
+  </si>
+  <si>
+    <t>FU2: Behaviour_disinhibition</t>
+  </si>
+  <si>
+    <t>FU3: Behaviour_disinhibition</t>
+  </si>
+  <si>
+    <t>FU4: Behaviour_disinhibition</t>
+  </si>
+  <si>
+    <t>FU5: Behaviour_disinhibition</t>
+  </si>
+  <si>
+    <t>Apathy_interia</t>
+  </si>
+  <si>
+    <t>FU2: Apathy_inertia</t>
+  </si>
+  <si>
+    <t>FU3: Apathy_inertia</t>
+  </si>
+  <si>
+    <t>FU4: Apathy_inertia</t>
+  </si>
+  <si>
+    <t>FU5: Apathy_inertia</t>
+  </si>
+  <si>
+    <t>Loss_of_sympathy</t>
+  </si>
+  <si>
+    <t>FU2: Loss_of_sympathy</t>
+  </si>
+  <si>
+    <t>FU3: Loss_of_sympathy</t>
+  </si>
+  <si>
+    <t>FU4: Loss_of_sympathy</t>
+  </si>
+  <si>
+    <t>FU5: Loss_of_sympathy</t>
+  </si>
+  <si>
+    <t>Perseverative_stereotyped</t>
+  </si>
+  <si>
+    <t>FU2: Perseverative_stereotyped</t>
+  </si>
+  <si>
+    <t>FU3: Perseverative_stereotyped</t>
+  </si>
+  <si>
+    <t>FU4: Perseverative_stereotyped</t>
+  </si>
+  <si>
+    <t>FU5: Perseverative_stereotyped</t>
+  </si>
+  <si>
+    <t>Hyperorality_altered_food</t>
+  </si>
+  <si>
+    <t>FU2: Hyperorality_altered_food</t>
+  </si>
+  <si>
+    <t>FU3: Hyperorality_altered_food</t>
+  </si>
+  <si>
+    <t>FU4: Hyperorality_altered_food</t>
+  </si>
+  <si>
+    <t>FU5: Hyperorality_altered_food</t>
+  </si>
+  <si>
+    <t>Psychosis</t>
+  </si>
+  <si>
+    <t>FU2: Psychosis</t>
+  </si>
+  <si>
+    <t>FU3: Psychosis</t>
+  </si>
+  <si>
+    <t>FU4: Psychosis</t>
+  </si>
+  <si>
+    <t>FU5: Psychosis</t>
+  </si>
+  <si>
+    <t>Psychosis_beliefs_behaviours</t>
+  </si>
+  <si>
+    <t>FU2: Psychosis_beliefs_behaviours</t>
+  </si>
+  <si>
+    <t>FU3: Psychosis_beliefs_behaviours</t>
+  </si>
+  <si>
+    <t>FU4: Psychosis_beliefs_behaviours</t>
+  </si>
+  <si>
+    <t>FU5: Psychosis_beliefs_behaviours</t>
+  </si>
+  <si>
+    <t>Psychosis_presence</t>
+  </si>
+  <si>
+    <t>FU2: Psychosis_presence</t>
+  </si>
+  <si>
+    <t>FU3: Psychosis_presence</t>
+  </si>
+  <si>
+    <t>FU4: Psychosis_presence</t>
+  </si>
+  <si>
+    <t>FU5: Psychosis_presence</t>
+  </si>
+  <si>
+    <t>Psychosis_suspicious</t>
+  </si>
+  <si>
+    <t>FU2: Psychosis_suspicious</t>
+  </si>
+  <si>
+    <t>FU3: Psychosis_suspicious</t>
+  </si>
+  <si>
+    <t>FU4: Psychosis_suspicious</t>
+  </si>
+  <si>
+    <t>FU5: Psychosis_suspicious</t>
+  </si>
+  <si>
+    <t>Deelname MRI 3T</t>
+  </si>
+  <si>
+    <t>FollowUp1_fMRI</t>
+  </si>
+  <si>
+    <t>FollowUp2_fMRI</t>
+  </si>
+  <si>
+    <t>FollowUp3_fMRI</t>
+  </si>
+  <si>
+    <t>FollowUp4_fMRI</t>
+  </si>
+  <si>
+    <t>FollowUp5_fMRI</t>
+  </si>
+  <si>
+    <t>FollowUp6_fMRI</t>
+  </si>
+  <si>
+    <t>FollowUp1_MTR</t>
+  </si>
+  <si>
+    <t>FollowUp2_MTR</t>
+  </si>
+  <si>
+    <t>FollowUp3_MTR</t>
+  </si>
+  <si>
+    <t>FollowUp4_MTR</t>
+  </si>
+  <si>
+    <t>FollowUp5_MTR</t>
+  </si>
+  <si>
+    <t>FollowUp6_MTR</t>
+  </si>
+  <si>
+    <t>Datum van invullen ALS-FTD-Q</t>
+  </si>
+  <si>
+    <t>Ingevuld door</t>
+  </si>
+  <si>
+    <t>Ingevuld door Anders nl:</t>
+  </si>
+  <si>
+    <t>1. minder geinteresseerd</t>
+  </si>
+  <si>
+    <t>2. Persoonlijke hygiene</t>
+  </si>
+  <si>
+    <t>3. denkt aan zichzelf</t>
+  </si>
+  <si>
+    <t>4. sneller geirriteerd</t>
+  </si>
+  <si>
+    <t>5. minder concentreren</t>
+  </si>
+  <si>
+    <t>6. onrustiger</t>
+  </si>
+  <si>
+    <t>7. teruggetrokken</t>
+  </si>
+  <si>
+    <t>8. zonder doel</t>
+  </si>
+  <si>
+    <t>9. minder goed geheugen</t>
+  </si>
+  <si>
+    <t>10. contact met vreemden</t>
+  </si>
+  <si>
+    <t>11. verhoogde behoefte aan sex</t>
+  </si>
+  <si>
+    <t>12. emotioneel minder stabiel</t>
+  </si>
+  <si>
+    <t>13. vaker erg vrolijk</t>
+  </si>
+  <si>
+    <t>14. achterdochtig</t>
+  </si>
+  <si>
+    <t>15. herhaalt handelingen of zinnen</t>
+  </si>
+  <si>
+    <t>16. schaamteloos</t>
+  </si>
+  <si>
+    <t>17. weet waar hij zich bevindt</t>
+  </si>
+  <si>
+    <t>18. kwetsend gedrag</t>
+  </si>
+  <si>
+    <t>19. situaties goed beoordelen</t>
+  </si>
+  <si>
+    <t>20. eten verzamelen</t>
+  </si>
+  <si>
+    <t>21. begrijpt ziekte</t>
+  </si>
+  <si>
+    <t>22. ziet/hoort dingen die er niet zijn</t>
+  </si>
+  <si>
+    <t>23. kinderlijk gedrag</t>
+  </si>
+  <si>
+    <t>24. weet dagdeel</t>
+  </si>
+  <si>
+    <t>25. doet anderen na</t>
+  </si>
+  <si>
+    <t>Totaal score ALS-FTD-Q</t>
+  </si>
+  <si>
+    <t>Tbl ALS-FTD-Q.Datum van invullen ALS-FTD-Q</t>
+  </si>
+  <si>
+    <t>Tbl ALS-FTD-Q.Ingevuld door</t>
+  </si>
+  <si>
+    <t>Tbl ALS-FTD-Q.Ingevuld door Anders nl:</t>
+  </si>
+  <si>
+    <t>Tbl ALS-FTD-Q.1. minder geinteresseerd</t>
+  </si>
+  <si>
+    <t>Tbl ALS-FTD-Q.2. Persoonlijke hygiene</t>
+  </si>
+  <si>
+    <t>Tbl ALS-FTD-Q.3. denkt aan zichzelf</t>
+  </si>
+  <si>
+    <t>Tbl ALS-FTD-Q.4. sneller geirriteerd</t>
+  </si>
+  <si>
+    <t>Tbl ALS-FTD-Q.5. minder concentreren</t>
+  </si>
+  <si>
+    <t>Tbl ALS-FTD-Q.6. onrustiger</t>
+  </si>
+  <si>
+    <t>Tbl ALS-FTD-Q.7. teruggetrokken</t>
+  </si>
+  <si>
+    <t>Tbl ALS-FTD-Q.8. zonder doel</t>
+  </si>
+  <si>
+    <t>Tbl ALS-FTD-Q.9. minder goed geheugen</t>
+  </si>
+  <si>
+    <t>Tbl ALS-FTD-Q.10. contact met vreemden</t>
+  </si>
+  <si>
+    <t>Tbl ALS-FTD-Q.11. verhoogde behoefte aan sex</t>
+  </si>
+  <si>
+    <t>Tbl ALS-FTD-Q.12. emotioneel minder stabiel</t>
+  </si>
+  <si>
+    <t>Tbl ALS-FTD-Q.13. vaker erg vrolijk</t>
+  </si>
+  <si>
+    <t>Tbl ALS-FTD-Q.14. achterdochtig</t>
+  </si>
+  <si>
+    <t>Tbl ALS-FTD-Q.15. herhaalt handelingen of zinnen</t>
+  </si>
+  <si>
+    <t>Tbl ALS-FTD-Q.16. schaamteloos</t>
+  </si>
+  <si>
+    <t>Tbl ALS-FTD-Q.17. weet waar hij zich bevindt</t>
+  </si>
+  <si>
+    <t>Tbl ALS-FTD-Q.18. kwetsend gedrag</t>
+  </si>
+  <si>
+    <t>Tbl ALS-FTD-Q.19. situaties goed beoordelen</t>
+  </si>
+  <si>
+    <t>Tbl ALS-FTD-Q.20. eten verzamelen</t>
+  </si>
+  <si>
+    <t>Tbl ALS-FTD-Q.21. begrijpt ziekte</t>
+  </si>
+  <si>
+    <t>Tbl ALS-FTD-Q.22. ziet/hoort dingen die er niet zijn</t>
+  </si>
+  <si>
+    <t>Tbl ALS-FTD-Q.23. kinderlijk gedrag</t>
+  </si>
+  <si>
+    <t>Tbl ALS-FTD-Q.24. weet dagdeel</t>
+  </si>
+  <si>
+    <t>Tbl ALS-FTD-Q.25. doet anderen na</t>
+  </si>
+  <si>
+    <t>Tbl ALS-FTD-Q.Totaal score ALS-FTD-Q</t>
+  </si>
+  <si>
+    <t>Table El Escorial.Date El Escorial</t>
+  </si>
+  <si>
+    <t>Table El Escorial.El Escorial category</t>
+  </si>
+  <si>
+    <t>Patient|Controle</t>
+  </si>
+  <si>
+    <t>SubType</t>
+  </si>
+  <si>
+    <t>ALSplus</t>
+  </si>
+  <si>
+    <t>ALSplus_ad</t>
+  </si>
+  <si>
+    <t>Geen|FTD|Extra pyramidaal|Anders|Niet beschreven in de brief</t>
+  </si>
+  <si>
+    <t>OnsetSide</t>
+  </si>
+  <si>
+    <t>OnsetLimbs</t>
+  </si>
+  <si>
+    <t>Arms|Legs|Unknown|Arm|Leg</t>
+  </si>
+  <si>
+    <t>Left|Right|Ambidextrous|Unknown</t>
+  </si>
+  <si>
+    <t>Left|Right|Both sides|Unknown</t>
+  </si>
+  <si>
+    <t>Clinical</t>
+  </si>
+  <si>
+    <t>ECAS_disinh1</t>
+  </si>
+  <si>
+    <t>ECAS_disinh2</t>
+  </si>
+  <si>
+    <t>ECAS_disinh3</t>
+  </si>
+  <si>
+    <t>ECAS_disinh4</t>
+  </si>
+  <si>
+    <t>ECAS_disinh5</t>
+  </si>
+  <si>
+    <t>ECAS_apath1</t>
+  </si>
+  <si>
+    <t>ECAS_apath2</t>
+  </si>
+  <si>
+    <t>ECAS_apath3</t>
+  </si>
+  <si>
+    <t>ECAS_apath4</t>
+  </si>
+  <si>
+    <t>ECAS_apath5</t>
+  </si>
+  <si>
+    <t>ECAS_bhvsymptom1</t>
+  </si>
+  <si>
+    <t>ECAS_bhvsymptom2</t>
+  </si>
+  <si>
+    <t>ECAS_bhvsymptom3</t>
+  </si>
+  <si>
+    <t>ECAS_bhvsymptom4</t>
+  </si>
+  <si>
+    <t>ECAS_bhvsymptom5</t>
+  </si>
+  <si>
+    <t>ECAS_sympathloss2</t>
+  </si>
+  <si>
+    <t>ECAS_sympathloss1</t>
+  </si>
+  <si>
+    <t>ECAS_sympathloss3</t>
+  </si>
+  <si>
+    <t>ECAS_sympathloss4</t>
+  </si>
+  <si>
+    <t>ECAS_sympathloss5</t>
+  </si>
+  <si>
+    <t>ECAS_persev1</t>
+  </si>
+  <si>
+    <t>ECAS_persev2</t>
+  </si>
+  <si>
+    <t>ECAS_persev3</t>
+  </si>
+  <si>
+    <t>ECAS_persev4</t>
+  </si>
+  <si>
+    <t>ECAS_persev5</t>
+  </si>
+  <si>
+    <t>ECAS_hyperoral1</t>
+  </si>
+  <si>
+    <t>ECAS_hyperoral2</t>
+  </si>
+  <si>
+    <t>ECAS_hyperoral3</t>
+  </si>
+  <si>
+    <t>ECAS_hyperoral4</t>
+  </si>
+  <si>
+    <t>ECAS_hyperoral5</t>
+  </si>
+  <si>
+    <t>ECAS_bhvtotal1</t>
+  </si>
+  <si>
+    <t>ECAS_bhvtotal2</t>
+  </si>
+  <si>
+    <t>ECAS_bhvtotal3</t>
+  </si>
+  <si>
+    <t>ECAS_bhvtotal4</t>
+  </si>
+  <si>
+    <t>ECAS_bhvtotal5</t>
+  </si>
+  <si>
+    <t>ECAS_psychtotal1</t>
+  </si>
+  <si>
+    <t>ECAS_psychtotal2</t>
+  </si>
+  <si>
+    <t>ECAS_psychtotal3</t>
+  </si>
+  <si>
+    <t>ECAS_psychtotal4</t>
+  </si>
+  <si>
+    <t>ECAS_psychtotal5</t>
+  </si>
+  <si>
+    <t>ECAS_beliefs1</t>
+  </si>
+  <si>
+    <t>ECAS_beliefs2</t>
+  </si>
+  <si>
+    <t>ECAS_beliefs3</t>
+  </si>
+  <si>
+    <t>ECAS_beliefs4</t>
+  </si>
+  <si>
+    <t>ECAS_beliefs5</t>
+  </si>
+  <si>
+    <t>ECAS_presence1</t>
+  </si>
+  <si>
+    <t>ECAS_presence2</t>
+  </si>
+  <si>
+    <t>ECAS_presence3</t>
+  </si>
+  <si>
+    <t>ECAS_presence4</t>
+  </si>
+  <si>
+    <t>ECAS_presence5</t>
+  </si>
+  <si>
+    <t>ECAS_suspicious1</t>
+  </si>
+  <si>
+    <t>ECAS_suspicious2</t>
+  </si>
+  <si>
+    <t>ECAS_suspicious3</t>
+  </si>
+  <si>
+    <t>ECAS_suspicious4</t>
+  </si>
+  <si>
+    <t>ECAS_suspicious5</t>
+  </si>
+  <si>
+    <t>Y|N</t>
+  </si>
+  <si>
+    <t>Yes|No|Don't know</t>
+  </si>
+  <si>
+    <t>Ja|Nee</t>
+  </si>
+  <si>
+    <t>MRI_participation</t>
+  </si>
+  <si>
+    <t>MRI_fMRIpres1</t>
+  </si>
+  <si>
+    <t>MRI_fMRIpres2</t>
+  </si>
+  <si>
+    <t>MRI_fMRIpres3</t>
+  </si>
+  <si>
+    <t>MRI_fMRIpres4</t>
+  </si>
+  <si>
+    <t>MRI_fMRIpres5</t>
+  </si>
+  <si>
+    <t>MRI_fMRIpres6</t>
+  </si>
+  <si>
+    <t>MRI_MTRpres1</t>
+  </si>
+  <si>
+    <t>MRI_MTRpres2</t>
+  </si>
+  <si>
+    <t>MRI_MTRpres3</t>
+  </si>
+  <si>
+    <t>MRI_MTRpres4</t>
+  </si>
+  <si>
+    <t>MRI_MTRpres5</t>
+  </si>
+  <si>
+    <t>MRI_MTRpres6</t>
+  </si>
+  <si>
+    <t>DoALSFTDQ</t>
+  </si>
+  <si>
+    <t>ALSFTD_Q</t>
+  </si>
+  <si>
+    <t>0|1|3|4</t>
+  </si>
+  <si>
+    <t>DoEEC</t>
+  </si>
+  <si>
+    <t>EEC_cat</t>
+  </si>
+  <si>
+    <t>Partner|Kind|Vriend|Anders, namelijk:</t>
+  </si>
+  <si>
+    <t>No ALS|Suspected ALS|Possible ALS|Probable ALS|Probable ALS lab supported|Definite ALS</t>
+  </si>
+  <si>
+    <t>EEC</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q1@w</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q2@w</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q3@w</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q4@w</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q5@w</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q6@w</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q7@w</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q8@w</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q9@w</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q10@w</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q11@w</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q12@w</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q13@w</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q14@w</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q15@w</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q16@w</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q17@w</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q18@w</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q19@w</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q20@w</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q21@w</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q22@w</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q23@w</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q24@w</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q25@w</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_total@w</t>
+  </si>
+  <si>
+    <t>DoALSFTDQ@w</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_proxy@w</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_proxy_ad@w</t>
+  </si>
+  <si>
+    <t>DoALSFTDQ@l</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_proxy@l</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_proxy_ad@l</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q1@l</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q2@l</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q3@l</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q4@l</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q5@l</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q6@l</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q7@l</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q8@l</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q9@l</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q10@l</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q11@l</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q12@l</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q13@l</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q14@l</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q15@l</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q16@l</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q17@l</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q18@l</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q19@l</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q20@l</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q21@l</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q22@l</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q23@l</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q24@l</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q25@l</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_total@l</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1019,6 +1906,19 @@
     <font>
       <sz val="12"/>
       <name val="Calibri (Body)_x0000_"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1494,20 +2394,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J234"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
+      <selection activeCell="K202" sqref="K202"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="50.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="40.5" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="12.33203125" style="6" customWidth="1"/>
@@ -1620,7 +2520,7 @@
         <v>25</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>78</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1640,7 +2540,7 @@
         <v>25</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>78</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1660,7 +2560,7 @@
         <v>25</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1685,197 +2585,183 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="8" t="s">
-        <v>19</v>
+        <v>231</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>20</v>
+        <v>366</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" s="3" t="s">
+      <c r="D9" s="11"/>
+      <c r="F9" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>78</v>
+        <v>375</v>
       </c>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="8" t="s">
-        <v>30</v>
+      <c r="A11" s="6" t="s">
+        <v>232</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>111</v>
+        <v>367</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="11">
-        <v>40179</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>80</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="8" t="s">
-        <v>86</v>
+      <c r="A12" s="6" t="s">
+        <v>233</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>112</v>
+        <v>368</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="11">
-        <v>40179</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="F12" s="10"/>
-      <c r="H12" s="6" t="s">
-        <v>80</v>
+      <c r="H12" s="3" t="s">
+        <v>375</v>
       </c>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="8" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="11">
-        <v>40179</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="H13" s="6" t="s">
-        <v>80</v>
+        <v>7</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>375</v>
       </c>
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="8" t="s">
-        <v>88</v>
+      <c r="A14" s="6" t="s">
+        <v>234</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>114</v>
+        <v>371</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="11">
-        <v>40179</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="H14" s="6" t="s">
-        <v>80</v>
+        <v>7</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>375</v>
       </c>
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="8" t="s">
-        <v>89</v>
+      <c r="A15" s="6" t="s">
+        <v>235</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>115</v>
+        <v>370</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="11">
-        <v>40179</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="H15" s="6" t="s">
-        <v>80</v>
+        <v>7</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>375</v>
       </c>
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="8" t="s">
-        <v>63</v>
+      <c r="A16" s="6" t="s">
+        <v>236</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>116</v>
+        <v>236</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="F16" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>80</v>
-      </c>
+      <c r="F16" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="8" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>67</v>
+        <v>13</v>
+      </c>
+      <c r="D17" s="11">
+        <v>40179</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>67</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D18" s="11">
+        <v>40179</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="10"/>
       <c r="H18" s="6" t="s">
         <v>80</v>
       </c>
@@ -1883,17 +2769,21 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>67</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D19" s="11">
+        <v>40179</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="10"/>
       <c r="H19" s="6" t="s">
         <v>80</v>
       </c>
@@ -1901,17 +2791,21 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>67</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D20" s="11">
+        <v>40179</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="10"/>
       <c r="H20" s="6" t="s">
         <v>80</v>
       </c>
@@ -1919,13 +2813,19 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="D21" s="11">
+        <v>40179</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="F21" s="10"/>
       <c r="H21" s="6" t="s">
@@ -1935,31 +2835,35 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="8" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="10"/>
+        <v>7</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="F22" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="H22" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="10"/>
+        <v>7</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="H23" s="6" t="s">
         <v>80</v>
       </c>
@@ -1967,15 +2871,17 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="8" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="10"/>
+        <v>7</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="H24" s="6" t="s">
         <v>80</v>
       </c>
@@ -1983,15 +2889,17 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="8" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="10"/>
+        <v>7</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="H25" s="6" t="s">
         <v>80</v>
       </c>
@@ -1999,39 +2907,31 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="8" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="10">
-        <v>0</v>
-      </c>
-      <c r="E26" s="10">
-        <v>100</v>
+        <v>7</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>80</v>
       </c>
+      <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="10">
-        <v>0</v>
-      </c>
-      <c r="E27" s="10">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="F27" s="10"/>
       <c r="H27" s="6" t="s">
@@ -2041,19 +2941,13 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="10">
-        <v>0</v>
-      </c>
-      <c r="E28" s="10">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="F28" s="10"/>
       <c r="H28" s="6" t="s">
@@ -2063,19 +2957,13 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="10">
-        <v>0</v>
-      </c>
-      <c r="E29" s="10">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="F29" s="10"/>
       <c r="H29" s="6" t="s">
@@ -2085,19 +2973,13 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" s="10">
-        <v>0</v>
-      </c>
-      <c r="E30" s="10">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="F30" s="10"/>
       <c r="H30" s="6" t="s">
@@ -2107,30 +2989,26 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="8" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="10">
-        <v>0</v>
-      </c>
-      <c r="E31" s="10">
-        <v>36</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F31" s="10"/>
       <c r="H31" s="6" t="s">
         <v>80</v>
       </c>
+      <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="8" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>27</v>
@@ -2139,20 +3017,18 @@
         <v>0</v>
       </c>
       <c r="E32" s="10">
-        <v>36</v>
-      </c>
-      <c r="F32" s="10"/>
+        <v>100</v>
+      </c>
       <c r="H32" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="I32" s="3"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>27</v>
@@ -2161,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="10">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="F33" s="10"/>
       <c r="H33" s="6" t="s">
@@ -2171,10 +3047,10 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>27</v>
@@ -2183,7 +3059,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="10">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="F34" s="10"/>
       <c r="H34" s="6" t="s">
@@ -2193,10 +3069,10 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>27</v>
@@ -2205,7 +3081,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="10">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="F35" s="10"/>
       <c r="H35" s="6" t="s">
@@ -2215,10 +3091,10 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="8" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>27</v>
@@ -2227,18 +3103,20 @@
         <v>0</v>
       </c>
       <c r="E36" s="10">
-        <v>136</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F36" s="10"/>
       <c r="H36" s="6" t="s">
         <v>80</v>
       </c>
+      <c r="I36" s="3"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="8" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>27</v>
@@ -2247,20 +3125,18 @@
         <v>0</v>
       </c>
       <c r="E37" s="10">
-        <v>136</v>
-      </c>
-      <c r="F37" s="10"/>
+        <v>36</v>
+      </c>
       <c r="H37" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="I37" s="3"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="8" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>27</v>
@@ -2269,7 +3145,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="10">
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="F38" s="10"/>
       <c r="H38" s="6" t="s">
@@ -2279,10 +3155,10 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="8" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>27</v>
@@ -2291,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="10">
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="F39" s="10"/>
       <c r="H39" s="6" t="s">
@@ -2301,10 +3177,10 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>27</v>
@@ -2313,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="10">
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="F40" s="10"/>
       <c r="H40" s="6" t="s">
@@ -2323,10 +3199,10 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="8" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>185</v>
+        <v>135</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>27</v>
@@ -2335,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="10">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F41" s="10"/>
       <c r="H41" s="6" t="s">
@@ -2345,10 +3221,10 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="8" t="s">
-        <v>143</v>
+        <v>26</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>186</v>
+        <v>136</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>27</v>
@@ -2357,20 +3233,18 @@
         <v>0</v>
       </c>
       <c r="E42" s="10">
-        <v>28</v>
-      </c>
-      <c r="F42" s="10"/>
+        <v>136</v>
+      </c>
       <c r="H42" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="I42" s="3"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="8" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>187</v>
+        <v>137</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>27</v>
@@ -2379,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="10">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="F43" s="10"/>
       <c r="H43" s="6" t="s">
@@ -2389,10 +3263,10 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="8" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>188</v>
+        <v>138</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>27</v>
@@ -2401,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="10">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="F44" s="10"/>
       <c r="H44" s="6" t="s">
@@ -2411,10 +3285,10 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="8" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>189</v>
+        <v>139</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>27</v>
@@ -2423,7 +3297,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="10">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="F45" s="10"/>
       <c r="H45" s="6" t="s">
@@ -2433,10 +3307,10 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="8" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>27</v>
@@ -2445,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="10">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="F46" s="10"/>
       <c r="H46" s="6" t="s">
@@ -2455,10 +3329,10 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="8" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>27</v>
@@ -2467,7 +3341,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F47" s="10"/>
       <c r="H47" s="6" t="s">
@@ -2477,10 +3351,10 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="8" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>27</v>
@@ -2489,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F48" s="10"/>
       <c r="H48" s="6" t="s">
@@ -2499,10 +3373,10 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="8" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>27</v>
@@ -2511,7 +3385,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F49" s="10"/>
       <c r="H49" s="6" t="s">
@@ -2521,10 +3395,10 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="8" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>27</v>
@@ -2533,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F50" s="10"/>
       <c r="H50" s="6" t="s">
@@ -2543,10 +3417,10 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="8" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>27</v>
@@ -2555,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="E51" s="10">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="F51" s="10"/>
       <c r="H51" s="6" t="s">
@@ -2565,10 +3439,10 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="8" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>27</v>
@@ -2577,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="10">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="F52" s="10"/>
       <c r="H52" s="6" t="s">
@@ -2587,10 +3461,10 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="8" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>27</v>
@@ -2599,7 +3473,7 @@
         <v>0</v>
       </c>
       <c r="E53" s="10">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="F53" s="10"/>
       <c r="H53" s="6" t="s">
@@ -2609,10 +3483,10 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="8" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>27</v>
@@ -2621,7 +3495,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="10">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="F54" s="10"/>
       <c r="H54" s="6" t="s">
@@ -2631,10 +3505,10 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="8" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>27</v>
@@ -2643,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="E55" s="10">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="F55" s="10"/>
       <c r="H55" s="6" t="s">
@@ -2653,10 +3527,10 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>27</v>
@@ -2675,10 +3549,10 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="8" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>27</v>
@@ -2687,7 +3561,7 @@
         <v>0</v>
       </c>
       <c r="E57" s="10">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="F57" s="10"/>
       <c r="H57" s="6" t="s">
@@ -2697,10 +3571,10 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="8" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>27</v>
@@ -2709,7 +3583,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="10">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="F58" s="10"/>
       <c r="H58" s="6" t="s">
@@ -2719,10 +3593,10 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="8" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>27</v>
@@ -2731,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="E59" s="10">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="F59" s="10"/>
       <c r="H59" s="6" t="s">
@@ -2741,10 +3615,10 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="8" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>27</v>
@@ -2753,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="E60" s="10">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="F60" s="10"/>
       <c r="H60" s="6" t="s">
@@ -2763,10 +3637,10 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="8" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>27</v>
@@ -2775,7 +3649,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="10">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="F61" s="10"/>
       <c r="H61" s="6" t="s">
@@ -2785,10 +3659,10 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="8" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>27</v>
@@ -2797,7 +3671,7 @@
         <v>0</v>
       </c>
       <c r="E62" s="10">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F62" s="10"/>
       <c r="H62" s="6" t="s">
@@ -2807,10 +3681,10 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="8" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>27</v>
@@ -2819,7 +3693,7 @@
         <v>0</v>
       </c>
       <c r="E63" s="10">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F63" s="10"/>
       <c r="H63" s="6" t="s">
@@ -2829,10 +3703,10 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="8" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>27</v>
@@ -2841,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="E64" s="10">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F64" s="10"/>
       <c r="H64" s="6" t="s">
@@ -2851,10 +3725,10 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="8" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>27</v>
@@ -2863,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="E65" s="10">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F65" s="10"/>
       <c r="H65" s="6" t="s">
@@ -2873,722 +3747,3407 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="8" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" s="12">
-        <v>39814</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="D66" s="10">
+        <v>0</v>
+      </c>
+      <c r="E66" s="10">
+        <v>24</v>
       </c>
       <c r="F66" s="10"/>
       <c r="H66" s="6" t="s">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="I66" s="3"/>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="8" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="12">
-        <v>39814</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="D67" s="10">
+        <v>0</v>
+      </c>
+      <c r="E67" s="10">
+        <v>12</v>
       </c>
       <c r="F67" s="10"/>
       <c r="H67" s="6" t="s">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="I67" s="3"/>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="8" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D68" s="12">
-        <v>39814</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="D68" s="10">
+        <v>0</v>
+      </c>
+      <c r="E68" s="10">
+        <v>12</v>
       </c>
       <c r="F68" s="10"/>
       <c r="H68" s="6" t="s">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="I68" s="3"/>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="8" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69" s="12">
-        <v>39814</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="D69" s="10">
+        <v>0</v>
+      </c>
+      <c r="E69" s="10">
+        <v>12</v>
       </c>
       <c r="F69" s="10"/>
       <c r="H69" s="6" t="s">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="I69" s="3"/>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="8" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D70" s="12">
-        <v>39814</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="D70" s="10">
+        <v>0</v>
+      </c>
+      <c r="E70" s="10">
+        <v>12</v>
       </c>
       <c r="F70" s="10"/>
       <c r="H70" s="6" t="s">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="I70" s="3"/>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="8" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D71" s="12">
-        <v>39814</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="D71" s="10">
+        <v>0</v>
+      </c>
+      <c r="E71" s="10">
+        <v>12</v>
       </c>
       <c r="F71" s="10"/>
       <c r="H71" s="6" t="s">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="I71" s="3"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="8" t="s">
-        <v>173</v>
+      <c r="A72" s="6" t="s">
+        <v>237</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>216</v>
+        <v>406</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="6" t="s">
-        <v>228</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D72" s="10">
+        <v>0</v>
+      </c>
+      <c r="E72" s="10">
+        <v>10</v>
+      </c>
+      <c r="F72" s="10"/>
       <c r="H72" s="6" t="s">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="I72" s="3"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="8" t="s">
-        <v>174</v>
+      <c r="A73" s="6" t="s">
+        <v>238</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>217</v>
+        <v>407</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D73" s="10"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="6" t="s">
-        <v>228</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D73" s="10">
+        <v>0</v>
+      </c>
+      <c r="E73" s="10">
+        <v>10</v>
+      </c>
+      <c r="F73" s="10"/>
       <c r="H73" s="6" t="s">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="I73" s="3"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="8" t="s">
-        <v>175</v>
+      <c r="A74" s="6" t="s">
+        <v>239</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>218</v>
+        <v>408</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="6" t="s">
-        <v>228</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D74" s="10">
+        <v>0</v>
+      </c>
+      <c r="E74" s="10">
+        <v>10</v>
+      </c>
+      <c r="F74" s="10"/>
       <c r="H74" s="6" t="s">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="I74" s="3"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="8" t="s">
-        <v>176</v>
+      <c r="A75" s="6" t="s">
+        <v>240</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>219</v>
+        <v>409</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D75" s="10"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="6" t="s">
-        <v>228</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D75" s="10">
+        <v>0</v>
+      </c>
+      <c r="E75" s="10">
+        <v>10</v>
+      </c>
+      <c r="F75" s="10"/>
       <c r="H75" s="6" t="s">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="I75" s="3"/>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="8" t="s">
-        <v>177</v>
+      <c r="A76" s="6" t="s">
+        <v>241</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>220</v>
+        <v>410</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="6" t="s">
-        <v>228</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D76" s="10">
+        <v>0</v>
+      </c>
+      <c r="E76" s="10">
+        <v>10</v>
+      </c>
+      <c r="F76" s="10"/>
       <c r="H76" s="6" t="s">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="I76" s="3"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="8" t="s">
-        <v>178</v>
+      <c r="A77" s="6" t="s">
+        <v>242</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>221</v>
+        <v>386</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D77" s="10"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="6" t="s">
-        <v>228</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D77" s="10">
+        <v>0</v>
+      </c>
+      <c r="E77" s="10">
+        <v>5</v>
+      </c>
+      <c r="F77" s="10"/>
       <c r="H77" s="6" t="s">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="I77" s="3"/>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="8" t="s">
-        <v>179</v>
+      <c r="A78" s="6" t="s">
+        <v>243</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>222</v>
+        <v>387</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="6" t="s">
-        <v>228</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D78" s="10">
+        <v>0</v>
+      </c>
+      <c r="E78" s="10">
+        <v>5</v>
+      </c>
+      <c r="F78" s="10"/>
       <c r="H78" s="6" t="s">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="I78" s="3"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="8" t="s">
-        <v>180</v>
+      <c r="A79" s="6" t="s">
+        <v>244</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>223</v>
+        <v>388</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D79" s="10"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="6" t="s">
-        <v>228</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D79" s="10">
+        <v>0</v>
+      </c>
+      <c r="E79" s="10">
+        <v>5</v>
+      </c>
+      <c r="F79" s="10"/>
       <c r="H79" s="6" t="s">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="I79" s="3"/>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="8" t="s">
-        <v>181</v>
+      <c r="A80" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>224</v>
+        <v>389</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D80" s="10"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="6" t="s">
-        <v>228</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D80" s="10">
+        <v>0</v>
+      </c>
+      <c r="E80" s="10">
+        <v>5</v>
+      </c>
+      <c r="F80" s="10"/>
       <c r="H80" s="6" t="s">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="I80" s="3"/>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="8" t="s">
-        <v>182</v>
+      <c r="A81" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>225</v>
+        <v>390</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="6" t="s">
-        <v>228</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D81" s="10">
+        <v>0</v>
+      </c>
+      <c r="E81" s="10">
+        <v>5</v>
+      </c>
+      <c r="F81" s="10"/>
       <c r="H81" s="6" t="s">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="I81" s="3"/>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="8" t="s">
-        <v>183</v>
+      <c r="A82" s="6" t="s">
+        <v>247</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>226</v>
+        <v>376</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D82" s="10"/>
       <c r="E82" s="10"/>
-      <c r="F82" s="6" t="s">
-        <v>228</v>
+      <c r="F82" s="10" t="s">
+        <v>431</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="I82" s="3"/>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="8" t="s">
-        <v>184</v>
+      <c r="A83" s="6" t="s">
+        <v>248</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>227</v>
+        <v>377</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D83" s="10"/>
       <c r="E83" s="10"/>
-      <c r="F83" s="6" t="s">
+      <c r="F83" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I83" s="3"/>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I84" s="3"/>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I85" s="3"/>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I86" s="3"/>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I87" s="3"/>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I88" s="3"/>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I89" s="3"/>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="H90" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I90" s="3"/>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I91" s="3"/>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="H92" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I92" s="3"/>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I93" s="3"/>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="H94" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I94" s="3"/>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I95" s="3"/>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96" s="10"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="H96" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I96" s="3"/>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="H97" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I97" s="3"/>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="H98" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I98" s="3"/>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="H99" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I99" s="3"/>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="H100" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I100" s="3"/>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="H101" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I101" s="3"/>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102" s="10"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="H102" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I102" s="3"/>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="H103" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I103" s="3"/>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104" s="10"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="H83" s="6" t="s">
+      <c r="H104" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I104" s="3"/>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D105" s="10"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="H105" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I105" s="3"/>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D106" s="10"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="H106" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I106" s="3"/>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D107" s="10">
+        <v>0</v>
+      </c>
+      <c r="E107" s="10">
+        <v>3</v>
+      </c>
+      <c r="F107" s="10"/>
+      <c r="H107" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I107" s="3"/>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D108" s="10">
+        <v>0</v>
+      </c>
+      <c r="E108" s="10">
+        <v>3</v>
+      </c>
+      <c r="F108" s="10"/>
+      <c r="H108" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I108" s="3"/>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D109" s="10">
+        <v>0</v>
+      </c>
+      <c r="E109" s="10">
+        <v>3</v>
+      </c>
+      <c r="F109" s="10"/>
+      <c r="H109" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I109" s="3"/>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D110" s="10">
+        <v>0</v>
+      </c>
+      <c r="E110" s="10">
+        <v>3</v>
+      </c>
+      <c r="F110" s="10"/>
+      <c r="H110" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I110" s="3"/>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D111" s="10">
+        <v>0</v>
+      </c>
+      <c r="E111" s="10">
+        <v>3</v>
+      </c>
+      <c r="F111" s="10"/>
+      <c r="H111" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I111" s="3"/>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D112" s="10"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="H112" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I112" s="3"/>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D113" s="10"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="H113" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I113" s="3"/>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D114" s="10"/>
+      <c r="E114" s="10"/>
+      <c r="F114" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="H114" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I114" s="3"/>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D115" s="10"/>
+      <c r="E115" s="10"/>
+      <c r="F115" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="H115" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I115" s="3"/>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D116" s="10"/>
+      <c r="E116" s="10"/>
+      <c r="F116" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="H116" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I116" s="3"/>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D117" s="10"/>
+      <c r="E117" s="10"/>
+      <c r="F117" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="H117" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I117" s="3"/>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118" s="10"/>
+      <c r="E118" s="10"/>
+      <c r="F118" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="H118" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I118" s="3"/>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D119" s="10"/>
+      <c r="E119" s="10"/>
+      <c r="F119" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="H119" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I119" s="3"/>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D120" s="10"/>
+      <c r="E120" s="10"/>
+      <c r="F120" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="H120" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I120" s="3"/>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D121" s="10"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="H121" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I121" s="3"/>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D122" s="10"/>
+      <c r="E122" s="10"/>
+      <c r="F122" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="H122" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I122" s="3"/>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D123" s="10"/>
+      <c r="E123" s="10"/>
+      <c r="F123" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="H123" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I123" s="3"/>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D124" s="10"/>
+      <c r="E124" s="10"/>
+      <c r="F124" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="H124" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I124" s="3"/>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D125" s="10"/>
+      <c r="E125" s="10"/>
+      <c r="F125" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="H125" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I125" s="3"/>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D126" s="10"/>
+      <c r="E126" s="10"/>
+      <c r="F126" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="H126" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I126" s="3"/>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D127" s="10"/>
+      <c r="E127" s="10"/>
+      <c r="F127" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="H127" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="I83" s="3"/>
-    </row>
-    <row r="84" spans="1:9">
-      <c r="A84" s="8" t="s">
+      <c r="I127" s="3"/>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D128" s="12">
+        <v>39814</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F128" s="10"/>
+      <c r="H128" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="I128" s="3"/>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D129" s="12">
+        <v>39814</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F129" s="10"/>
+      <c r="H129" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="I129" s="3"/>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D130" s="12">
+        <v>39814</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F130" s="10"/>
+      <c r="H130" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="I130" s="3"/>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D131" s="12">
+        <v>39814</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F131" s="10"/>
+      <c r="H131" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="I131" s="3"/>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D132" s="12">
+        <v>39814</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F132" s="10"/>
+      <c r="H132" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="I132" s="3"/>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D133" s="12">
+        <v>39814</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F133" s="10"/>
+      <c r="H133" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="I133" s="3"/>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D134" s="10"/>
+      <c r="E134" s="10"/>
+      <c r="F134" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H134" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="I134" s="3"/>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D135" s="10"/>
+      <c r="E135" s="10"/>
+      <c r="F135" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H135" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="I135" s="3"/>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D136" s="10"/>
+      <c r="E136" s="10"/>
+      <c r="F136" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H136" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="I136" s="3"/>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D137" s="10"/>
+      <c r="E137" s="10"/>
+      <c r="F137" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H137" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="I137" s="3"/>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D138" s="10"/>
+      <c r="E138" s="10"/>
+      <c r="F138" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H138" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="I138" s="3"/>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D139" s="10"/>
+      <c r="E139" s="10"/>
+      <c r="F139" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H139" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="I139" s="3"/>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D140" s="10"/>
+      <c r="E140" s="10"/>
+      <c r="F140" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H140" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="I140" s="3"/>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D141" s="10"/>
+      <c r="E141" s="10"/>
+      <c r="F141" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H141" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="I141" s="3"/>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D142" s="10"/>
+      <c r="E142" s="10"/>
+      <c r="F142" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H142" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="I142" s="3"/>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D143" s="10"/>
+      <c r="E143" s="10"/>
+      <c r="F143" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H143" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="I143" s="3"/>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D144" s="10"/>
+      <c r="E144" s="10"/>
+      <c r="F144" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H144" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="I144" s="3"/>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D145" s="10"/>
+      <c r="E145" s="10"/>
+      <c r="F145" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="I145" s="3"/>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D146" s="10"/>
+      <c r="E146" s="10"/>
+      <c r="F146" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H146" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="I146" s="3"/>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D147" s="10"/>
+      <c r="E147" s="10"/>
+      <c r="F147" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H147" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="I147" s="3"/>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D148" s="10"/>
+      <c r="E148" s="10"/>
+      <c r="F148" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H148" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="I148" s="3"/>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D149" s="10"/>
+      <c r="E149" s="10"/>
+      <c r="F149" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H149" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="I149" s="3"/>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D150" s="10"/>
+      <c r="E150" s="10"/>
+      <c r="F150" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H150" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="I150" s="3"/>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D151" s="10"/>
+      <c r="E151" s="10"/>
+      <c r="F151" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H151" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="I151" s="3"/>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D152" s="10"/>
+      <c r="E152" s="10"/>
+      <c r="F152" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H152" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="I152" s="3"/>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D153" s="10"/>
+      <c r="E153" s="10"/>
+      <c r="F153" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H153" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="I153" s="3"/>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D154" s="10"/>
+      <c r="E154" s="10"/>
+      <c r="F154" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H154" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="I154" s="3"/>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D155" s="10"/>
+      <c r="E155" s="10"/>
+      <c r="F155" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H155" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="I155" s="3"/>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D156" s="10"/>
+      <c r="E156" s="10"/>
+      <c r="F156" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H156" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="I156" s="3"/>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D157" s="10"/>
+      <c r="E157" s="10"/>
+      <c r="F157" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H157" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="I157" s="3"/>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D158" s="12">
+        <v>40179</v>
+      </c>
+      <c r="E158" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H158" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="I158" s="3"/>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D159" s="12"/>
+      <c r="E159" s="10"/>
+      <c r="F159" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="H159" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="I159" s="3"/>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D160" s="12"/>
+      <c r="E160" s="10"/>
+      <c r="H160" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="I160" s="3"/>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D161" s="10"/>
+      <c r="E161" s="10"/>
+      <c r="F161" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H161" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="I161" s="3"/>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D162" s="10"/>
+      <c r="E162" s="10"/>
+      <c r="F162" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H162" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D163" s="10"/>
+      <c r="E163" s="10"/>
+      <c r="F163" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H163" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="I163" s="3"/>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D164" s="10"/>
+      <c r="E164" s="10"/>
+      <c r="F164" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H164" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="I164" s="3"/>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D165" s="10"/>
+      <c r="E165" s="10"/>
+      <c r="F165" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H165" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="I165" s="3"/>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D166" s="10"/>
+      <c r="E166" s="10"/>
+      <c r="F166" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H166" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="I166" s="3"/>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D167" s="10"/>
+      <c r="E167" s="10"/>
+      <c r="F167" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H167" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="I167" s="3"/>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D168" s="10"/>
+      <c r="E168" s="10"/>
+      <c r="F168" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H168" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="I168" s="3"/>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D169" s="10"/>
+      <c r="E169" s="10"/>
+      <c r="F169" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H169" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="I169" s="3"/>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="A170" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D170" s="10"/>
+      <c r="E170" s="10"/>
+      <c r="F170" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H170" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="I170" s="3"/>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="A171" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D171" s="10"/>
+      <c r="E171" s="10"/>
+      <c r="F171" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H171" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="I171" s="3"/>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="A172" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D172" s="10"/>
+      <c r="E172" s="10"/>
+      <c r="F172" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H172" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="I172" s="3"/>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="A173" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D173" s="10"/>
+      <c r="E173" s="10"/>
+      <c r="F173" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H173" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="I173" s="3"/>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="A174" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="B174" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D174" s="10"/>
+      <c r="E174" s="10"/>
+      <c r="F174" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H174" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="I174" s="3"/>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D175" s="10"/>
+      <c r="E175" s="10"/>
+      <c r="F175" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H175" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="I175" s="3"/>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="A176" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D176" s="10"/>
+      <c r="E176" s="10"/>
+      <c r="F176" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H176" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="I176" s="3"/>
+    </row>
+    <row r="177" spans="1:9">
+      <c r="A177" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D177" s="10"/>
+      <c r="E177" s="10"/>
+      <c r="F177" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H177" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="I177" s="3"/>
+    </row>
+    <row r="178" spans="1:9">
+      <c r="A178" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D178" s="10"/>
+      <c r="E178" s="10"/>
+      <c r="F178" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H178" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="I178" s="3"/>
+    </row>
+    <row r="179" spans="1:9">
+      <c r="A179" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D179" s="10"/>
+      <c r="E179" s="10"/>
+      <c r="F179" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H179" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="I179" s="3"/>
+    </row>
+    <row r="180" spans="1:9">
+      <c r="A180" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="B180" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D180" s="10"/>
+      <c r="E180" s="10"/>
+      <c r="F180" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H180" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="I180" s="3"/>
+    </row>
+    <row r="181" spans="1:9">
+      <c r="A181" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D181" s="10"/>
+      <c r="E181" s="10"/>
+      <c r="F181" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H181" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="I181" s="3"/>
+    </row>
+    <row r="182" spans="1:9">
+      <c r="A182" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="B182" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D182" s="10"/>
+      <c r="E182" s="10"/>
+      <c r="F182" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H182" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="I182" s="3"/>
+    </row>
+    <row r="183" spans="1:9">
+      <c r="A183" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D183" s="10"/>
+      <c r="E183" s="10"/>
+      <c r="F183" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H183" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="I183" s="3"/>
+    </row>
+    <row r="184" spans="1:9">
+      <c r="A184" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D184" s="10"/>
+      <c r="E184" s="10"/>
+      <c r="F184" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H184" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="I184" s="3"/>
+    </row>
+    <row r="185" spans="1:9">
+      <c r="A185" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D185" s="10"/>
+      <c r="E185" s="10"/>
+      <c r="F185" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H185" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="I185" s="3"/>
+    </row>
+    <row r="186" spans="1:9">
+      <c r="A186" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="B186" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D186" s="10">
+        <v>0</v>
+      </c>
+      <c r="E186" s="10">
+        <v>100</v>
+      </c>
+      <c r="H186" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="I186" s="3"/>
+    </row>
+    <row r="187" spans="1:9">
+      <c r="A187" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B187" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C84" s="6" t="s">
+      <c r="C187" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D84" s="11">
+      <c r="D187" s="11">
         <v>32874</v>
       </c>
-      <c r="E84" s="6" t="s">
+      <c r="E187" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H84" s="6" t="s">
+      <c r="H187" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
-      <c r="A85" s="8" t="s">
+    <row r="188" spans="1:9">
+      <c r="A188" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B188" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C85" s="6" t="s">
+      <c r="C188" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D85" s="6">
+      <c r="D188" s="6">
         <v>0</v>
       </c>
-      <c r="E85" s="6">
+      <c r="E188" s="6">
         <v>4</v>
       </c>
-      <c r="H85" s="6" t="s">
+      <c r="H188" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
-      <c r="A86" s="8" t="s">
+    <row r="189" spans="1:9">
+      <c r="A189" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B189" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C86" s="6" t="s">
+      <c r="C189" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D86" s="6">
+      <c r="D189" s="6">
         <v>0</v>
       </c>
-      <c r="E86" s="6">
+      <c r="E189" s="6">
         <v>4</v>
       </c>
-      <c r="H86" s="6" t="s">
+      <c r="H189" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
-      <c r="A87" s="8" t="s">
+    <row r="190" spans="1:9">
+      <c r="A190" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B190" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C87" s="6" t="s">
+      <c r="C190" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D87" s="6">
+      <c r="D190" s="6">
         <v>0</v>
       </c>
-      <c r="E87" s="6">
+      <c r="E190" s="6">
         <v>4</v>
       </c>
-      <c r="H87" s="6" t="s">
+      <c r="H190" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
-      <c r="A88" s="8" t="s">
+    <row r="191" spans="1:9">
+      <c r="A191" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B191" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C88" s="6" t="s">
+      <c r="C191" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D88" s="6">
+      <c r="D191" s="6">
         <v>0</v>
       </c>
-      <c r="E88" s="6">
+      <c r="E191" s="6">
         <v>4</v>
       </c>
-      <c r="H88" s="6" t="s">
+      <c r="H191" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
-      <c r="A89" s="8" t="s">
+    <row r="192" spans="1:9">
+      <c r="A192" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B192" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C89" s="6" t="s">
+      <c r="C192" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D89" s="6">
+      <c r="D192" s="6">
         <v>0</v>
       </c>
-      <c r="E89" s="6">
+      <c r="E192" s="6">
         <v>4</v>
       </c>
-      <c r="H89" s="6" t="s">
+      <c r="H192" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
-      <c r="A90" s="8" t="s">
+    <row r="193" spans="1:8">
+      <c r="A193" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B193" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C90" s="6" t="s">
+      <c r="C193" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D90" s="6">
+      <c r="D193" s="6">
         <v>0</v>
       </c>
-      <c r="E90" s="6">
+      <c r="E193" s="6">
         <v>4</v>
       </c>
-      <c r="H90" s="6" t="s">
+      <c r="H193" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
-      <c r="A91" s="8" t="s">
+    <row r="194" spans="1:8">
+      <c r="A194" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B194" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C91" s="6" t="s">
+      <c r="C194" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D91" s="6">
+      <c r="D194" s="6">
         <v>0</v>
       </c>
-      <c r="E91" s="6">
+      <c r="E194" s="6">
         <v>4</v>
       </c>
-      <c r="H91" s="6" t="s">
+      <c r="H194" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
-      <c r="A92" s="8" t="s">
+    <row r="195" spans="1:8">
+      <c r="A195" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B195" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C92" s="6" t="s">
+      <c r="C195" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D92" s="6">
+      <c r="D195" s="6">
         <v>0</v>
       </c>
-      <c r="E92" s="6">
+      <c r="E195" s="6">
         <v>4</v>
       </c>
-      <c r="H92" s="6" t="s">
+      <c r="H195" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
-      <c r="A93" s="8" t="s">
+    <row r="196" spans="1:8">
+      <c r="A196" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B196" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C93" s="6" t="s">
+      <c r="C196" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="6">
+      <c r="D196" s="6">
         <v>0</v>
       </c>
-      <c r="E93" s="6">
+      <c r="E196" s="6">
         <v>4</v>
       </c>
-      <c r="H93" s="6" t="s">
+      <c r="H196" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
-      <c r="A94" s="8" t="s">
+    <row r="197" spans="1:8">
+      <c r="A197" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B197" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C94" s="6" t="s">
+      <c r="C197" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D94" s="6">
+      <c r="D197" s="6">
         <v>0</v>
       </c>
-      <c r="E94" s="6">
+      <c r="E197" s="6">
         <v>4</v>
       </c>
-      <c r="H94" s="6" t="s">
+      <c r="H197" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
-      <c r="A95" s="8" t="s">
+    <row r="198" spans="1:8">
+      <c r="A198" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B198" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C95" s="6" t="s">
+      <c r="C198" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D95" s="6">
+      <c r="D198" s="6">
         <v>0</v>
       </c>
-      <c r="E95" s="6">
+      <c r="E198" s="6">
         <v>4</v>
       </c>
-      <c r="H95" s="6" t="s">
+      <c r="H198" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
-      <c r="A96" s="8" t="s">
+    <row r="199" spans="1:8">
+      <c r="A199" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B199" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C96" s="6" t="s">
+      <c r="C199" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D96" s="6">
+      <c r="D199" s="6">
         <v>0</v>
       </c>
-      <c r="E96" s="6">
+      <c r="E199" s="6">
         <v>4</v>
       </c>
-      <c r="H96" s="6" t="s">
+      <c r="H199" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
-      <c r="A97" s="8" t="s">
+    <row r="200" spans="1:8">
+      <c r="A200" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B200" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C97" s="6" t="s">
+      <c r="C200" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D97" s="6">
+      <c r="D200" s="6">
         <v>0</v>
       </c>
-      <c r="E97" s="6">
+      <c r="E200" s="6">
         <v>4</v>
       </c>
-      <c r="H97" s="6" t="s">
+      <c r="H200" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
-      <c r="A98" s="9" t="s">
+    <row r="201" spans="1:8">
+      <c r="A201" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B201" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C98" s="6" t="s">
+      <c r="C201" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D98" s="11">
+      <c r="D201" s="11">
         <v>29221</v>
       </c>
-      <c r="E98" s="6" t="s">
+      <c r="E201" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H98" s="6" t="s">
+      <c r="H201" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
-      <c r="A99" s="8" t="s">
+    <row r="202" spans="1:8">
+      <c r="A202" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B202" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C99" s="6" t="s">
+      <c r="C202" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D99" s="6">
+      <c r="D202" s="6">
         <v>20</v>
       </c>
-      <c r="E99" s="6">
+      <c r="E202" s="6">
         <v>200</v>
       </c>
-      <c r="H99" s="6" t="s">
+      <c r="H202" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
-      <c r="A100" s="8" t="s">
+    <row r="203" spans="1:8">
+      <c r="A203" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="B203" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D203" s="12">
+        <v>40179</v>
+      </c>
+      <c r="E203" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H203" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
+      <c r="A204" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="B204" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D204" s="12"/>
+      <c r="E204" s="10"/>
+      <c r="F204" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="H204" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="A205" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="B205" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H205" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="A206" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="B206" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D206" s="10"/>
+      <c r="E206" s="10"/>
+      <c r="F206" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H206" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
+      <c r="A207" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="B207" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D207" s="10"/>
+      <c r="E207" s="10"/>
+      <c r="F207" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H207" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
+      <c r="A208" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="B208" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D208" s="10"/>
+      <c r="E208" s="10"/>
+      <c r="F208" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H208" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
+      <c r="A209" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="B209" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D209" s="10"/>
+      <c r="E209" s="10"/>
+      <c r="F209" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H209" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="B210" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="C210" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D210" s="10"/>
+      <c r="E210" s="10"/>
+      <c r="F210" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H210" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="A211" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="B211" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="C211" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D211" s="10"/>
+      <c r="E211" s="10"/>
+      <c r="F211" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H211" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
+      <c r="A212" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="B212" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D212" s="10"/>
+      <c r="E212" s="10"/>
+      <c r="F212" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H212" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
+      <c r="A213" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="B213" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="C213" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D213" s="10"/>
+      <c r="E213" s="10"/>
+      <c r="F213" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H213" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
+      <c r="A214" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="B214" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="C214" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D214" s="10"/>
+      <c r="E214" s="10"/>
+      <c r="F214" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H214" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
+      <c r="A215" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="B215" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="C215" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D215" s="10"/>
+      <c r="E215" s="10"/>
+      <c r="F215" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H215" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
+      <c r="A216" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="B216" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="C216" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D216" s="10"/>
+      <c r="E216" s="10"/>
+      <c r="F216" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H216" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
+      <c r="A217" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="B217" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="C217" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D217" s="10"/>
+      <c r="E217" s="10"/>
+      <c r="F217" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H217" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
+      <c r="A218" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="B218" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="C218" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D218" s="10"/>
+      <c r="E218" s="10"/>
+      <c r="F218" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H218" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
+      <c r="A219" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="B219" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="C219" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D219" s="10"/>
+      <c r="E219" s="10"/>
+      <c r="F219" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H219" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
+      <c r="A220" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="B220" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="C220" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D220" s="10"/>
+      <c r="E220" s="10"/>
+      <c r="F220" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H220" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
+      <c r="A221" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="B221" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="C221" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D221" s="10"/>
+      <c r="E221" s="10"/>
+      <c r="F221" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H221" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
+      <c r="A222" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="B222" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="C222" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D222" s="10"/>
+      <c r="E222" s="10"/>
+      <c r="F222" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H222" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="A223" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="B223" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="C223" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D223" s="10"/>
+      <c r="E223" s="10"/>
+      <c r="F223" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H223" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
+      <c r="A224" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="B224" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="C224" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D224" s="10"/>
+      <c r="E224" s="10"/>
+      <c r="F224" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H224" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
+      <c r="A225" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="B225" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="C225" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D225" s="10"/>
+      <c r="E225" s="10"/>
+      <c r="F225" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H225" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
+      <c r="A226" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="B226" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="C226" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D226" s="10"/>
+      <c r="E226" s="10"/>
+      <c r="F226" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H226" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
+      <c r="A227" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="B227" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="C227" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D227" s="10"/>
+      <c r="E227" s="10"/>
+      <c r="F227" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H227" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
+      <c r="A228" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="B228" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="C228" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D228" s="10"/>
+      <c r="E228" s="10"/>
+      <c r="F228" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H228" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
+      <c r="A229" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="B229" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="C229" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D229" s="10"/>
+      <c r="E229" s="10"/>
+      <c r="F229" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H229" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
+      <c r="A230" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="B230" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="C230" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D230" s="10"/>
+      <c r="E230" s="10"/>
+      <c r="F230" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H230" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
+      <c r="A231" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="B231" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="C231" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D231" s="10">
+        <v>0</v>
+      </c>
+      <c r="E231" s="10">
+        <v>100</v>
+      </c>
+      <c r="H231" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
+      <c r="A232" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="C232" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D232" s="11">
+        <v>18264</v>
+      </c>
+      <c r="E232" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H232" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
+      <c r="A233" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="C233" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F233" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="H233" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
+      <c r="A234" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B234" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C100" s="6" t="s">
+      <c r="C234" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D100" s="13" t="s">
+      <c r="D234" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E100" s="13" t="s">
+      <c r="E234" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F100" s="13" t="s">
+      <c r="F234" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G100" s="13" t="s">
+      <c r="G234" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H100" s="13" t="s">
+      <c r="H234" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="I100" s="13"/>
+      <c r="I234" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3603,14 +7162,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="2"/>
@@ -3754,6 +7313,34 @@
         <v>1</v>
       </c>
       <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="B11">
+        <v>-1</v>
+      </c>
+      <c r="C11">
+        <v>-1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="B12">
+        <v>-1</v>
+      </c>
+      <c r="C12">
+        <v>-1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/Format_v1.xlsx
+++ b/Data/Format_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/htan4/Documents/Rprojects/ResearchR/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{49EEF06C-E592-F049-BEC4-C49FD32C3876}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{DDA21A61-B7F2-9743-800F-FFDA9480F9A4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25020" windowHeight="15940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="25020" windowHeight="15940" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2397,8 +2397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
-      <selection activeCell="K202" sqref="K202"/>
+    <sheetView topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="J231" sqref="J203:J231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7165,8 +7165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7337,9 +7337,6 @@
       </c>
       <c r="C12">
         <v>-1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Format_v1.xlsx
+++ b/Data/Format_v1.xlsx
@@ -1,19 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10311"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/htan4/Documents/Rprojects/ResearchR/Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{DDA21A61-B7F2-9743-800F-FFDA9480F9A4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28600" windowHeight="15940" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="25020" windowHeight="15940" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$162</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,12 +29,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Henk-Jan Westeneng</author>
+    <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -55,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -80,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -113,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -146,17 +153,51 @@
         </r>
       </text>
     </comment>
+    <comment ref="F206" authorId="1" shapeId="0" xr:uid="{FA5AA0BF-7587-7B45-A4D4-1AC8BB4BD553}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Harold Tan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Score van 2 is niet mogelijk, hierdoor als factor ingevoerd. Omzetten naar numeric bij herberekenen totaalscores.
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Henk-Jan Westeneng</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -181,7 +222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0">
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -205,7 +246,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="0">
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -234,7 +275,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="513">
   <si>
     <t>Original</t>
   </si>
@@ -927,13 +968,859 @@
   </si>
   <si>
     <t>DoMRI</t>
+  </si>
+  <si>
+    <t>NL - Patient/Control</t>
+  </si>
+  <si>
+    <t>ALS plus</t>
+  </si>
+  <si>
+    <t>ALS plus anders</t>
+  </si>
+  <si>
+    <t>Spinal onset</t>
+  </si>
+  <si>
+    <t>Side spinal onset</t>
+  </si>
+  <si>
+    <t>Handedness</t>
+  </si>
+  <si>
+    <t>Total_behaviour</t>
+  </si>
+  <si>
+    <t>FU2: Total_behaviour</t>
+  </si>
+  <si>
+    <t>FU3: Total_behaviour</t>
+  </si>
+  <si>
+    <t>FU4: Total_behaviour</t>
+  </si>
+  <si>
+    <t>FU5: Total_behaviour</t>
+  </si>
+  <si>
+    <t>Symptoms</t>
+  </si>
+  <si>
+    <t>FU2: Symptoms</t>
+  </si>
+  <si>
+    <t>FU3: Symptoms</t>
+  </si>
+  <si>
+    <t>FU4: Symptoms</t>
+  </si>
+  <si>
+    <t>FU5: Symptoms</t>
+  </si>
+  <si>
+    <t>Behaviour_disinhibition</t>
+  </si>
+  <si>
+    <t>FU2: Behaviour_disinhibition</t>
+  </si>
+  <si>
+    <t>FU3: Behaviour_disinhibition</t>
+  </si>
+  <si>
+    <t>FU4: Behaviour_disinhibition</t>
+  </si>
+  <si>
+    <t>FU5: Behaviour_disinhibition</t>
+  </si>
+  <si>
+    <t>Apathy_interia</t>
+  </si>
+  <si>
+    <t>FU2: Apathy_inertia</t>
+  </si>
+  <si>
+    <t>FU3: Apathy_inertia</t>
+  </si>
+  <si>
+    <t>FU4: Apathy_inertia</t>
+  </si>
+  <si>
+    <t>FU5: Apathy_inertia</t>
+  </si>
+  <si>
+    <t>Loss_of_sympathy</t>
+  </si>
+  <si>
+    <t>FU2: Loss_of_sympathy</t>
+  </si>
+  <si>
+    <t>FU3: Loss_of_sympathy</t>
+  </si>
+  <si>
+    <t>FU4: Loss_of_sympathy</t>
+  </si>
+  <si>
+    <t>FU5: Loss_of_sympathy</t>
+  </si>
+  <si>
+    <t>Perseverative_stereotyped</t>
+  </si>
+  <si>
+    <t>FU2: Perseverative_stereotyped</t>
+  </si>
+  <si>
+    <t>FU3: Perseverative_stereotyped</t>
+  </si>
+  <si>
+    <t>FU4: Perseverative_stereotyped</t>
+  </si>
+  <si>
+    <t>FU5: Perseverative_stereotyped</t>
+  </si>
+  <si>
+    <t>Hyperorality_altered_food</t>
+  </si>
+  <si>
+    <t>FU2: Hyperorality_altered_food</t>
+  </si>
+  <si>
+    <t>FU3: Hyperorality_altered_food</t>
+  </si>
+  <si>
+    <t>FU4: Hyperorality_altered_food</t>
+  </si>
+  <si>
+    <t>FU5: Hyperorality_altered_food</t>
+  </si>
+  <si>
+    <t>Psychosis</t>
+  </si>
+  <si>
+    <t>FU2: Psychosis</t>
+  </si>
+  <si>
+    <t>FU3: Psychosis</t>
+  </si>
+  <si>
+    <t>FU4: Psychosis</t>
+  </si>
+  <si>
+    <t>FU5: Psychosis</t>
+  </si>
+  <si>
+    <t>Psychosis_beliefs_behaviours</t>
+  </si>
+  <si>
+    <t>FU2: Psychosis_beliefs_behaviours</t>
+  </si>
+  <si>
+    <t>FU3: Psychosis_beliefs_behaviours</t>
+  </si>
+  <si>
+    <t>FU4: Psychosis_beliefs_behaviours</t>
+  </si>
+  <si>
+    <t>FU5: Psychosis_beliefs_behaviours</t>
+  </si>
+  <si>
+    <t>Psychosis_presence</t>
+  </si>
+  <si>
+    <t>FU2: Psychosis_presence</t>
+  </si>
+  <si>
+    <t>FU3: Psychosis_presence</t>
+  </si>
+  <si>
+    <t>FU4: Psychosis_presence</t>
+  </si>
+  <si>
+    <t>FU5: Psychosis_presence</t>
+  </si>
+  <si>
+    <t>Psychosis_suspicious</t>
+  </si>
+  <si>
+    <t>FU2: Psychosis_suspicious</t>
+  </si>
+  <si>
+    <t>FU3: Psychosis_suspicious</t>
+  </si>
+  <si>
+    <t>FU4: Psychosis_suspicious</t>
+  </si>
+  <si>
+    <t>FU5: Psychosis_suspicious</t>
+  </si>
+  <si>
+    <t>Deelname MRI 3T</t>
+  </si>
+  <si>
+    <t>FollowUp1_fMRI</t>
+  </si>
+  <si>
+    <t>FollowUp2_fMRI</t>
+  </si>
+  <si>
+    <t>FollowUp3_fMRI</t>
+  </si>
+  <si>
+    <t>FollowUp4_fMRI</t>
+  </si>
+  <si>
+    <t>FollowUp5_fMRI</t>
+  </si>
+  <si>
+    <t>FollowUp6_fMRI</t>
+  </si>
+  <si>
+    <t>FollowUp1_MTR</t>
+  </si>
+  <si>
+    <t>FollowUp2_MTR</t>
+  </si>
+  <si>
+    <t>FollowUp3_MTR</t>
+  </si>
+  <si>
+    <t>FollowUp4_MTR</t>
+  </si>
+  <si>
+    <t>FollowUp5_MTR</t>
+  </si>
+  <si>
+    <t>FollowUp6_MTR</t>
+  </si>
+  <si>
+    <t>Datum van invullen ALS-FTD-Q</t>
+  </si>
+  <si>
+    <t>Ingevuld door</t>
+  </si>
+  <si>
+    <t>Ingevuld door Anders nl:</t>
+  </si>
+  <si>
+    <t>1. minder geinteresseerd</t>
+  </si>
+  <si>
+    <t>2. Persoonlijke hygiene</t>
+  </si>
+  <si>
+    <t>3. denkt aan zichzelf</t>
+  </si>
+  <si>
+    <t>4. sneller geirriteerd</t>
+  </si>
+  <si>
+    <t>5. minder concentreren</t>
+  </si>
+  <si>
+    <t>6. onrustiger</t>
+  </si>
+  <si>
+    <t>7. teruggetrokken</t>
+  </si>
+  <si>
+    <t>8. zonder doel</t>
+  </si>
+  <si>
+    <t>9. minder goed geheugen</t>
+  </si>
+  <si>
+    <t>10. contact met vreemden</t>
+  </si>
+  <si>
+    <t>11. verhoogde behoefte aan sex</t>
+  </si>
+  <si>
+    <t>12. emotioneel minder stabiel</t>
+  </si>
+  <si>
+    <t>13. vaker erg vrolijk</t>
+  </si>
+  <si>
+    <t>14. achterdochtig</t>
+  </si>
+  <si>
+    <t>15. herhaalt handelingen of zinnen</t>
+  </si>
+  <si>
+    <t>16. schaamteloos</t>
+  </si>
+  <si>
+    <t>17. weet waar hij zich bevindt</t>
+  </si>
+  <si>
+    <t>18. kwetsend gedrag</t>
+  </si>
+  <si>
+    <t>19. situaties goed beoordelen</t>
+  </si>
+  <si>
+    <t>20. eten verzamelen</t>
+  </si>
+  <si>
+    <t>21. begrijpt ziekte</t>
+  </si>
+  <si>
+    <t>22. ziet/hoort dingen die er niet zijn</t>
+  </si>
+  <si>
+    <t>23. kinderlijk gedrag</t>
+  </si>
+  <si>
+    <t>24. weet dagdeel</t>
+  </si>
+  <si>
+    <t>25. doet anderen na</t>
+  </si>
+  <si>
+    <t>Totaal score ALS-FTD-Q</t>
+  </si>
+  <si>
+    <t>Tbl ALS-FTD-Q.Datum van invullen ALS-FTD-Q</t>
+  </si>
+  <si>
+    <t>Tbl ALS-FTD-Q.Ingevuld door</t>
+  </si>
+  <si>
+    <t>Tbl ALS-FTD-Q.Ingevuld door Anders nl:</t>
+  </si>
+  <si>
+    <t>Tbl ALS-FTD-Q.1. minder geinteresseerd</t>
+  </si>
+  <si>
+    <t>Tbl ALS-FTD-Q.2. Persoonlijke hygiene</t>
+  </si>
+  <si>
+    <t>Tbl ALS-FTD-Q.3. denkt aan zichzelf</t>
+  </si>
+  <si>
+    <t>Tbl ALS-FTD-Q.4. sneller geirriteerd</t>
+  </si>
+  <si>
+    <t>Tbl ALS-FTD-Q.5. minder concentreren</t>
+  </si>
+  <si>
+    <t>Tbl ALS-FTD-Q.6. onrustiger</t>
+  </si>
+  <si>
+    <t>Tbl ALS-FTD-Q.7. teruggetrokken</t>
+  </si>
+  <si>
+    <t>Tbl ALS-FTD-Q.8. zonder doel</t>
+  </si>
+  <si>
+    <t>Tbl ALS-FTD-Q.9. minder goed geheugen</t>
+  </si>
+  <si>
+    <t>Tbl ALS-FTD-Q.10. contact met vreemden</t>
+  </si>
+  <si>
+    <t>Tbl ALS-FTD-Q.11. verhoogde behoefte aan sex</t>
+  </si>
+  <si>
+    <t>Tbl ALS-FTD-Q.12. emotioneel minder stabiel</t>
+  </si>
+  <si>
+    <t>Tbl ALS-FTD-Q.13. vaker erg vrolijk</t>
+  </si>
+  <si>
+    <t>Tbl ALS-FTD-Q.14. achterdochtig</t>
+  </si>
+  <si>
+    <t>Tbl ALS-FTD-Q.15. herhaalt handelingen of zinnen</t>
+  </si>
+  <si>
+    <t>Tbl ALS-FTD-Q.16. schaamteloos</t>
+  </si>
+  <si>
+    <t>Tbl ALS-FTD-Q.17. weet waar hij zich bevindt</t>
+  </si>
+  <si>
+    <t>Tbl ALS-FTD-Q.18. kwetsend gedrag</t>
+  </si>
+  <si>
+    <t>Tbl ALS-FTD-Q.19. situaties goed beoordelen</t>
+  </si>
+  <si>
+    <t>Tbl ALS-FTD-Q.20. eten verzamelen</t>
+  </si>
+  <si>
+    <t>Tbl ALS-FTD-Q.21. begrijpt ziekte</t>
+  </si>
+  <si>
+    <t>Tbl ALS-FTD-Q.22. ziet/hoort dingen die er niet zijn</t>
+  </si>
+  <si>
+    <t>Tbl ALS-FTD-Q.23. kinderlijk gedrag</t>
+  </si>
+  <si>
+    <t>Tbl ALS-FTD-Q.24. weet dagdeel</t>
+  </si>
+  <si>
+    <t>Tbl ALS-FTD-Q.25. doet anderen na</t>
+  </si>
+  <si>
+    <t>Tbl ALS-FTD-Q.Totaal score ALS-FTD-Q</t>
+  </si>
+  <si>
+    <t>Table El Escorial.Date El Escorial</t>
+  </si>
+  <si>
+    <t>Table El Escorial.El Escorial category</t>
+  </si>
+  <si>
+    <t>Patient|Controle</t>
+  </si>
+  <si>
+    <t>SubType</t>
+  </si>
+  <si>
+    <t>ALSplus</t>
+  </si>
+  <si>
+    <t>ALSplus_ad</t>
+  </si>
+  <si>
+    <t>Geen|FTD|Extra pyramidaal|Anders|Niet beschreven in de brief</t>
+  </si>
+  <si>
+    <t>OnsetSide</t>
+  </si>
+  <si>
+    <t>OnsetLimbs</t>
+  </si>
+  <si>
+    <t>Arms|Legs|Unknown|Arm|Leg</t>
+  </si>
+  <si>
+    <t>Left|Right|Ambidextrous|Unknown</t>
+  </si>
+  <si>
+    <t>Left|Right|Both sides|Unknown</t>
+  </si>
+  <si>
+    <t>Clinical</t>
+  </si>
+  <si>
+    <t>ECAS_disinh1</t>
+  </si>
+  <si>
+    <t>ECAS_disinh2</t>
+  </si>
+  <si>
+    <t>ECAS_disinh3</t>
+  </si>
+  <si>
+    <t>ECAS_disinh4</t>
+  </si>
+  <si>
+    <t>ECAS_disinh5</t>
+  </si>
+  <si>
+    <t>ECAS_apath1</t>
+  </si>
+  <si>
+    <t>ECAS_apath2</t>
+  </si>
+  <si>
+    <t>ECAS_apath3</t>
+  </si>
+  <si>
+    <t>ECAS_apath4</t>
+  </si>
+  <si>
+    <t>ECAS_apath5</t>
+  </si>
+  <si>
+    <t>ECAS_bhvsymptom1</t>
+  </si>
+  <si>
+    <t>ECAS_bhvsymptom2</t>
+  </si>
+  <si>
+    <t>ECAS_bhvsymptom3</t>
+  </si>
+  <si>
+    <t>ECAS_bhvsymptom4</t>
+  </si>
+  <si>
+    <t>ECAS_bhvsymptom5</t>
+  </si>
+  <si>
+    <t>ECAS_sympathloss2</t>
+  </si>
+  <si>
+    <t>ECAS_sympathloss1</t>
+  </si>
+  <si>
+    <t>ECAS_sympathloss3</t>
+  </si>
+  <si>
+    <t>ECAS_sympathloss4</t>
+  </si>
+  <si>
+    <t>ECAS_sympathloss5</t>
+  </si>
+  <si>
+    <t>ECAS_persev1</t>
+  </si>
+  <si>
+    <t>ECAS_persev2</t>
+  </si>
+  <si>
+    <t>ECAS_persev3</t>
+  </si>
+  <si>
+    <t>ECAS_persev4</t>
+  </si>
+  <si>
+    <t>ECAS_persev5</t>
+  </si>
+  <si>
+    <t>ECAS_hyperoral1</t>
+  </si>
+  <si>
+    <t>ECAS_hyperoral2</t>
+  </si>
+  <si>
+    <t>ECAS_hyperoral3</t>
+  </si>
+  <si>
+    <t>ECAS_hyperoral4</t>
+  </si>
+  <si>
+    <t>ECAS_hyperoral5</t>
+  </si>
+  <si>
+    <t>ECAS_bhvtotal1</t>
+  </si>
+  <si>
+    <t>ECAS_bhvtotal2</t>
+  </si>
+  <si>
+    <t>ECAS_bhvtotal3</t>
+  </si>
+  <si>
+    <t>ECAS_bhvtotal4</t>
+  </si>
+  <si>
+    <t>ECAS_bhvtotal5</t>
+  </si>
+  <si>
+    <t>ECAS_psychtotal1</t>
+  </si>
+  <si>
+    <t>ECAS_psychtotal2</t>
+  </si>
+  <si>
+    <t>ECAS_psychtotal3</t>
+  </si>
+  <si>
+    <t>ECAS_psychtotal4</t>
+  </si>
+  <si>
+    <t>ECAS_psychtotal5</t>
+  </si>
+  <si>
+    <t>ECAS_beliefs1</t>
+  </si>
+  <si>
+    <t>ECAS_beliefs2</t>
+  </si>
+  <si>
+    <t>ECAS_beliefs3</t>
+  </si>
+  <si>
+    <t>ECAS_beliefs4</t>
+  </si>
+  <si>
+    <t>ECAS_beliefs5</t>
+  </si>
+  <si>
+    <t>ECAS_presence1</t>
+  </si>
+  <si>
+    <t>ECAS_presence2</t>
+  </si>
+  <si>
+    <t>ECAS_presence3</t>
+  </si>
+  <si>
+    <t>ECAS_presence4</t>
+  </si>
+  <si>
+    <t>ECAS_presence5</t>
+  </si>
+  <si>
+    <t>ECAS_suspicious1</t>
+  </si>
+  <si>
+    <t>ECAS_suspicious2</t>
+  </si>
+  <si>
+    <t>ECAS_suspicious3</t>
+  </si>
+  <si>
+    <t>ECAS_suspicious4</t>
+  </si>
+  <si>
+    <t>ECAS_suspicious5</t>
+  </si>
+  <si>
+    <t>Y|N</t>
+  </si>
+  <si>
+    <t>Yes|No|Don't know</t>
+  </si>
+  <si>
+    <t>Ja|Nee</t>
+  </si>
+  <si>
+    <t>MRI_participation</t>
+  </si>
+  <si>
+    <t>MRI_fMRIpres1</t>
+  </si>
+  <si>
+    <t>MRI_fMRIpres2</t>
+  </si>
+  <si>
+    <t>MRI_fMRIpres3</t>
+  </si>
+  <si>
+    <t>MRI_fMRIpres4</t>
+  </si>
+  <si>
+    <t>MRI_fMRIpres5</t>
+  </si>
+  <si>
+    <t>MRI_fMRIpres6</t>
+  </si>
+  <si>
+    <t>MRI_MTRpres1</t>
+  </si>
+  <si>
+    <t>MRI_MTRpres2</t>
+  </si>
+  <si>
+    <t>MRI_MTRpres3</t>
+  </si>
+  <si>
+    <t>MRI_MTRpres4</t>
+  </si>
+  <si>
+    <t>MRI_MTRpres5</t>
+  </si>
+  <si>
+    <t>MRI_MTRpres6</t>
+  </si>
+  <si>
+    <t>DoALSFTDQ</t>
+  </si>
+  <si>
+    <t>ALSFTD_Q</t>
+  </si>
+  <si>
+    <t>0|1|3|4</t>
+  </si>
+  <si>
+    <t>DoEEC</t>
+  </si>
+  <si>
+    <t>EEC_cat</t>
+  </si>
+  <si>
+    <t>Partner|Kind|Vriend|Anders, namelijk:</t>
+  </si>
+  <si>
+    <t>No ALS|Suspected ALS|Possible ALS|Probable ALS|Probable ALS lab supported|Definite ALS</t>
+  </si>
+  <si>
+    <t>EEC</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q1@w</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q2@w</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q3@w</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q4@w</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q5@w</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q6@w</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q7@w</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q8@w</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q9@w</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q10@w</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q11@w</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q12@w</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q13@w</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q14@w</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q15@w</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q16@w</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q17@w</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q18@w</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q19@w</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q20@w</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q21@w</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q22@w</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q23@w</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q24@w</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q25@w</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_total@w</t>
+  </si>
+  <si>
+    <t>DoALSFTDQ@w</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_proxy@w</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_proxy_ad@w</t>
+  </si>
+  <si>
+    <t>DoALSFTDQ@l</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_proxy@l</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_proxy_ad@l</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q1@l</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q2@l</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q3@l</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q4@l</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q5@l</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q6@l</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q7@l</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q8@l</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q9@l</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q10@l</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q11@l</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q12@l</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q13@l</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q14@l</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q15@l</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q16@l</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q17@l</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q18@l</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q19@l</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q20@l</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q21@l</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q22@l</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q23@l</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q24@l</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_q25@l</t>
+  </si>
+  <si>
+    <t>ALSFTDQ_total@l</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1019,6 +1906,19 @@
     <font>
       <sz val="12"/>
       <name val="Calibri (Body)_x0000_"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1494,20 +2394,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J234"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="J231" sqref="J203:J231"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="50.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="40.5" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="12.33203125" style="6" customWidth="1"/>
@@ -1620,7 +2520,7 @@
         <v>25</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>78</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1640,7 +2540,7 @@
         <v>25</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>78</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1660,7 +2560,7 @@
         <v>25</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1685,197 +2585,183 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="8" t="s">
-        <v>19</v>
+        <v>231</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>20</v>
+        <v>366</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" s="3" t="s">
+      <c r="D9" s="11"/>
+      <c r="F9" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>78</v>
+        <v>375</v>
       </c>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="8" t="s">
-        <v>30</v>
+      <c r="A11" s="6" t="s">
+        <v>232</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>111</v>
+        <v>367</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="11">
-        <v>40179</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>80</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="8" t="s">
-        <v>86</v>
+      <c r="A12" s="6" t="s">
+        <v>233</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>112</v>
+        <v>368</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="11">
-        <v>40179</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="F12" s="10"/>
-      <c r="H12" s="6" t="s">
-        <v>80</v>
+      <c r="H12" s="3" t="s">
+        <v>375</v>
       </c>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="8" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="11">
-        <v>40179</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="H13" s="6" t="s">
-        <v>80</v>
+        <v>7</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>375</v>
       </c>
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="8" t="s">
-        <v>88</v>
+      <c r="A14" s="6" t="s">
+        <v>234</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>114</v>
+        <v>371</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="11">
-        <v>40179</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="H14" s="6" t="s">
-        <v>80</v>
+        <v>7</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>375</v>
       </c>
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="8" t="s">
-        <v>89</v>
+      <c r="A15" s="6" t="s">
+        <v>235</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>115</v>
+        <v>370</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="11">
-        <v>40179</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="H15" s="6" t="s">
-        <v>80</v>
+        <v>7</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>375</v>
       </c>
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="8" t="s">
-        <v>63</v>
+      <c r="A16" s="6" t="s">
+        <v>236</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>116</v>
+        <v>236</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="F16" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>80</v>
-      </c>
+      <c r="F16" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="8" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>67</v>
+        <v>13</v>
+      </c>
+      <c r="D17" s="11">
+        <v>40179</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>67</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D18" s="11">
+        <v>40179</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="10"/>
       <c r="H18" s="6" t="s">
         <v>80</v>
       </c>
@@ -1883,17 +2769,21 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>67</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D19" s="11">
+        <v>40179</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="10"/>
       <c r="H19" s="6" t="s">
         <v>80</v>
       </c>
@@ -1901,17 +2791,21 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>67</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D20" s="11">
+        <v>40179</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="10"/>
       <c r="H20" s="6" t="s">
         <v>80</v>
       </c>
@@ -1919,13 +2813,19 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="D21" s="11">
+        <v>40179</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="F21" s="10"/>
       <c r="H21" s="6" t="s">
@@ -1935,31 +2835,35 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="8" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="10"/>
+        <v>7</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="F22" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="H22" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="10"/>
+        <v>7</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="H23" s="6" t="s">
         <v>80</v>
       </c>
@@ -1967,15 +2871,17 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="8" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="10"/>
+        <v>7</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="H24" s="6" t="s">
         <v>80</v>
       </c>
@@ -1983,15 +2889,17 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="8" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="10"/>
+        <v>7</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="H25" s="6" t="s">
         <v>80</v>
       </c>
@@ -1999,39 +2907,31 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="8" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="10">
-        <v>0</v>
-      </c>
-      <c r="E26" s="10">
-        <v>100</v>
+        <v>7</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>80</v>
       </c>
+      <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="10">
-        <v>0</v>
-      </c>
-      <c r="E27" s="10">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="F27" s="10"/>
       <c r="H27" s="6" t="s">
@@ -2041,19 +2941,13 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="10">
-        <v>0</v>
-      </c>
-      <c r="E28" s="10">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="F28" s="10"/>
       <c r="H28" s="6" t="s">
@@ -2063,19 +2957,13 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="10">
-        <v>0</v>
-      </c>
-      <c r="E29" s="10">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="F29" s="10"/>
       <c r="H29" s="6" t="s">
@@ -2085,19 +2973,13 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" s="10">
-        <v>0</v>
-      </c>
-      <c r="E30" s="10">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="F30" s="10"/>
       <c r="H30" s="6" t="s">
@@ -2107,30 +2989,26 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="8" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="10">
-        <v>0</v>
-      </c>
-      <c r="E31" s="10">
-        <v>36</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F31" s="10"/>
       <c r="H31" s="6" t="s">
         <v>80</v>
       </c>
+      <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="8" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>27</v>
@@ -2139,20 +3017,18 @@
         <v>0</v>
       </c>
       <c r="E32" s="10">
-        <v>36</v>
-      </c>
-      <c r="F32" s="10"/>
+        <v>100</v>
+      </c>
       <c r="H32" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="I32" s="3"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>27</v>
@@ -2161,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="10">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="F33" s="10"/>
       <c r="H33" s="6" t="s">
@@ -2171,10 +3047,10 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>27</v>
@@ -2183,7 +3059,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="10">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="F34" s="10"/>
       <c r="H34" s="6" t="s">
@@ -2193,10 +3069,10 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>27</v>
@@ -2205,7 +3081,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="10">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="F35" s="10"/>
       <c r="H35" s="6" t="s">
@@ -2215,10 +3091,10 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="8" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>27</v>
@@ -2227,18 +3103,20 @@
         <v>0</v>
       </c>
       <c r="E36" s="10">
-        <v>136</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F36" s="10"/>
       <c r="H36" s="6" t="s">
         <v>80</v>
       </c>
+      <c r="I36" s="3"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="8" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>27</v>
@@ -2247,20 +3125,18 @@
         <v>0</v>
       </c>
       <c r="E37" s="10">
-        <v>136</v>
-      </c>
-      <c r="F37" s="10"/>
+        <v>36</v>
+      </c>
       <c r="H37" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="I37" s="3"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="8" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>27</v>
@@ -2269,7 +3145,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="10">
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="F38" s="10"/>
       <c r="H38" s="6" t="s">
@@ -2279,10 +3155,10 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="8" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>27</v>
@@ -2291,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="10">
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="F39" s="10"/>
       <c r="H39" s="6" t="s">
@@ -2301,10 +3177,10 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>27</v>
@@ -2313,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="10">
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="F40" s="10"/>
       <c r="H40" s="6" t="s">
@@ -2323,10 +3199,10 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="8" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>185</v>
+        <v>135</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>27</v>
@@ -2335,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="10">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F41" s="10"/>
       <c r="H41" s="6" t="s">
@@ -2345,10 +3221,10 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="8" t="s">
-        <v>143</v>
+        <v>26</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>186</v>
+        <v>136</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>27</v>
@@ -2357,20 +3233,18 @@
         <v>0</v>
       </c>
       <c r="E42" s="10">
-        <v>28</v>
-      </c>
-      <c r="F42" s="10"/>
+        <v>136</v>
+      </c>
       <c r="H42" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="I42" s="3"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="8" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>187</v>
+        <v>137</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>27</v>
@@ -2379,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="10">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="F43" s="10"/>
       <c r="H43" s="6" t="s">
@@ -2389,10 +3263,10 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="8" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>188</v>
+        <v>138</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>27</v>
@@ -2401,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="10">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="F44" s="10"/>
       <c r="H44" s="6" t="s">
@@ -2411,10 +3285,10 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="8" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>189</v>
+        <v>139</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>27</v>
@@ -2423,7 +3297,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="10">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="F45" s="10"/>
       <c r="H45" s="6" t="s">
@@ -2433,10 +3307,10 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="8" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>27</v>
@@ -2445,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="10">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="F46" s="10"/>
       <c r="H46" s="6" t="s">
@@ -2455,10 +3329,10 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="8" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>27</v>
@@ -2467,7 +3341,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F47" s="10"/>
       <c r="H47" s="6" t="s">
@@ -2477,10 +3351,10 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="8" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>27</v>
@@ -2489,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F48" s="10"/>
       <c r="H48" s="6" t="s">
@@ -2499,10 +3373,10 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="8" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>27</v>
@@ -2511,7 +3385,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F49" s="10"/>
       <c r="H49" s="6" t="s">
@@ -2521,10 +3395,10 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="8" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>27</v>
@@ -2533,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F50" s="10"/>
       <c r="H50" s="6" t="s">
@@ -2543,10 +3417,10 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="8" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>27</v>
@@ -2555,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="E51" s="10">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="F51" s="10"/>
       <c r="H51" s="6" t="s">
@@ -2565,10 +3439,10 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="8" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>27</v>
@@ -2577,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="10">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="F52" s="10"/>
       <c r="H52" s="6" t="s">
@@ -2587,10 +3461,10 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="8" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>27</v>
@@ -2599,7 +3473,7 @@
         <v>0</v>
       </c>
       <c r="E53" s="10">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="F53" s="10"/>
       <c r="H53" s="6" t="s">
@@ -2609,10 +3483,10 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="8" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>27</v>
@@ -2621,7 +3495,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="10">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="F54" s="10"/>
       <c r="H54" s="6" t="s">
@@ -2631,10 +3505,10 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="8" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>27</v>
@@ -2643,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="E55" s="10">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="F55" s="10"/>
       <c r="H55" s="6" t="s">
@@ -2653,10 +3527,10 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>27</v>
@@ -2675,10 +3549,10 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="8" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>27</v>
@@ -2687,7 +3561,7 @@
         <v>0</v>
       </c>
       <c r="E57" s="10">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="F57" s="10"/>
       <c r="H57" s="6" t="s">
@@ -2697,10 +3571,10 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="8" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>27</v>
@@ -2709,7 +3583,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="10">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="F58" s="10"/>
       <c r="H58" s="6" t="s">
@@ -2719,10 +3593,10 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="8" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>27</v>
@@ -2731,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="E59" s="10">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="F59" s="10"/>
       <c r="H59" s="6" t="s">
@@ -2741,10 +3615,10 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="8" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>27</v>
@@ -2753,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="E60" s="10">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="F60" s="10"/>
       <c r="H60" s="6" t="s">
@@ -2763,10 +3637,10 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="8" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>27</v>
@@ -2775,7 +3649,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="10">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="F61" s="10"/>
       <c r="H61" s="6" t="s">
@@ -2785,10 +3659,10 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="8" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>27</v>
@@ -2797,7 +3671,7 @@
         <v>0</v>
       </c>
       <c r="E62" s="10">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F62" s="10"/>
       <c r="H62" s="6" t="s">
@@ -2807,10 +3681,10 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="8" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>27</v>
@@ -2819,7 +3693,7 @@
         <v>0</v>
       </c>
       <c r="E63" s="10">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F63" s="10"/>
       <c r="H63" s="6" t="s">
@@ -2829,10 +3703,10 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="8" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>27</v>
@@ -2841,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="E64" s="10">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F64" s="10"/>
       <c r="H64" s="6" t="s">
@@ -2851,10 +3725,10 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="8" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>27</v>
@@ -2863,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="E65" s="10">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F65" s="10"/>
       <c r="H65" s="6" t="s">
@@ -2873,722 +3747,3407 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="8" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" s="12">
-        <v>39814</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="D66" s="10">
+        <v>0</v>
+      </c>
+      <c r="E66" s="10">
+        <v>24</v>
       </c>
       <c r="F66" s="10"/>
       <c r="H66" s="6" t="s">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="I66" s="3"/>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="8" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="12">
-        <v>39814</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="D67" s="10">
+        <v>0</v>
+      </c>
+      <c r="E67" s="10">
+        <v>12</v>
       </c>
       <c r="F67" s="10"/>
       <c r="H67" s="6" t="s">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="I67" s="3"/>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="8" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D68" s="12">
-        <v>39814</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="D68" s="10">
+        <v>0</v>
+      </c>
+      <c r="E68" s="10">
+        <v>12</v>
       </c>
       <c r="F68" s="10"/>
       <c r="H68" s="6" t="s">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="I68" s="3"/>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="8" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69" s="12">
-        <v>39814</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="D69" s="10">
+        <v>0</v>
+      </c>
+      <c r="E69" s="10">
+        <v>12</v>
       </c>
       <c r="F69" s="10"/>
       <c r="H69" s="6" t="s">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="I69" s="3"/>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="8" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D70" s="12">
-        <v>39814</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="D70" s="10">
+        <v>0</v>
+      </c>
+      <c r="E70" s="10">
+        <v>12</v>
       </c>
       <c r="F70" s="10"/>
       <c r="H70" s="6" t="s">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="I70" s="3"/>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="8" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D71" s="12">
-        <v>39814</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="D71" s="10">
+        <v>0</v>
+      </c>
+      <c r="E71" s="10">
+        <v>12</v>
       </c>
       <c r="F71" s="10"/>
       <c r="H71" s="6" t="s">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="I71" s="3"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="8" t="s">
-        <v>173</v>
+      <c r="A72" s="6" t="s">
+        <v>237</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>216</v>
+        <v>406</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="6" t="s">
-        <v>228</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D72" s="10">
+        <v>0</v>
+      </c>
+      <c r="E72" s="10">
+        <v>10</v>
+      </c>
+      <c r="F72" s="10"/>
       <c r="H72" s="6" t="s">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="I72" s="3"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="8" t="s">
-        <v>174</v>
+      <c r="A73" s="6" t="s">
+        <v>238</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>217</v>
+        <v>407</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D73" s="10"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="6" t="s">
-        <v>228</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D73" s="10">
+        <v>0</v>
+      </c>
+      <c r="E73" s="10">
+        <v>10</v>
+      </c>
+      <c r="F73" s="10"/>
       <c r="H73" s="6" t="s">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="I73" s="3"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="8" t="s">
-        <v>175</v>
+      <c r="A74" s="6" t="s">
+        <v>239</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>218</v>
+        <v>408</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="6" t="s">
-        <v>228</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D74" s="10">
+        <v>0</v>
+      </c>
+      <c r="E74" s="10">
+        <v>10</v>
+      </c>
+      <c r="F74" s="10"/>
       <c r="H74" s="6" t="s">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="I74" s="3"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="8" t="s">
-        <v>176</v>
+      <c r="A75" s="6" t="s">
+        <v>240</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>219</v>
+        <v>409</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D75" s="10"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="6" t="s">
-        <v>228</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D75" s="10">
+        <v>0</v>
+      </c>
+      <c r="E75" s="10">
+        <v>10</v>
+      </c>
+      <c r="F75" s="10"/>
       <c r="H75" s="6" t="s">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="I75" s="3"/>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="8" t="s">
-        <v>177</v>
+      <c r="A76" s="6" t="s">
+        <v>241</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>220</v>
+        <v>410</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="6" t="s">
-        <v>228</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D76" s="10">
+        <v>0</v>
+      </c>
+      <c r="E76" s="10">
+        <v>10</v>
+      </c>
+      <c r="F76" s="10"/>
       <c r="H76" s="6" t="s">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="I76" s="3"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="8" t="s">
-        <v>178</v>
+      <c r="A77" s="6" t="s">
+        <v>242</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>221</v>
+        <v>386</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D77" s="10"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="6" t="s">
-        <v>228</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D77" s="10">
+        <v>0</v>
+      </c>
+      <c r="E77" s="10">
+        <v>5</v>
+      </c>
+      <c r="F77" s="10"/>
       <c r="H77" s="6" t="s">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="I77" s="3"/>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="8" t="s">
-        <v>179</v>
+      <c r="A78" s="6" t="s">
+        <v>243</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>222</v>
+        <v>387</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="6" t="s">
-        <v>228</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D78" s="10">
+        <v>0</v>
+      </c>
+      <c r="E78" s="10">
+        <v>5</v>
+      </c>
+      <c r="F78" s="10"/>
       <c r="H78" s="6" t="s">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="I78" s="3"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="8" t="s">
-        <v>180</v>
+      <c r="A79" s="6" t="s">
+        <v>244</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>223</v>
+        <v>388</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D79" s="10"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="6" t="s">
-        <v>228</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D79" s="10">
+        <v>0</v>
+      </c>
+      <c r="E79" s="10">
+        <v>5</v>
+      </c>
+      <c r="F79" s="10"/>
       <c r="H79" s="6" t="s">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="I79" s="3"/>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="8" t="s">
-        <v>181</v>
+      <c r="A80" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>224</v>
+        <v>389</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D80" s="10"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="6" t="s">
-        <v>228</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D80" s="10">
+        <v>0</v>
+      </c>
+      <c r="E80" s="10">
+        <v>5</v>
+      </c>
+      <c r="F80" s="10"/>
       <c r="H80" s="6" t="s">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="I80" s="3"/>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="8" t="s">
-        <v>182</v>
+      <c r="A81" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>225</v>
+        <v>390</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="6" t="s">
-        <v>228</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D81" s="10">
+        <v>0</v>
+      </c>
+      <c r="E81" s="10">
+        <v>5</v>
+      </c>
+      <c r="F81" s="10"/>
       <c r="H81" s="6" t="s">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="I81" s="3"/>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="8" t="s">
-        <v>183</v>
+      <c r="A82" s="6" t="s">
+        <v>247</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>226</v>
+        <v>376</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D82" s="10"/>
       <c r="E82" s="10"/>
-      <c r="F82" s="6" t="s">
-        <v>228</v>
+      <c r="F82" s="10" t="s">
+        <v>431</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="I82" s="3"/>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="8" t="s">
-        <v>184</v>
+      <c r="A83" s="6" t="s">
+        <v>248</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>227</v>
+        <v>377</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D83" s="10"/>
       <c r="E83" s="10"/>
-      <c r="F83" s="6" t="s">
+      <c r="F83" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I83" s="3"/>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I84" s="3"/>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I85" s="3"/>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I86" s="3"/>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I87" s="3"/>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I88" s="3"/>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I89" s="3"/>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="H90" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I90" s="3"/>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I91" s="3"/>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="H92" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I92" s="3"/>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I93" s="3"/>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="H94" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I94" s="3"/>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I95" s="3"/>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96" s="10"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="H96" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I96" s="3"/>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="H97" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I97" s="3"/>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="H98" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I98" s="3"/>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="H99" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I99" s="3"/>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="H100" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I100" s="3"/>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="H101" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I101" s="3"/>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102" s="10"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="H102" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I102" s="3"/>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="H103" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I103" s="3"/>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104" s="10"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="H83" s="6" t="s">
+      <c r="H104" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I104" s="3"/>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D105" s="10"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="H105" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I105" s="3"/>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D106" s="10"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="H106" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I106" s="3"/>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D107" s="10">
+        <v>0</v>
+      </c>
+      <c r="E107" s="10">
+        <v>3</v>
+      </c>
+      <c r="F107" s="10"/>
+      <c r="H107" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I107" s="3"/>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D108" s="10">
+        <v>0</v>
+      </c>
+      <c r="E108" s="10">
+        <v>3</v>
+      </c>
+      <c r="F108" s="10"/>
+      <c r="H108" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I108" s="3"/>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D109" s="10">
+        <v>0</v>
+      </c>
+      <c r="E109" s="10">
+        <v>3</v>
+      </c>
+      <c r="F109" s="10"/>
+      <c r="H109" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I109" s="3"/>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D110" s="10">
+        <v>0</v>
+      </c>
+      <c r="E110" s="10">
+        <v>3</v>
+      </c>
+      <c r="F110" s="10"/>
+      <c r="H110" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I110" s="3"/>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D111" s="10">
+        <v>0</v>
+      </c>
+      <c r="E111" s="10">
+        <v>3</v>
+      </c>
+      <c r="F111" s="10"/>
+      <c r="H111" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I111" s="3"/>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D112" s="10"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="H112" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I112" s="3"/>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D113" s="10"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="H113" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I113" s="3"/>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D114" s="10"/>
+      <c r="E114" s="10"/>
+      <c r="F114" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="H114" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I114" s="3"/>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D115" s="10"/>
+      <c r="E115" s="10"/>
+      <c r="F115" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="H115" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I115" s="3"/>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D116" s="10"/>
+      <c r="E116" s="10"/>
+      <c r="F116" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="H116" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I116" s="3"/>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D117" s="10"/>
+      <c r="E117" s="10"/>
+      <c r="F117" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="H117" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I117" s="3"/>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118" s="10"/>
+      <c r="E118" s="10"/>
+      <c r="F118" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="H118" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I118" s="3"/>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D119" s="10"/>
+      <c r="E119" s="10"/>
+      <c r="F119" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="H119" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I119" s="3"/>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D120" s="10"/>
+      <c r="E120" s="10"/>
+      <c r="F120" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="H120" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I120" s="3"/>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D121" s="10"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="H121" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I121" s="3"/>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D122" s="10"/>
+      <c r="E122" s="10"/>
+      <c r="F122" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="H122" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I122" s="3"/>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D123" s="10"/>
+      <c r="E123" s="10"/>
+      <c r="F123" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="H123" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I123" s="3"/>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D124" s="10"/>
+      <c r="E124" s="10"/>
+      <c r="F124" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="H124" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I124" s="3"/>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D125" s="10"/>
+      <c r="E125" s="10"/>
+      <c r="F125" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="H125" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I125" s="3"/>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D126" s="10"/>
+      <c r="E126" s="10"/>
+      <c r="F126" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="H126" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I126" s="3"/>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D127" s="10"/>
+      <c r="E127" s="10"/>
+      <c r="F127" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="H127" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="I83" s="3"/>
-    </row>
-    <row r="84" spans="1:9">
-      <c r="A84" s="8" t="s">
+      <c r="I127" s="3"/>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D128" s="12">
+        <v>39814</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F128" s="10"/>
+      <c r="H128" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="I128" s="3"/>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D129" s="12">
+        <v>39814</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F129" s="10"/>
+      <c r="H129" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="I129" s="3"/>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D130" s="12">
+        <v>39814</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F130" s="10"/>
+      <c r="H130" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="I130" s="3"/>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D131" s="12">
+        <v>39814</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F131" s="10"/>
+      <c r="H131" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="I131" s="3"/>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D132" s="12">
+        <v>39814</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F132" s="10"/>
+      <c r="H132" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="I132" s="3"/>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D133" s="12">
+        <v>39814</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F133" s="10"/>
+      <c r="H133" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="I133" s="3"/>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D134" s="10"/>
+      <c r="E134" s="10"/>
+      <c r="F134" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H134" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="I134" s="3"/>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D135" s="10"/>
+      <c r="E135" s="10"/>
+      <c r="F135" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H135" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="I135" s="3"/>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D136" s="10"/>
+      <c r="E136" s="10"/>
+      <c r="F136" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H136" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="I136" s="3"/>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D137" s="10"/>
+      <c r="E137" s="10"/>
+      <c r="F137" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H137" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="I137" s="3"/>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D138" s="10"/>
+      <c r="E138" s="10"/>
+      <c r="F138" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H138" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="I138" s="3"/>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D139" s="10"/>
+      <c r="E139" s="10"/>
+      <c r="F139" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H139" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="I139" s="3"/>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D140" s="10"/>
+      <c r="E140" s="10"/>
+      <c r="F140" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H140" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="I140" s="3"/>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D141" s="10"/>
+      <c r="E141" s="10"/>
+      <c r="F141" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H141" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="I141" s="3"/>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D142" s="10"/>
+      <c r="E142" s="10"/>
+      <c r="F142" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H142" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="I142" s="3"/>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D143" s="10"/>
+      <c r="E143" s="10"/>
+      <c r="F143" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H143" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="I143" s="3"/>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D144" s="10"/>
+      <c r="E144" s="10"/>
+      <c r="F144" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H144" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="I144" s="3"/>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D145" s="10"/>
+      <c r="E145" s="10"/>
+      <c r="F145" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="I145" s="3"/>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D146" s="10"/>
+      <c r="E146" s="10"/>
+      <c r="F146" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H146" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="I146" s="3"/>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D147" s="10"/>
+      <c r="E147" s="10"/>
+      <c r="F147" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H147" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="I147" s="3"/>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D148" s="10"/>
+      <c r="E148" s="10"/>
+      <c r="F148" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H148" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="I148" s="3"/>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D149" s="10"/>
+      <c r="E149" s="10"/>
+      <c r="F149" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H149" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="I149" s="3"/>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D150" s="10"/>
+      <c r="E150" s="10"/>
+      <c r="F150" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H150" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="I150" s="3"/>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D151" s="10"/>
+      <c r="E151" s="10"/>
+      <c r="F151" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H151" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="I151" s="3"/>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D152" s="10"/>
+      <c r="E152" s="10"/>
+      <c r="F152" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H152" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="I152" s="3"/>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D153" s="10"/>
+      <c r="E153" s="10"/>
+      <c r="F153" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H153" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="I153" s="3"/>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D154" s="10"/>
+      <c r="E154" s="10"/>
+      <c r="F154" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H154" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="I154" s="3"/>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D155" s="10"/>
+      <c r="E155" s="10"/>
+      <c r="F155" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H155" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="I155" s="3"/>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D156" s="10"/>
+      <c r="E156" s="10"/>
+      <c r="F156" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H156" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="I156" s="3"/>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D157" s="10"/>
+      <c r="E157" s="10"/>
+      <c r="F157" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H157" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="I157" s="3"/>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D158" s="12">
+        <v>40179</v>
+      </c>
+      <c r="E158" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H158" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="I158" s="3"/>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D159" s="12"/>
+      <c r="E159" s="10"/>
+      <c r="F159" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="H159" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="I159" s="3"/>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D160" s="12"/>
+      <c r="E160" s="10"/>
+      <c r="H160" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="I160" s="3"/>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D161" s="10"/>
+      <c r="E161" s="10"/>
+      <c r="F161" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H161" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="I161" s="3"/>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D162" s="10"/>
+      <c r="E162" s="10"/>
+      <c r="F162" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H162" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D163" s="10"/>
+      <c r="E163" s="10"/>
+      <c r="F163" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H163" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="I163" s="3"/>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D164" s="10"/>
+      <c r="E164" s="10"/>
+      <c r="F164" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H164" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="I164" s="3"/>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D165" s="10"/>
+      <c r="E165" s="10"/>
+      <c r="F165" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H165" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="I165" s="3"/>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D166" s="10"/>
+      <c r="E166" s="10"/>
+      <c r="F166" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H166" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="I166" s="3"/>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D167" s="10"/>
+      <c r="E167" s="10"/>
+      <c r="F167" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H167" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="I167" s="3"/>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D168" s="10"/>
+      <c r="E168" s="10"/>
+      <c r="F168" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H168" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="I168" s="3"/>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D169" s="10"/>
+      <c r="E169" s="10"/>
+      <c r="F169" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H169" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="I169" s="3"/>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="A170" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D170" s="10"/>
+      <c r="E170" s="10"/>
+      <c r="F170" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H170" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="I170" s="3"/>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="A171" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D171" s="10"/>
+      <c r="E171" s="10"/>
+      <c r="F171" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H171" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="I171" s="3"/>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="A172" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D172" s="10"/>
+      <c r="E172" s="10"/>
+      <c r="F172" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H172" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="I172" s="3"/>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="A173" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D173" s="10"/>
+      <c r="E173" s="10"/>
+      <c r="F173" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H173" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="I173" s="3"/>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="A174" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="B174" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D174" s="10"/>
+      <c r="E174" s="10"/>
+      <c r="F174" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H174" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="I174" s="3"/>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D175" s="10"/>
+      <c r="E175" s="10"/>
+      <c r="F175" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H175" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="I175" s="3"/>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="A176" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D176" s="10"/>
+      <c r="E176" s="10"/>
+      <c r="F176" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H176" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="I176" s="3"/>
+    </row>
+    <row r="177" spans="1:9">
+      <c r="A177" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D177" s="10"/>
+      <c r="E177" s="10"/>
+      <c r="F177" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H177" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="I177" s="3"/>
+    </row>
+    <row r="178" spans="1:9">
+      <c r="A178" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D178" s="10"/>
+      <c r="E178" s="10"/>
+      <c r="F178" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H178" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="I178" s="3"/>
+    </row>
+    <row r="179" spans="1:9">
+      <c r="A179" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D179" s="10"/>
+      <c r="E179" s="10"/>
+      <c r="F179" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H179" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="I179" s="3"/>
+    </row>
+    <row r="180" spans="1:9">
+      <c r="A180" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="B180" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D180" s="10"/>
+      <c r="E180" s="10"/>
+      <c r="F180" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H180" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="I180" s="3"/>
+    </row>
+    <row r="181" spans="1:9">
+      <c r="A181" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D181" s="10"/>
+      <c r="E181" s="10"/>
+      <c r="F181" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H181" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="I181" s="3"/>
+    </row>
+    <row r="182" spans="1:9">
+      <c r="A182" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="B182" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D182" s="10"/>
+      <c r="E182" s="10"/>
+      <c r="F182" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H182" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="I182" s="3"/>
+    </row>
+    <row r="183" spans="1:9">
+      <c r="A183" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D183" s="10"/>
+      <c r="E183" s="10"/>
+      <c r="F183" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H183" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="I183" s="3"/>
+    </row>
+    <row r="184" spans="1:9">
+      <c r="A184" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D184" s="10"/>
+      <c r="E184" s="10"/>
+      <c r="F184" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H184" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="I184" s="3"/>
+    </row>
+    <row r="185" spans="1:9">
+      <c r="A185" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D185" s="10"/>
+      <c r="E185" s="10"/>
+      <c r="F185" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H185" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="I185" s="3"/>
+    </row>
+    <row r="186" spans="1:9">
+      <c r="A186" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="B186" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D186" s="10">
+        <v>0</v>
+      </c>
+      <c r="E186" s="10">
+        <v>100</v>
+      </c>
+      <c r="H186" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="I186" s="3"/>
+    </row>
+    <row r="187" spans="1:9">
+      <c r="A187" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B187" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C84" s="6" t="s">
+      <c r="C187" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D84" s="11">
+      <c r="D187" s="11">
         <v>32874</v>
       </c>
-      <c r="E84" s="6" t="s">
+      <c r="E187" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H84" s="6" t="s">
+      <c r="H187" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
-      <c r="A85" s="8" t="s">
+    <row r="188" spans="1:9">
+      <c r="A188" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B188" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C85" s="6" t="s">
+      <c r="C188" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D85" s="6">
+      <c r="D188" s="6">
         <v>0</v>
       </c>
-      <c r="E85" s="6">
+      <c r="E188" s="6">
         <v>4</v>
       </c>
-      <c r="H85" s="6" t="s">
+      <c r="H188" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
-      <c r="A86" s="8" t="s">
+    <row r="189" spans="1:9">
+      <c r="A189" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B189" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C86" s="6" t="s">
+      <c r="C189" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D86" s="6">
+      <c r="D189" s="6">
         <v>0</v>
       </c>
-      <c r="E86" s="6">
+      <c r="E189" s="6">
         <v>4</v>
       </c>
-      <c r="H86" s="6" t="s">
+      <c r="H189" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
-      <c r="A87" s="8" t="s">
+    <row r="190" spans="1:9">
+      <c r="A190" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B190" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C87" s="6" t="s">
+      <c r="C190" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D87" s="6">
+      <c r="D190" s="6">
         <v>0</v>
       </c>
-      <c r="E87" s="6">
+      <c r="E190" s="6">
         <v>4</v>
       </c>
-      <c r="H87" s="6" t="s">
+      <c r="H190" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
-      <c r="A88" s="8" t="s">
+    <row r="191" spans="1:9">
+      <c r="A191" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B191" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C88" s="6" t="s">
+      <c r="C191" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D88" s="6">
+      <c r="D191" s="6">
         <v>0</v>
       </c>
-      <c r="E88" s="6">
+      <c r="E191" s="6">
         <v>4</v>
       </c>
-      <c r="H88" s="6" t="s">
+      <c r="H191" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
-      <c r="A89" s="8" t="s">
+    <row r="192" spans="1:9">
+      <c r="A192" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B192" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C89" s="6" t="s">
+      <c r="C192" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D89" s="6">
+      <c r="D192" s="6">
         <v>0</v>
       </c>
-      <c r="E89" s="6">
+      <c r="E192" s="6">
         <v>4</v>
       </c>
-      <c r="H89" s="6" t="s">
+      <c r="H192" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
-      <c r="A90" s="8" t="s">
+    <row r="193" spans="1:8">
+      <c r="A193" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B193" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C90" s="6" t="s">
+      <c r="C193" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D90" s="6">
+      <c r="D193" s="6">
         <v>0</v>
       </c>
-      <c r="E90" s="6">
+      <c r="E193" s="6">
         <v>4</v>
       </c>
-      <c r="H90" s="6" t="s">
+      <c r="H193" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
-      <c r="A91" s="8" t="s">
+    <row r="194" spans="1:8">
+      <c r="A194" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B194" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C91" s="6" t="s">
+      <c r="C194" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D91" s="6">
+      <c r="D194" s="6">
         <v>0</v>
       </c>
-      <c r="E91" s="6">
+      <c r="E194" s="6">
         <v>4</v>
       </c>
-      <c r="H91" s="6" t="s">
+      <c r="H194" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
-      <c r="A92" s="8" t="s">
+    <row r="195" spans="1:8">
+      <c r="A195" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B195" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C92" s="6" t="s">
+      <c r="C195" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D92" s="6">
+      <c r="D195" s="6">
         <v>0</v>
       </c>
-      <c r="E92" s="6">
+      <c r="E195" s="6">
         <v>4</v>
       </c>
-      <c r="H92" s="6" t="s">
+      <c r="H195" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
-      <c r="A93" s="8" t="s">
+    <row r="196" spans="1:8">
+      <c r="A196" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B196" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C93" s="6" t="s">
+      <c r="C196" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="6">
+      <c r="D196" s="6">
         <v>0</v>
       </c>
-      <c r="E93" s="6">
+      <c r="E196" s="6">
         <v>4</v>
       </c>
-      <c r="H93" s="6" t="s">
+      <c r="H196" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
-      <c r="A94" s="8" t="s">
+    <row r="197" spans="1:8">
+      <c r="A197" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B197" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C94" s="6" t="s">
+      <c r="C197" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D94" s="6">
+      <c r="D197" s="6">
         <v>0</v>
       </c>
-      <c r="E94" s="6">
+      <c r="E197" s="6">
         <v>4</v>
       </c>
-      <c r="H94" s="6" t="s">
+      <c r="H197" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
-      <c r="A95" s="8" t="s">
+    <row r="198" spans="1:8">
+      <c r="A198" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B198" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C95" s="6" t="s">
+      <c r="C198" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D95" s="6">
+      <c r="D198" s="6">
         <v>0</v>
       </c>
-      <c r="E95" s="6">
+      <c r="E198" s="6">
         <v>4</v>
       </c>
-      <c r="H95" s="6" t="s">
+      <c r="H198" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
-      <c r="A96" s="8" t="s">
+    <row r="199" spans="1:8">
+      <c r="A199" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B199" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C96" s="6" t="s">
+      <c r="C199" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D96" s="6">
+      <c r="D199" s="6">
         <v>0</v>
       </c>
-      <c r="E96" s="6">
+      <c r="E199" s="6">
         <v>4</v>
       </c>
-      <c r="H96" s="6" t="s">
+      <c r="H199" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
-      <c r="A97" s="8" t="s">
+    <row r="200" spans="1:8">
+      <c r="A200" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B200" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C97" s="6" t="s">
+      <c r="C200" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D97" s="6">
+      <c r="D200" s="6">
         <v>0</v>
       </c>
-      <c r="E97" s="6">
+      <c r="E200" s="6">
         <v>4</v>
       </c>
-      <c r="H97" s="6" t="s">
+      <c r="H200" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
-      <c r="A98" s="9" t="s">
+    <row r="201" spans="1:8">
+      <c r="A201" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B201" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C98" s="6" t="s">
+      <c r="C201" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D98" s="11">
+      <c r="D201" s="11">
         <v>29221</v>
       </c>
-      <c r="E98" s="6" t="s">
+      <c r="E201" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H98" s="6" t="s">
+      <c r="H201" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
-      <c r="A99" s="8" t="s">
+    <row r="202" spans="1:8">
+      <c r="A202" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B202" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C99" s="6" t="s">
+      <c r="C202" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D99" s="6">
+      <c r="D202" s="6">
         <v>20</v>
       </c>
-      <c r="E99" s="6">
+      <c r="E202" s="6">
         <v>200</v>
       </c>
-      <c r="H99" s="6" t="s">
+      <c r="H202" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
-      <c r="A100" s="8" t="s">
+    <row r="203" spans="1:8">
+      <c r="A203" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="B203" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D203" s="12">
+        <v>40179</v>
+      </c>
+      <c r="E203" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H203" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
+      <c r="A204" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="B204" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D204" s="12"/>
+      <c r="E204" s="10"/>
+      <c r="F204" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="H204" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="A205" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="B205" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H205" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="A206" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="B206" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D206" s="10"/>
+      <c r="E206" s="10"/>
+      <c r="F206" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H206" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
+      <c r="A207" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="B207" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D207" s="10"/>
+      <c r="E207" s="10"/>
+      <c r="F207" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H207" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
+      <c r="A208" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="B208" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D208" s="10"/>
+      <c r="E208" s="10"/>
+      <c r="F208" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H208" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
+      <c r="A209" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="B209" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D209" s="10"/>
+      <c r="E209" s="10"/>
+      <c r="F209" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H209" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="B210" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="C210" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D210" s="10"/>
+      <c r="E210" s="10"/>
+      <c r="F210" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H210" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="A211" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="B211" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="C211" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D211" s="10"/>
+      <c r="E211" s="10"/>
+      <c r="F211" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H211" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
+      <c r="A212" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="B212" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D212" s="10"/>
+      <c r="E212" s="10"/>
+      <c r="F212" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H212" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
+      <c r="A213" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="B213" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="C213" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D213" s="10"/>
+      <c r="E213" s="10"/>
+      <c r="F213" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H213" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
+      <c r="A214" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="B214" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="C214" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D214" s="10"/>
+      <c r="E214" s="10"/>
+      <c r="F214" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H214" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
+      <c r="A215" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="B215" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="C215" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D215" s="10"/>
+      <c r="E215" s="10"/>
+      <c r="F215" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H215" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
+      <c r="A216" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="B216" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="C216" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D216" s="10"/>
+      <c r="E216" s="10"/>
+      <c r="F216" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H216" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
+      <c r="A217" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="B217" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="C217" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D217" s="10"/>
+      <c r="E217" s="10"/>
+      <c r="F217" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H217" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
+      <c r="A218" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="B218" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="C218" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D218" s="10"/>
+      <c r="E218" s="10"/>
+      <c r="F218" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H218" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
+      <c r="A219" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="B219" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="C219" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D219" s="10"/>
+      <c r="E219" s="10"/>
+      <c r="F219" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H219" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
+      <c r="A220" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="B220" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="C220" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D220" s="10"/>
+      <c r="E220" s="10"/>
+      <c r="F220" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H220" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
+      <c r="A221" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="B221" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="C221" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D221" s="10"/>
+      <c r="E221" s="10"/>
+      <c r="F221" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H221" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
+      <c r="A222" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="B222" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="C222" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D222" s="10"/>
+      <c r="E222" s="10"/>
+      <c r="F222" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H222" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="A223" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="B223" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="C223" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D223" s="10"/>
+      <c r="E223" s="10"/>
+      <c r="F223" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H223" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
+      <c r="A224" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="B224" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="C224" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D224" s="10"/>
+      <c r="E224" s="10"/>
+      <c r="F224" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H224" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
+      <c r="A225" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="B225" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="C225" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D225" s="10"/>
+      <c r="E225" s="10"/>
+      <c r="F225" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H225" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
+      <c r="A226" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="B226" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="C226" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D226" s="10"/>
+      <c r="E226" s="10"/>
+      <c r="F226" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H226" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
+      <c r="A227" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="B227" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="C227" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D227" s="10"/>
+      <c r="E227" s="10"/>
+      <c r="F227" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H227" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
+      <c r="A228" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="B228" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="C228" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D228" s="10"/>
+      <c r="E228" s="10"/>
+      <c r="F228" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H228" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
+      <c r="A229" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="B229" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="C229" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D229" s="10"/>
+      <c r="E229" s="10"/>
+      <c r="F229" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H229" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
+      <c r="A230" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="B230" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="C230" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D230" s="10"/>
+      <c r="E230" s="10"/>
+      <c r="F230" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H230" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
+      <c r="A231" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="B231" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="C231" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D231" s="10">
+        <v>0</v>
+      </c>
+      <c r="E231" s="10">
+        <v>100</v>
+      </c>
+      <c r="H231" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
+      <c r="A232" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="C232" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D232" s="11">
+        <v>18264</v>
+      </c>
+      <c r="E232" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H232" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
+      <c r="A233" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="C233" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F233" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="H233" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
+      <c r="A234" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B234" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C100" s="6" t="s">
+      <c r="C234" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D100" s="13" t="s">
+      <c r="D234" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E100" s="13" t="s">
+      <c r="E234" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F100" s="13" t="s">
+      <c r="F234" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G100" s="13" t="s">
+      <c r="G234" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H100" s="13" t="s">
+      <c r="H234" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="I100" s="13"/>
+      <c r="I234" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3603,14 +7162,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="2"/>
@@ -3754,6 +7313,31 @@
         <v>1</v>
       </c>
       <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="B11">
+        <v>-1</v>
+      </c>
+      <c r="C11">
+        <v>-1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="B12">
+        <v>-1</v>
+      </c>
+      <c r="C12">
+        <v>-1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
